--- a/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
+++ b/InputData/trans/BESP/BAU EV Subsidy Perc.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="5" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Dropbox (Energy Innovation)\EI-PlcyMdl\eps-1.5.0-us-wipM\InputData\trans\BESP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Meghan\Dropbox (Energy Innovation)\EPS Versions\eps-2.0.0-us\InputData\trans\BESP\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -22,13 +22,13 @@
   </sheets>
   <calcPr calcId="162913"/>
   <pivotCaches>
-    <pivotCache cacheId="0" r:id="rId8"/>
+    <pivotCache cacheId="1" r:id="rId8"/>
   </pivotCaches>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="170">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="402" uniqueCount="171">
   <si>
     <t>BESP BAU EV Subsidy Percentage</t>
   </si>
@@ -498,9 +498,6 @@
     <t>2018 Q3</t>
   </si>
   <si>
-    <t>New Vehicle Price[LDVs,passenger,battery electric vehicle] : MostRecentRun</t>
-  </si>
-  <si>
     <t>Federal Tax Credit Methodology</t>
   </si>
   <si>
@@ -538,6 +535,12 @@
   </si>
   <si>
     <t>Subsidy Percentage (dimensionless)</t>
+  </si>
+  <si>
+    <t>New Vehicle Price after Carbon Tax[LDVs,passenger,battery electric vehicle] : MostRecentRun</t>
+  </si>
+  <si>
+    <t>New Vehicles[LDVs,passenger,plugin hybrid vehicle] : MostRecentRun</t>
   </si>
 </sst>
 </file>
@@ -620,7 +623,7 @@
     <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="6" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -651,6 +654,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="4">
@@ -1677,137 +1681,7 @@
 </file>
 
 <file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
-  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
-  <pivotFields count="16">
-    <pivotField axis="axisRow" showAll="0" sortType="ascending">
-      <items count="23">
-        <item x="10"/>
-        <item x="5"/>
-        <item m="1" x="21"/>
-        <item x="16"/>
-        <item m="1" x="19"/>
-        <item x="6"/>
-        <item x="2"/>
-        <item x="3"/>
-        <item x="15"/>
-        <item x="9"/>
-        <item x="7"/>
-        <item x="13"/>
-        <item m="1" x="20"/>
-        <item x="11"/>
-        <item x="4"/>
-        <item x="12"/>
-        <item m="1" x="18"/>
-        <item x="17"/>
-        <item x="0"/>
-        <item x="1"/>
-        <item x="14"/>
-        <item x="8"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0">
-      <items count="3">
-        <item x="0"/>
-        <item x="1"/>
-        <item t="default"/>
-      </items>
-    </pivotField>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField showAll="0"/>
-    <pivotField dataField="1" showAll="0"/>
-  </pivotFields>
-  <rowFields count="1">
-    <field x="0"/>
-  </rowFields>
-  <rowItems count="19">
-    <i>
-      <x/>
-    </i>
-    <i>
-      <x v="1"/>
-    </i>
-    <i>
-      <x v="3"/>
-    </i>
-    <i>
-      <x v="5"/>
-    </i>
-    <i>
-      <x v="6"/>
-    </i>
-    <i>
-      <x v="7"/>
-    </i>
-    <i>
-      <x v="8"/>
-    </i>
-    <i>
-      <x v="9"/>
-    </i>
-    <i>
-      <x v="10"/>
-    </i>
-    <i>
-      <x v="11"/>
-    </i>
-    <i>
-      <x v="13"/>
-    </i>
-    <i>
-      <x v="14"/>
-    </i>
-    <i>
-      <x v="15"/>
-    </i>
-    <i>
-      <x v="17"/>
-    </i>
-    <i>
-      <x v="18"/>
-    </i>
-    <i>
-      <x v="19"/>
-    </i>
-    <i>
-      <x v="20"/>
-    </i>
-    <i>
-      <x v="21"/>
-    </i>
-    <i t="grand">
-      <x/>
-    </i>
-  </rowItems>
-  <colItems count="1">
-    <i/>
-  </colItems>
-  <dataFields count="1">
-    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
-  </dataFields>
-  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
-      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
-    </ext>
-  </extLst>
-</pivotTableDefinition>
-</file>
-
-<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable5" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" rowGrandTotals="0" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
   <location ref="G22:J40" firstHeaderRow="0" firstDataRow="1" firstDataCol="1"/>
   <pivotFields count="16">
     <pivotField axis="axisRow" showAll="0" sortType="ascending" defaultSubtotal="0">
@@ -2023,6 +1897,136 @@
     <dataField name="Sum of JAN" fld="3" baseField="0" baseItem="0"/>
     <dataField name="Sum of FEB" fld="4" baseField="0" baseItem="0"/>
     <dataField name="Sum of MAR" fld="5" baseField="0" baseItem="0"/>
+  </dataFields>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
+<file path=xl/pivotTables/pivotTable2.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" name="PivotTable4" cacheId="1" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0">
+  <location ref="A22:B41" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="16">
+    <pivotField axis="axisRow" showAll="0" sortType="ascending">
+      <items count="23">
+        <item x="10"/>
+        <item x="5"/>
+        <item m="1" x="21"/>
+        <item x="16"/>
+        <item m="1" x="19"/>
+        <item x="6"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="15"/>
+        <item x="9"/>
+        <item x="7"/>
+        <item x="13"/>
+        <item m="1" x="20"/>
+        <item x="11"/>
+        <item x="4"/>
+        <item x="12"/>
+        <item m="1" x="18"/>
+        <item x="17"/>
+        <item x="0"/>
+        <item x="1"/>
+        <item x="14"/>
+        <item x="8"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField showAll="0"/>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="1">
+    <field x="0"/>
+  </rowFields>
+  <rowItems count="19">
+    <i>
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i>
+      <x v="7"/>
+    </i>
+    <i>
+      <x v="8"/>
+    </i>
+    <i>
+      <x v="9"/>
+    </i>
+    <i>
+      <x v="10"/>
+    </i>
+    <i>
+      <x v="11"/>
+    </i>
+    <i>
+      <x v="13"/>
+    </i>
+    <i>
+      <x v="14"/>
+    </i>
+    <i>
+      <x v="15"/>
+    </i>
+    <i>
+      <x v="17"/>
+    </i>
+    <i>
+      <x v="18"/>
+    </i>
+    <i>
+      <x v="19"/>
+    </i>
+    <i>
+      <x v="20"/>
+    </i>
+    <i>
+      <x v="21"/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Sum of TOTAL" fld="15" showDataAs="percentOfCol" baseField="0" baseItem="0" numFmtId="10"/>
   </dataFields>
   <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
   <extLst>
@@ -2322,7 +2326,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:B38"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -2339,12 +2343,12 @@
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
@@ -2354,22 +2358,22 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B7" s="20" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B9" s="4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B10" s="3" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.25">
@@ -2379,22 +2383,22 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B13" s="20" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B15" s="4" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
@@ -2404,12 +2408,12 @@
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" s="20" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
@@ -2505,8 +2509,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AH45"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A29" sqref="A29"/>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2626,55 +2630,55 @@
       </c>
       <c r="B3" s="2">
         <f>BAU!D92</f>
-        <v>2745.8606136031613</v>
+        <v>2745.8606136031599</v>
       </c>
       <c r="C3" s="2">
         <f>BAU!E92</f>
-        <v>2745.8606136031585</v>
+        <v>2745.8606136031603</v>
       </c>
       <c r="D3" s="2">
         <f>BAU!F92</f>
-        <v>2745.8606136031594</v>
+        <v>1913.0458308533109</v>
       </c>
       <c r="E3" s="2">
         <f>BAU!G92</f>
-        <v>1913.0458308533107</v>
+        <v>1531.9111519939402</v>
       </c>
       <c r="F3" s="2">
         <f>BAU!H92</f>
-        <v>1531.9111519939393</v>
+        <v>1131.4322818029341</v>
       </c>
       <c r="G3" s="2">
         <f>BAU!I92</f>
-        <v>933.18813916995634</v>
+        <v>933.18813916995919</v>
       </c>
       <c r="H3" s="2">
         <f>BAU!J92</f>
-        <v>933.18813916995759</v>
+        <v>933.18813916995953</v>
       </c>
       <c r="I3" s="2">
         <f>BAU!K92</f>
-        <v>744.00735890914984</v>
+        <v>744.00735890914916</v>
       </c>
       <c r="J3" s="2">
         <f>BAU!L92</f>
-        <v>744.00735890915087</v>
+        <v>744.00735890914984</v>
       </c>
       <c r="K3" s="2">
         <f>BAU!M92</f>
-        <v>621.92251501542182</v>
+        <v>621.92251501542137</v>
       </c>
       <c r="L3" s="2">
         <f>BAU!N92</f>
-        <v>414.07391374925601</v>
+        <v>240.24673989502756</v>
       </c>
       <c r="M3" s="2">
         <f>BAU!O92</f>
-        <v>154.75353065310318</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="N3" s="2">
         <f>BAU!P92</f>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="O3" s="2">
         <f>BAU!Q92</f>
@@ -2682,7 +2686,7 @@
       </c>
       <c r="P3" s="2">
         <f>BAU!R92</f>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="Q3" s="2">
         <f>BAU!S92</f>
@@ -2690,7 +2694,7 @@
       </c>
       <c r="R3" s="2">
         <f>BAU!T92</f>
-        <v>18.397272874844436</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="S3" s="2">
         <f>BAU!U92</f>
@@ -2698,7 +2702,7 @@
       </c>
       <c r="T3" s="2">
         <f>BAU!V92</f>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="U3" s="2">
         <f>BAU!W92</f>
@@ -3008,51 +3012,51 @@
       </c>
       <c r="B26" s="2">
         <f>B3+$A$22</f>
-        <v>3246.4009312578823</v>
+        <v>3246.400931257881</v>
       </c>
       <c r="C26" s="2">
         <f t="shared" ref="C26:AF26" si="0">C3+$A$22</f>
-        <v>3246.4009312578796</v>
+        <v>3246.4009312578814</v>
       </c>
       <c r="D26" s="2">
         <f t="shared" si="0"/>
-        <v>3246.4009312578805</v>
+        <v>2413.5861485080318</v>
       </c>
       <c r="E26" s="2">
         <f t="shared" si="0"/>
-        <v>2413.5861485080318</v>
+        <v>2032.4514696486613</v>
       </c>
       <c r="F26" s="2">
         <f t="shared" si="0"/>
-        <v>2032.4514696486603</v>
+        <v>1631.9725994576552</v>
       </c>
       <c r="G26" s="2">
         <f t="shared" si="0"/>
-        <v>1433.7284568246773</v>
+        <v>1433.7284568246803</v>
       </c>
       <c r="H26" s="2">
         <f t="shared" si="0"/>
-        <v>1433.7284568246787</v>
+        <v>1433.7284568246805</v>
       </c>
       <c r="I26" s="2">
         <f t="shared" si="0"/>
+        <v>1244.5476765638703</v>
+      </c>
+      <c r="J26" s="2">
+        <f t="shared" si="0"/>
         <v>1244.5476765638709</v>
       </c>
-      <c r="J26" s="2">
-        <f t="shared" si="0"/>
-        <v>1244.5476765638718</v>
-      </c>
       <c r="K26" s="2">
         <f t="shared" si="0"/>
-        <v>1122.4628326701429</v>
+        <v>1122.4628326701425</v>
       </c>
       <c r="L26" s="2">
         <f t="shared" si="0"/>
-        <v>914.6142314039771</v>
+        <v>740.78705754974862</v>
       </c>
       <c r="M26" s="2">
         <f t="shared" si="0"/>
-        <v>655.29384830782419</v>
+        <v>518.93759052956545</v>
       </c>
       <c r="N26" s="2">
         <f t="shared" si="0"/>
@@ -3080,7 +3084,7 @@
       </c>
       <c r="T26" s="2">
         <f t="shared" si="0"/>
-        <v>518.93759052956545</v>
+        <v>500.54031765472104</v>
       </c>
       <c r="U26" s="2">
         <f t="shared" si="0"/>
@@ -3237,31 +3241,31 @@
     </row>
     <row r="29" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>156</v>
+        <v>169</v>
       </c>
       <c r="B29">
-        <v>43714.2</v>
+        <v>53703</v>
       </c>
       <c r="C29">
-        <v>43336.9</v>
+        <v>51776.5</v>
       </c>
       <c r="D29">
-        <v>43350.5</v>
+        <v>50407.6</v>
       </c>
       <c r="E29">
-        <v>43582.3</v>
+        <v>49301.3</v>
       </c>
       <c r="F29">
-        <v>43847.5</v>
+        <v>48343.4</v>
       </c>
       <c r="G29">
-        <v>44139.9</v>
+        <v>47462.2</v>
       </c>
       <c r="H29">
-        <v>44473.8</v>
+        <v>46667.199999999997</v>
       </c>
       <c r="I29">
-        <v>44905.5</v>
+        <v>45962.6</v>
       </c>
       <c r="J29">
         <v>45330.9</v>
@@ -3445,55 +3449,55 @@
     <row r="33" spans="1:32" x14ac:dyDescent="0.25">
       <c r="A33" s="10">
         <f>A26/C29</f>
-        <v>7.4910778834154756E-2</v>
+        <v>6.2700277756470246E-2</v>
       </c>
       <c r="B33" s="10">
         <f>B26/D29</f>
-        <v>7.4887277684406922E-2</v>
+        <v>6.4403005325742169E-2</v>
       </c>
       <c r="C33" s="10">
         <f t="shared" ref="C33:AF33" si="1">C26/E29</f>
-        <v>7.4488976746474589E-2</v>
+        <v>6.5848181107960257E-2</v>
       </c>
       <c r="D33" s="10">
         <f t="shared" si="1"/>
-        <v>7.4038449883297344E-2</v>
+        <v>4.9925866788600545E-2</v>
       </c>
       <c r="E33" s="10">
         <f t="shared" si="1"/>
-        <v>5.468037191991898E-2</v>
+        <v>4.282252971098393E-2</v>
       </c>
       <c r="F33" s="10">
         <f t="shared" si="1"/>
-        <v>4.5699973234773289E-2</v>
+        <v>3.4970441754758275E-2</v>
       </c>
       <c r="G33" s="10">
         <f t="shared" si="1"/>
-        <v>3.1927680502937886E-2</v>
+        <v>3.1193371498232918E-2</v>
       </c>
       <c r="H33" s="10">
         <f t="shared" si="1"/>
-        <v>3.162806070086141E-2</v>
+        <v>3.1628060700861452E-2</v>
       </c>
       <c r="I33" s="10">
         <f t="shared" si="1"/>
-        <v>2.7810996969038597E-2</v>
+        <v>2.7810996969038583E-2</v>
       </c>
       <c r="J33" s="10">
         <f t="shared" si="1"/>
-        <v>2.814197021438344E-2</v>
+        <v>2.814197021438342E-2</v>
       </c>
       <c r="K33" s="10">
         <f t="shared" si="1"/>
-        <v>2.5662804338246799E-2</v>
+        <v>2.5662804338246789E-2</v>
       </c>
       <c r="L33" s="10">
         <f t="shared" si="1"/>
-        <v>2.1124974741057411E-2</v>
+        <v>1.7110063830100854E-2</v>
       </c>
       <c r="M33" s="10">
         <f t="shared" si="1"/>
-        <v>1.5273134793330012E-2</v>
+        <v>1.2095037653643292E-2</v>
       </c>
       <c r="N33" s="10">
         <f t="shared" si="1"/>
@@ -3521,7 +3525,7 @@
       </c>
       <c r="T33" s="10">
         <f t="shared" si="1"/>
-        <v>1.259211892198415E-2</v>
+        <v>1.2145705611196954E-2</v>
       </c>
       <c r="U33" s="10">
         <f t="shared" si="1"/>
@@ -3594,8 +3598,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AI92"/>
   <sheetViews>
-    <sheetView topLeftCell="A29" workbookViewId="0">
-      <selection activeCell="A47" sqref="A47"/>
+    <sheetView topLeftCell="A61" workbookViewId="0">
+      <selection activeCell="C85" sqref="C85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3735,131 +3739,131 @@
       </c>
       <c r="D3" s="14">
         <f>C3+SUMIFS(C$50:C$66,$A$50:$A$66,$A3)</f>
-        <v>36843.118661508212</v>
+        <v>37377.416211243981</v>
       </c>
       <c r="E3" s="14">
         <f t="shared" ref="E3:AI12" si="0">D3+SUMIFS(D$50:D$66,$A$50:$A$66,$A3)</f>
-        <v>54009.592035063033</v>
+        <v>55507.735430983172</v>
       </c>
       <c r="F3" s="14">
         <f t="shared" si="0"/>
-        <v>76273.349788972453</v>
+        <v>79340.232996049992</v>
       </c>
       <c r="G3" s="14">
         <f t="shared" si="0"/>
-        <v>105012.27418429738</v>
+        <v>110413.38853417023</v>
       </c>
       <c r="H3" s="14">
         <f t="shared" si="0"/>
-        <v>141145.98218079828</v>
+        <v>149790.23315837886</v>
       </c>
       <c r="I3" s="14">
         <f t="shared" si="0"/>
-        <v>187181.28461573145</v>
+        <v>200274.5995346572</v>
       </c>
       <c r="J3" s="14">
         <f t="shared" si="0"/>
-        <v>245174.65650668251</v>
+        <v>264097.84913334413</v>
       </c>
       <c r="K3" s="14">
         <f t="shared" si="0"/>
-        <v>319713.96777140483</v>
+        <v>346384.40278303844</v>
       </c>
       <c r="L3" s="14">
         <f t="shared" si="0"/>
-        <v>413856.41536803561</v>
+        <v>450571.97110545967</v>
       </c>
       <c r="M3" s="14">
         <f t="shared" si="0"/>
-        <v>532449.09651714365</v>
+        <v>581932.45794780226</v>
       </c>
       <c r="N3" s="14">
         <f t="shared" si="0"/>
-        <v>679154.05942409311</v>
+        <v>744410.31319553417</v>
       </c>
       <c r="O3" s="14">
         <f t="shared" si="0"/>
-        <v>856573.96286907257</v>
+        <v>940687.35695218516</v>
       </c>
       <c r="P3" s="14">
         <f t="shared" si="0"/>
-        <v>1066648.8920305537</v>
+        <v>1172762.1923687391</v>
       </c>
       <c r="Q3" s="14">
         <f t="shared" si="0"/>
-        <v>1311435.6316297818</v>
+        <v>1442609.2336724203</v>
       </c>
       <c r="R3" s="14">
         <f t="shared" si="0"/>
-        <v>1592882.0094367187</v>
+        <v>1752049.591778944</v>
       </c>
       <c r="S3" s="14">
         <f t="shared" si="0"/>
-        <v>1909044.6990639032</v>
+        <v>2098647.7677885396</v>
       </c>
       <c r="T3" s="14">
         <f t="shared" si="0"/>
-        <v>2257576.0079387836</v>
+        <v>2479718.5775751672</v>
       </c>
       <c r="U3" s="14">
         <f t="shared" si="0"/>
-        <v>2635779.372995689</v>
+        <v>2892241.4493082985</v>
       </c>
       <c r="V3" s="14">
         <f t="shared" si="0"/>
-        <v>3041135.686026189</v>
+        <v>3333284.5572750391</v>
       </c>
       <c r="W3" s="14">
         <f t="shared" si="0"/>
-        <v>3469613.4383781543</v>
+        <v>3799378.9535017945</v>
       </c>
       <c r="X3" s="14">
         <f t="shared" si="0"/>
-        <v>3918653.1749319122</v>
+        <v>4286186.6508666556</v>
       </c>
       <c r="Y3" s="14">
         <f t="shared" si="0"/>
-        <v>4385945.2592870155</v>
+        <v>4792010.6869036667</v>
       </c>
       <c r="Z3" s="14">
         <f t="shared" si="0"/>
-        <v>4869058.2080118321</v>
+        <v>5314229.2599426433</v>
       </c>
       <c r="AA3" s="14">
         <f t="shared" si="0"/>
-        <v>5365776.1181204123</v>
+        <v>5850426.1474667676</v>
       </c>
       <c r="AB3" s="14">
         <f t="shared" si="0"/>
-        <v>5874852.1653968943</v>
+        <v>6399312.3414858505</v>
       </c>
       <c r="AC3" s="14">
         <f t="shared" si="0"/>
-        <v>6394426.9798441641</v>
+        <v>6958887.5835362449</v>
       </c>
       <c r="AD3" s="14">
         <f t="shared" si="0"/>
-        <v>6923115.3050502315</v>
+        <v>7527674.373572859</v>
       </c>
       <c r="AE3" s="14">
         <f t="shared" si="0"/>
-        <v>7460611.5169002395</v>
+        <v>8105444.7056255974</v>
       </c>
       <c r="AF3" s="14">
         <f t="shared" si="0"/>
-        <v>8006466.3154798616</v>
+        <v>8691681.160994174</v>
       </c>
       <c r="AG3" s="14">
         <f t="shared" si="0"/>
-        <v>8559526.5832891427</v>
+        <v>9285153.4685893618</v>
       </c>
       <c r="AH3" s="14">
         <f t="shared" si="0"/>
-        <v>9119365.3671347145</v>
+        <v>9885420.0337102972</v>
       </c>
       <c r="AI3" s="14">
         <f t="shared" si="0"/>
-        <v>9684802.7975280918</v>
+        <v>10491284.759464676</v>
       </c>
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
@@ -3876,131 +3880,131 @@
       </c>
       <c r="D4" s="14">
         <f t="shared" ref="D4:S19" si="2">C4+SUMIFS(C$50:C$66,$A$50:$A$66,$A4)</f>
-        <v>13224.427875475714</v>
+        <v>13363.935393106432</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" si="2"/>
-        <v>17706.672063200043</v>
+        <v>18097.8441101672</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" si="2"/>
-        <v>23519.840360370108</v>
+        <v>24320.617499053082</v>
       </c>
       <c r="G4" s="14">
         <f t="shared" si="2"/>
-        <v>31023.704085276768</v>
+        <v>32433.959580109302</v>
       </c>
       <c r="H4" s="14">
         <f t="shared" si="2"/>
-        <v>40458.37940407265</v>
+        <v>42715.432606460687</v>
       </c>
       <c r="I4" s="14">
         <f t="shared" si="2"/>
-        <v>52478.406015186767</v>
+        <v>55897.130025431521</v>
       </c>
       <c r="J4" s="14">
         <f t="shared" si="2"/>
-        <v>67620.738888588283</v>
+        <v>72561.670454340492</v>
       </c>
       <c r="K4" s="14">
         <f t="shared" si="0"/>
-        <v>87083.291703190669</v>
+        <v>94047.063452554867</v>
       </c>
       <c r="L4" s="14">
         <f t="shared" si="0"/>
-        <v>111664.31247407247</v>
+        <v>121250.9108814458</v>
       </c>
       <c r="M4" s="14">
         <f t="shared" si="0"/>
-        <v>142629.40030662122</v>
+        <v>155549.73078657358</v>
       </c>
       <c r="N4" s="14">
         <f t="shared" si="0"/>
-        <v>180934.73262449724</v>
+        <v>197973.43695326732</v>
       </c>
       <c r="O4" s="14">
         <f t="shared" si="0"/>
-        <v>227259.87545948091</v>
+        <v>249222.26479447359</v>
       </c>
       <c r="P4" s="14">
         <f t="shared" si="0"/>
-        <v>282111.39386577206</v>
+        <v>309818.05867287121</v>
       </c>
       <c r="Q4" s="14">
         <f t="shared" si="0"/>
-        <v>346026.32367837237</v>
+        <v>380276.3471132514</v>
       </c>
       <c r="R4" s="14">
         <f t="shared" si="0"/>
-        <v>419513.2515772956</v>
+        <v>461072.63044929021</v>
       </c>
       <c r="S4" s="14">
         <f t="shared" si="0"/>
-        <v>502064.76621394942</v>
+        <v>551570.98885341699</v>
       </c>
       <c r="T4" s="14">
         <f t="shared" si="0"/>
-        <v>593067.8743917176</v>
+        <v>651070.30855112453</v>
       </c>
       <c r="U4" s="14">
         <f t="shared" si="0"/>
-        <v>691818.49124325882</v>
+        <v>758781.90451454639</v>
       </c>
       <c r="V4" s="14">
         <f t="shared" si="0"/>
-        <v>797658.86617066176</v>
+        <v>873940.26373031759</v>
       </c>
       <c r="W4" s="14">
         <f t="shared" si="0"/>
-        <v>909536.35394910083</v>
+        <v>995639.62812257628</v>
       </c>
       <c r="X4" s="14">
         <f t="shared" si="0"/>
-        <v>1026782.6692188373</v>
+        <v>1122747.3295456595</v>
       </c>
       <c r="Y4" s="14">
         <f t="shared" si="0"/>
-        <v>1148794.7554226862</v>
+        <v>1254820.2833901483</v>
       </c>
       <c r="Z4" s="14">
         <f t="shared" si="0"/>
-        <v>1274937.741190051</v>
+        <v>1391173.9253287159</v>
       </c>
       <c r="AA4" s="14">
         <f t="shared" si="0"/>
-        <v>1404633.0441841169</v>
+        <v>1531177.3686849556</v>
       </c>
       <c r="AB4" s="14">
         <f t="shared" si="0"/>
-        <v>1537555.1129376115</v>
+        <v>1674494.0476164708</v>
       </c>
       <c r="AC4" s="14">
         <f t="shared" si="0"/>
-        <v>1673218.4574968887</v>
+        <v>1820601.685550926</v>
       </c>
       <c r="AD4" s="14">
         <f t="shared" si="0"/>
-        <v>1811261.3811193479</v>
+        <v>1969114.5005140412</v>
       </c>
       <c r="AE4" s="14">
         <f t="shared" si="0"/>
-        <v>1951604.0839601033</v>
+        <v>2119972.9591111587</v>
       </c>
       <c r="AF4" s="14">
         <f t="shared" si="0"/>
-        <v>2094129.2517702868</v>
+        <v>2273041.9609689224</v>
       </c>
       <c r="AG4" s="14">
         <f t="shared" si="0"/>
-        <v>2238535.8003318724</v>
+        <v>2428000.2767166272</v>
       </c>
       <c r="AH4" s="14">
         <f t="shared" si="0"/>
-        <v>2384712.2502263589</v>
+        <v>2584732.6039716457</v>
       </c>
       <c r="AI4" s="14">
         <f t="shared" si="0"/>
-        <v>2532350.5321699767</v>
+        <v>2742926.6364013483</v>
       </c>
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
@@ -4017,131 +4021,131 @@
       </c>
       <c r="D5" s="14">
         <f t="shared" si="2"/>
-        <v>95158.401732409868</v>
+        <v>95666.89129376116</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" si="2"/>
-        <v>111495.68892375955</v>
+        <v>112921.46802121098</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" si="2"/>
-        <v>132684.04814403984</v>
+        <v>135602.79276013203</v>
       </c>
       <c r="G5" s="14">
         <f t="shared" si="2"/>
-        <v>160034.80628753858</v>
+        <v>165175.03249283048</v>
       </c>
       <c r="H5" s="14">
         <f t="shared" si="2"/>
-        <v>194423.16037642266</v>
+        <v>202649.87111087062</v>
       </c>
       <c r="I5" s="14">
         <f t="shared" si="2"/>
-        <v>238234.83563750162</v>
+        <v>250695.70872788268</v>
       </c>
       <c r="J5" s="14">
         <f t="shared" si="2"/>
-        <v>293426.97389210545</v>
+        <v>311436.12613855669</v>
       </c>
       <c r="K5" s="14">
         <f t="shared" si="0"/>
-        <v>364365.83877585991</v>
+        <v>389748.02105766279</v>
       </c>
       <c r="L5" s="14">
         <f t="shared" si="0"/>
-        <v>453960.95652742457</v>
+        <v>488903.05356852978</v>
       </c>
       <c r="M5" s="14">
         <f t="shared" si="0"/>
-        <v>566825.29671915306</v>
+        <v>613918.4805836624</v>
       </c>
       <c r="N5" s="14">
         <f t="shared" si="0"/>
-        <v>706444.02091787965</v>
+        <v>768548.22460003966</v>
       </c>
       <c r="O5" s="14">
         <f t="shared" si="0"/>
-        <v>875294.07258355431</v>
+        <v>955344.56669913244</v>
       </c>
       <c r="P5" s="14">
         <f t="shared" si="0"/>
-        <v>1075221.825636239</v>
+        <v>1176209.5722002778</v>
       </c>
       <c r="Q5" s="14">
         <f t="shared" si="0"/>
-        <v>1308184.7166414156</v>
+        <v>1433022.2858882095</v>
       </c>
       <c r="R5" s="14">
         <f t="shared" si="0"/>
-        <v>1576036.4881229373</v>
+        <v>1727515.8541925941</v>
       </c>
       <c r="S5" s="14">
         <f t="shared" si="0"/>
-        <v>1876927.6815107409</v>
+        <v>2057372.4192684377</v>
       </c>
       <c r="T5" s="14">
         <f t="shared" si="0"/>
-        <v>2208624.0040086214</v>
+        <v>2420036.4985029669</v>
       </c>
       <c r="U5" s="14">
         <f t="shared" si="0"/>
-        <v>2568559.1436971305</v>
+        <v>2812633.4216943528</v>
       </c>
       <c r="V5" s="14">
         <f t="shared" si="0"/>
-        <v>2954335.6719739195</v>
+        <v>3232372.9780856017</v>
       </c>
       <c r="W5" s="14">
         <f t="shared" si="0"/>
-        <v>3362116.8127446212</v>
+        <v>3675953.7790884334</v>
       </c>
       <c r="X5" s="14">
         <f t="shared" si="0"/>
-        <v>3789466.739358441</v>
+        <v>4139247.3738614433</v>
       </c>
       <c r="Y5" s="14">
         <f t="shared" si="0"/>
-        <v>4234187.3769772565</v>
+        <v>4620638.7677254118</v>
       </c>
       <c r="Z5" s="14">
         <f t="shared" si="0"/>
-        <v>4693964.6892664544</v>
+        <v>5117632.7989827394</v>
       </c>
       <c r="AA5" s="14">
         <f t="shared" si="0"/>
-        <v>5166689.8072299482</v>
+        <v>5627929.9550709743</v>
       </c>
       <c r="AB5" s="14">
         <f t="shared" si="0"/>
-        <v>5651176.1315675564</v>
+        <v>6150303.490503761</v>
       </c>
       <c r="AC5" s="14">
         <f t="shared" si="0"/>
-        <v>6145654.1047832919</v>
+        <v>6682849.76460509</v>
       </c>
       <c r="AD5" s="14">
         <f t="shared" si="0"/>
-        <v>6648805.3820229797</v>
+        <v>7224162.6444997564</v>
       </c>
       <c r="AE5" s="14">
         <f t="shared" si="0"/>
-        <v>7160339.1016268972</v>
+        <v>7774025.1375105968</v>
       </c>
       <c r="AF5" s="14">
         <f t="shared" si="0"/>
-        <v>7679827.666057935</v>
+        <v>8331944.8176325243</v>
       </c>
       <c r="AG5" s="14">
         <f t="shared" si="0"/>
-        <v>8206173.6564489678</v>
+        <v>8896750.8391320817</v>
       </c>
       <c r="AH5" s="14">
         <f t="shared" si="0"/>
-        <v>8738970.7425779644</v>
+        <v>9468022.9375033826</v>
       </c>
       <c r="AI5" s="14">
         <f t="shared" si="0"/>
-        <v>9277096.0457812548</v>
+        <v>10044622.790505566</v>
       </c>
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
@@ -4158,131 +4162,131 @@
       </c>
       <c r="D6" s="14">
         <f t="shared" si="2"/>
-        <v>40267.597918583051</v>
+        <v>40292.142578864783</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" si="2"/>
-        <v>41056.194567393541</v>
+        <v>41125.01655754559</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" si="2"/>
-        <v>42078.951214761109</v>
+        <v>42219.838266327584</v>
       </c>
       <c r="G6" s="14">
         <f t="shared" si="2"/>
-        <v>43399.165272441969</v>
+        <v>43647.282668686763</v>
       </c>
       <c r="H6" s="14">
         <f t="shared" si="2"/>
-        <v>45059.082275490146</v>
+        <v>45456.18348574212</v>
       </c>
       <c r="I6" s="14">
         <f t="shared" si="2"/>
-        <v>47173.86056670815</v>
+        <v>47775.34370434501</v>
       </c>
       <c r="J6" s="14">
         <f t="shared" si="2"/>
-        <v>49837.97087819923</v>
+        <v>50707.268023014636</v>
       </c>
       <c r="K6" s="14">
         <f t="shared" si="0"/>
-        <v>53262.171632126687</v>
+        <v>54487.363039518073</v>
       </c>
       <c r="L6" s="14">
         <f t="shared" si="0"/>
-        <v>57586.904911350393</v>
+        <v>59273.550944212984</v>
       </c>
       <c r="M6" s="14">
         <f t="shared" si="0"/>
-        <v>63034.837570117052</v>
+        <v>65308.013437223824</v>
       </c>
       <c r="N6" s="14">
         <f t="shared" si="0"/>
-        <v>69774.197460454874</v>
+        <v>72771.951391519222</v>
       </c>
       <c r="O6" s="14">
         <f t="shared" si="0"/>
-        <v>77924.546005807759</v>
+        <v>81788.562758148008</v>
       </c>
       <c r="P6" s="14">
         <f t="shared" si="0"/>
-        <v>87575.007200187567</v>
+        <v>92449.659740634524</v>
       </c>
       <c r="Q6" s="14">
         <f t="shared" si="0"/>
-        <v>98820.0660029219</v>
+        <v>104845.94334722147</v>
       </c>
       <c r="R6" s="14">
         <f t="shared" si="0"/>
-        <v>111749.20208863154</v>
+        <v>119061.07211009506</v>
       </c>
       <c r="S6" s="14">
         <f t="shared" si="0"/>
-        <v>126273.14256804284</v>
+        <v>134983.16362750935</v>
       </c>
       <c r="T6" s="14">
         <f t="shared" si="0"/>
-        <v>142284.03870281187</v>
+        <v>152488.86541132335</v>
       </c>
       <c r="U6" s="14">
         <f t="shared" si="0"/>
-        <v>159658.01527695108</v>
+        <v>171439.41787060586</v>
       </c>
       <c r="V6" s="14">
         <f t="shared" si="0"/>
-        <v>178279.34902873219</v>
+        <v>191700.13825009469</v>
       </c>
       <c r="W6" s="14">
         <f t="shared" si="0"/>
-        <v>197962.83976336056</v>
+        <v>213111.66937214797</v>
       </c>
       <c r="X6" s="14">
         <f t="shared" si="0"/>
-        <v>218590.91075519001</v>
+        <v>235474.73197698538</v>
       </c>
       <c r="Y6" s="14">
         <f t="shared" si="0"/>
-        <v>240057.46149739373</v>
+        <v>258711.37068701189</v>
       </c>
       <c r="Z6" s="14">
         <f t="shared" si="0"/>
-        <v>262250.79405154847</v>
+        <v>282701.1446891402</v>
       </c>
       <c r="AA6" s="14">
         <f t="shared" si="0"/>
-        <v>285069.11385386798</v>
+        <v>307333.05710369209</v>
       </c>
       <c r="AB6" s="14">
         <f t="shared" si="0"/>
-        <v>308455.1440614686</v>
+        <v>332547.8932417077</v>
       </c>
       <c r="AC6" s="14">
         <f t="shared" si="0"/>
-        <v>332323.46858936211</v>
+        <v>358253.76485760149</v>
       </c>
       <c r="AD6" s="14">
         <f t="shared" si="0"/>
-        <v>356610.45127067447</v>
+        <v>384382.79827931389</v>
       </c>
       <c r="AE6" s="14">
         <f t="shared" si="0"/>
-        <v>381302.05228793545</v>
+        <v>410924.51932615478</v>
       </c>
       <c r="AF6" s="14">
         <f t="shared" si="0"/>
-        <v>406377.63161805831</v>
+        <v>437855.15872156987</v>
       </c>
       <c r="AG6" s="14">
         <f t="shared" si="0"/>
-        <v>431784.21713471506</v>
+        <v>465118.20004328765</v>
       </c>
       <c r="AH6" s="14">
         <f t="shared" si="0"/>
-        <v>457502.19538264535</v>
+        <v>492693.35723175149</v>
       </c>
       <c r="AI6" s="14">
         <f t="shared" si="0"/>
-        <v>483477.36529769324</v>
+        <v>520525.68376530847</v>
       </c>
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
@@ -4299,131 +4303,131 @@
       </c>
       <c r="D7" s="14">
         <f t="shared" si="2"/>
-        <v>119020.98713002543</v>
+        <v>119285.47389210541</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" si="2"/>
-        <v>127518.69587143553</v>
+        <v>128260.30341972837</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="2"/>
-        <v>138539.65077376764</v>
+        <v>140057.81234781668</v>
       </c>
       <c r="G7" s="14">
         <f t="shared" si="2"/>
-        <v>152765.92799090958</v>
+        <v>155439.57537470915</v>
       </c>
       <c r="H7" s="14">
         <f t="shared" si="2"/>
-        <v>170652.75422596181</v>
+        <v>174931.81175261078</v>
       </c>
       <c r="I7" s="14">
         <f t="shared" si="2"/>
-        <v>193441.0452978735</v>
+        <v>199922.46837292353</v>
       </c>
       <c r="J7" s="14">
         <f t="shared" si="2"/>
-        <v>222148.79280883068</v>
+        <v>231516.10873329363</v>
       </c>
       <c r="K7" s="14">
         <f t="shared" si="0"/>
-        <v>259047.07372707102</v>
+        <v>272249.41201774793</v>
       </c>
       <c r="L7" s="14">
         <f t="shared" si="0"/>
-        <v>305649.25476164708</v>
+        <v>323824.10594664788</v>
       </c>
       <c r="M7" s="14">
         <f t="shared" si="0"/>
-        <v>364354.73499269516</v>
+        <v>388849.87641361397</v>
       </c>
       <c r="N7" s="14">
         <f t="shared" si="0"/>
-        <v>436976.29322276928</v>
+        <v>469279.29606081918</v>
       </c>
       <c r="O7" s="14">
         <f t="shared" si="0"/>
-        <v>524802.29170228879</v>
+        <v>566439.91339754337</v>
       </c>
       <c r="P7" s="14">
         <f t="shared" si="0"/>
-        <v>628793.10699908005</v>
+        <v>681321.07242573448</v>
       </c>
       <c r="Q7" s="14">
         <f t="shared" si="0"/>
-        <v>749966.88402413274</v>
+        <v>814900.14320112544</v>
       </c>
       <c r="R7" s="14">
         <f t="shared" si="0"/>
-        <v>889287.83206536423</v>
+        <v>968078.60792164924</v>
       </c>
       <c r="S7" s="14">
         <f t="shared" si="0"/>
-        <v>1045793.9700990204</v>
+        <v>1139650.8514420216</v>
       </c>
       <c r="T7" s="14">
         <f t="shared" si="0"/>
-        <v>1218323.1486689029</v>
+        <v>1328287.6600021643</v>
       </c>
       <c r="U7" s="14">
         <f t="shared" si="0"/>
-        <v>1405540.5212380281</v>
+        <v>1532493.7969806828</v>
       </c>
       <c r="V7" s="14">
         <f t="shared" si="0"/>
-        <v>1606199.08457064</v>
+        <v>1750817.9566581894</v>
       </c>
       <c r="W7" s="14">
         <f t="shared" si="0"/>
-        <v>1818303.1703912125</v>
+        <v>1981542.9482711973</v>
       </c>
       <c r="X7" s="14">
         <f t="shared" si="0"/>
-        <v>2040585.8030274333</v>
+        <v>2222521.3912667064</v>
       </c>
       <c r="Y7" s="14">
         <f t="shared" si="0"/>
-        <v>2271903.6715031653</v>
+        <v>2472913.2591309994</v>
       </c>
       <c r="Z7" s="14">
         <f t="shared" si="0"/>
-        <v>2511053.1484010606</v>
+        <v>2731420.7135436395</v>
       </c>
       <c r="AA7" s="14">
         <f t="shared" si="0"/>
-        <v>2756937.3224473787</v>
+        <v>2996847.6815107409</v>
       </c>
       <c r="AB7" s="14">
         <f t="shared" si="0"/>
-        <v>3008938.993544722</v>
+        <v>3268556.0812185491</v>
       </c>
       <c r="AC7" s="14">
         <f t="shared" si="0"/>
-        <v>3266137.7405713978</v>
+        <v>3545555.7492559929</v>
       </c>
       <c r="AD7" s="14">
         <f t="shared" si="0"/>
-        <v>3527847.8370380392</v>
+        <v>3827115.2968995189</v>
       </c>
       <c r="AE7" s="14">
         <f t="shared" si="0"/>
-        <v>3793917.9935880094</v>
+        <v>4113121.8571505877</v>
       </c>
       <c r="AF7" s="14">
         <f t="shared" si="0"/>
-        <v>4064125.798796061</v>
+        <v>4403319.2985769175</v>
       </c>
       <c r="AG7" s="14">
         <f t="shared" si="0"/>
-        <v>4337900.4390509175</v>
+        <v>4697098.6151723396</v>
       </c>
       <c r="AH7" s="14">
         <f t="shared" si="0"/>
-        <v>4615030.5649504904</v>
+        <v>4994241.2097289115</v>
       </c>
       <c r="AI7" s="14">
         <f t="shared" si="0"/>
-        <v>4894932.1201747749</v>
+        <v>5294154.9930739682</v>
       </c>
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
@@ -4440,131 +4444,131 @@
       </c>
       <c r="D8" s="14">
         <f t="shared" si="2"/>
-        <v>230257.83524159947</v>
+        <v>231350.97500135275</v>
       </c>
       <c r="E8" s="14">
         <f t="shared" si="2"/>
-        <v>265379.37863751961</v>
+        <v>268444.48741951195</v>
       </c>
       <c r="F8" s="14">
         <f t="shared" si="2"/>
-        <v>310929.650792706</v>
+        <v>317204.30425842758</v>
       </c>
       <c r="G8" s="14">
         <f t="shared" si="2"/>
-        <v>369727.71364103671</v>
+        <v>380778.05973702722</v>
       </c>
       <c r="H8" s="14">
         <f t="shared" si="2"/>
-        <v>443655.04663708672</v>
+        <v>461340.64980249986</v>
       </c>
       <c r="I8" s="14">
         <f t="shared" si="2"/>
-        <v>537840.42979817104</v>
+        <v>564628.54277365946</v>
       </c>
       <c r="J8" s="14">
         <f t="shared" si="2"/>
-        <v>656491.28389156424</v>
+        <v>695206.96628970292</v>
       </c>
       <c r="K8" s="14">
         <f t="shared" si="0"/>
-        <v>808994.10717493633</v>
+        <v>863560.1686055949</v>
       </c>
       <c r="L8" s="14">
         <f t="shared" si="0"/>
-        <v>1001603.7356474216</v>
+        <v>1076721.4931551323</v>
       </c>
       <c r="M8" s="14">
         <f t="shared" si="0"/>
-        <v>1244237.0306044044</v>
+        <v>1345476.9293328284</v>
       </c>
       <c r="N8" s="14">
         <f t="shared" si="0"/>
-        <v>1544386.3163086411</v>
+        <v>1677896.5777825876</v>
       </c>
       <c r="O8" s="14">
         <f t="shared" si="0"/>
-        <v>1907376.4717439529</v>
+        <v>2079467.2766625183</v>
       </c>
       <c r="P8" s="14">
         <f t="shared" si="0"/>
-        <v>2337176.7912612949</v>
+        <v>2554278.0444781128</v>
       </c>
       <c r="Q8" s="14">
         <f t="shared" si="0"/>
-        <v>2837995.3292624853</v>
+        <v>3106368.4106920622</v>
       </c>
       <c r="R8" s="14">
         <f t="shared" si="0"/>
-        <v>3413817.2209620685</v>
+        <v>3739464.2556679836</v>
       </c>
       <c r="S8" s="14">
         <f t="shared" si="0"/>
-        <v>4060666.5406958493</v>
+        <v>4448582.6992045883</v>
       </c>
       <c r="T8" s="14">
         <f t="shared" si="0"/>
-        <v>4773740.0545803793</v>
+        <v>5228230.0205616578</v>
       </c>
       <c r="U8" s="14">
         <f t="shared" si="0"/>
-        <v>5547520.7612683289</v>
+        <v>6072226.3164872034</v>
       </c>
       <c r="V8" s="14">
         <f t="shared" si="0"/>
-        <v>6376854.7210811097</v>
+        <v>6974573.2528001731</v>
       </c>
       <c r="W8" s="14">
         <f t="shared" si="0"/>
-        <v>7253493.7165196687</v>
+        <v>7928173.5763757378</v>
       </c>
       <c r="X8" s="14">
         <f t="shared" si="0"/>
-        <v>8172201.2606190145</v>
+        <v>8924152.0337102972</v>
       </c>
       <c r="Y8" s="14">
         <f t="shared" si="0"/>
-        <v>9128251.9800714254</v>
+        <v>9959036.744494345</v>
       </c>
       <c r="Z8" s="14">
         <f t="shared" si="0"/>
-        <v>10116671.210075213</v>
+        <v>11027463.664574428</v>
       </c>
       <c r="AA8" s="14">
         <f t="shared" si="0"/>
-        <v>11132925.350094693</v>
+        <v>12124489.352037227</v>
       </c>
       <c r="AB8" s="14">
         <f t="shared" si="0"/>
-        <v>12174463.474855257</v>
+        <v>13247476.576213408</v>
       </c>
       <c r="AC8" s="14">
         <f t="shared" si="0"/>
-        <v>13237481.428277692</v>
+        <v>14392332.931930091</v>
       </c>
       <c r="AD8" s="14">
         <f t="shared" si="0"/>
-        <v>14319145.06137114</v>
+        <v>15556035.545425031</v>
       </c>
       <c r="AE8" s="14">
         <f t="shared" si="0"/>
-        <v>15418829.086088417</v>
+        <v>16738117.930577351</v>
       </c>
       <c r="AF8" s="14">
         <f t="shared" si="0"/>
-        <v>16535614.262577785</v>
+        <v>17937521.480709918</v>
       </c>
       <c r="AG8" s="14">
         <f t="shared" si="0"/>
-        <v>17667141.383713007</v>
+        <v>19151729.137222011</v>
       </c>
       <c r="AH8" s="14">
         <f t="shared" si="0"/>
-        <v>18812536.92965208</v>
+        <v>20379837.424652345</v>
       </c>
       <c r="AI8" s="14">
         <f t="shared" si="0"/>
-        <v>19969386.960353881</v>
+        <v>21619399.202694658</v>
       </c>
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
@@ -4581,131 +4585,131 @@
       </c>
       <c r="D9" s="14">
         <f t="shared" si="2"/>
-        <v>10817.558600725068</v>
+        <v>10906.893945132839</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" si="2"/>
-        <v>13687.818462204425</v>
+        <v>13938.310264596072</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" si="2"/>
-        <v>17410.351847843729</v>
+        <v>17923.139278177587</v>
       </c>
       <c r="G9" s="14">
         <f t="shared" si="2"/>
-        <v>22215.542719549805</v>
+        <v>23118.61706617607</v>
       </c>
       <c r="H9" s="14">
         <f t="shared" si="2"/>
-        <v>28257.152399761915</v>
+        <v>29702.484010605483</v>
       </c>
       <c r="I9" s="14">
         <f t="shared" si="2"/>
-        <v>35954.323386180396</v>
+        <v>38143.545100373354</v>
       </c>
       <c r="J9" s="14">
         <f t="shared" si="2"/>
-        <v>45650.901358151612</v>
+        <v>48814.887289648825</v>
       </c>
       <c r="K9" s="14">
         <f t="shared" si="0"/>
-        <v>58113.984984578754</v>
+        <v>62573.321357069421</v>
       </c>
       <c r="L9" s="14">
         <f t="shared" si="0"/>
-        <v>73854.742140576796</v>
+        <v>79993.637627833989</v>
       </c>
       <c r="M9" s="14">
         <f t="shared" si="0"/>
-        <v>93683.614685352513</v>
+        <v>101957.30626048373</v>
       </c>
       <c r="N9" s="14">
         <f t="shared" si="0"/>
-        <v>118212.90252150857</v>
+        <v>129123.84513825009</v>
       </c>
       <c r="O9" s="14">
         <f t="shared" si="0"/>
-        <v>147877.77406525621</v>
+        <v>161941.6585682593</v>
       </c>
       <c r="P9" s="14">
         <f t="shared" si="0"/>
-        <v>183002.61444185919</v>
+        <v>200744.91596775065</v>
       </c>
       <c r="Q9" s="14">
         <f t="shared" si="0"/>
-        <v>223931.32111357609</v>
+        <v>245863.74232996049</v>
       </c>
       <c r="R9" s="14">
         <f t="shared" si="0"/>
-        <v>270989.57377847517</v>
+        <v>297602.63010659593</v>
       </c>
       <c r="S9" s="14">
         <f t="shared" si="0"/>
-        <v>323852.44537633244</v>
+        <v>355554.36026189057</v>
       </c>
       <c r="T9" s="14">
         <f t="shared" si="0"/>
-        <v>382127.39821979328</v>
+        <v>419269.96601915476</v>
       </c>
       <c r="U9" s="14">
         <f t="shared" si="0"/>
-        <v>445363.56295654993</v>
+        <v>488244.40327904327</v>
       </c>
       <c r="V9" s="14">
         <f t="shared" si="0"/>
-        <v>513139.74095016497</v>
+        <v>561987.46642497694</v>
       </c>
       <c r="W9" s="14">
         <f t="shared" si="0"/>
-        <v>584781.85796223138</v>
+        <v>639919.14220009733</v>
       </c>
       <c r="X9" s="14">
         <f t="shared" si="0"/>
-        <v>659861.96929278714</v>
+        <v>721314.11271035112</v>
       </c>
       <c r="Y9" s="14">
         <f t="shared" si="0"/>
-        <v>737993.90030301386</v>
+        <v>805888.64330934465</v>
       </c>
       <c r="Z9" s="14">
         <f t="shared" si="0"/>
-        <v>818771.10334938578</v>
+        <v>893204.36486120871</v>
       </c>
       <c r="AA9" s="14">
         <f t="shared" si="0"/>
-        <v>901823.07615929865</v>
+        <v>982857.28137005563</v>
       </c>
       <c r="AB9" s="14">
         <f t="shared" si="0"/>
-        <v>986941.34787078609</v>
+        <v>1074631.8687841566</v>
       </c>
       <c r="AC9" s="14">
         <f t="shared" si="0"/>
-        <v>1073815.029056869</v>
+        <v>1168193.6809155347</v>
       </c>
       <c r="AD9" s="14">
         <f t="shared" si="0"/>
-        <v>1162212.5027866454</v>
+        <v>1263295.6775607378</v>
       </c>
       <c r="AE9" s="14">
         <f t="shared" si="0"/>
-        <v>1252082.6682538821</v>
+        <v>1359899.7357826955</v>
       </c>
       <c r="AF9" s="14">
         <f t="shared" si="0"/>
-        <v>1343350.4018451381</v>
+        <v>1457919.3424057136</v>
       </c>
       <c r="AG9" s="14">
         <f t="shared" si="0"/>
-        <v>1435822.9006006166</v>
+        <v>1557148.7942752012</v>
       </c>
       <c r="AH9" s="14">
         <f t="shared" si="0"/>
-        <v>1529428.7773118336</v>
+        <v>1657514.25610086</v>
       </c>
       <c r="AI9" s="14">
         <f t="shared" si="0"/>
-        <v>1623970.7560467506</v>
+        <v>1758815.7387046153</v>
       </c>
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
@@ -4722,131 +4726,131 @@
       </c>
       <c r="D10" s="14">
         <f t="shared" si="2"/>
-        <v>16271.129570008838</v>
+        <v>16434.008657540177</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" si="2"/>
-        <v>21504.280125534333</v>
+        <v>21960.984876359504</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" si="2"/>
-        <v>28291.323318543367</v>
+        <v>29226.253936475296</v>
       </c>
       <c r="G10" s="14">
         <f t="shared" si="2"/>
-        <v>37052.302635138789</v>
+        <v>38698.8169741897</v>
       </c>
       <c r="H10" s="14">
         <f t="shared" si="2"/>
-        <v>48067.560688454803</v>
+        <v>50702.735999134238</v>
       </c>
       <c r="I10" s="14">
         <f t="shared" si="2"/>
-        <v>62101.291628339008</v>
+        <v>66092.751420377681</v>
       </c>
       <c r="J10" s="14">
         <f t="shared" si="2"/>
-        <v>79780.406011579456</v>
+        <v>85549.087432137501</v>
       </c>
       <c r="K10" s="14">
         <f t="shared" si="0"/>
-        <v>102503.50292642893</v>
+        <v>110633.9091409195</v>
       </c>
       <c r="L10" s="14">
         <f t="shared" si="0"/>
-        <v>131202.56016539509</v>
+        <v>142395.19284670742</v>
       </c>
       <c r="M10" s="14">
         <f t="shared" si="0"/>
-        <v>167355.20152228413</v>
+        <v>182440.06343451832</v>
       </c>
       <c r="N10" s="14">
         <f t="shared" si="0"/>
-        <v>212077.79197103329</v>
+        <v>231970.9752268095</v>
       </c>
       <c r="O10" s="14">
         <f t="shared" si="0"/>
-        <v>266163.7446341287</v>
+        <v>291805.47345021012</v>
       </c>
       <c r="P10" s="14">
         <f t="shared" si="0"/>
-        <v>330204.48895712709</v>
+        <v>362552.82658766658</v>
       </c>
       <c r="Q10" s="14">
         <f t="shared" si="0"/>
-        <v>404827.02990909579</v>
+        <v>444814.92919755424</v>
       </c>
       <c r="R10" s="14">
         <f t="shared" si="0"/>
-        <v>490625.15724257339</v>
+        <v>539146.94176000578</v>
       </c>
       <c r="S10" s="14">
         <f t="shared" si="0"/>
-        <v>587006.45343866665</v>
+        <v>644806.40936637623</v>
       </c>
       <c r="T10" s="14">
         <f t="shared" si="0"/>
-        <v>693255.2310977038</v>
+        <v>760974.7612773478</v>
       </c>
       <c r="U10" s="14">
         <f t="shared" si="0"/>
-        <v>808549.45064300252</v>
+        <v>886731.18476633646</v>
       </c>
       <c r="V10" s="14">
         <f t="shared" si="0"/>
-        <v>932121.16910610872</v>
+        <v>1021181.9211081651</v>
       </c>
       <c r="W10" s="14">
         <f t="shared" si="0"/>
-        <v>1062741.3925473006</v>
+        <v>1163269.4713850259</v>
       </c>
       <c r="X10" s="14">
         <f t="shared" si="0"/>
-        <v>1199629.8783570512</v>
+        <v>1311671.4125678623</v>
       </c>
       <c r="Y10" s="14">
         <f t="shared" si="0"/>
-        <v>1342082.5404514545</v>
+        <v>1465870.4304781486</v>
       </c>
       <c r="Z10" s="14">
         <f t="shared" si="0"/>
-        <v>1489358.1480259004</v>
+        <v>1625067.2763378604</v>
       </c>
       <c r="AA10" s="14">
         <f t="shared" si="0"/>
-        <v>1640781.1893611455</v>
+        <v>1788525.3715888388</v>
       </c>
       <c r="AB10" s="14">
         <f t="shared" si="0"/>
-        <v>1795971.573643201</v>
+        <v>1955851.7658135379</v>
       </c>
       <c r="AC10" s="14">
         <f t="shared" si="0"/>
-        <v>1954362.4772198473</v>
+        <v>2126436.6859116568</v>
       </c>
       <c r="AD10" s="14">
         <f t="shared" si="0"/>
-        <v>2115531.6086160559</v>
+        <v>2299829.720199123</v>
       </c>
       <c r="AE10" s="14">
         <f t="shared" si="0"/>
-        <v>2279385.799190159</v>
+        <v>2475961.3617048133</v>
       </c>
       <c r="AF10" s="14">
         <f t="shared" si="0"/>
-        <v>2445788.0811418933</v>
+        <v>2654673.876810417</v>
       </c>
       <c r="AG10" s="14">
         <f t="shared" si="0"/>
-        <v>2614386.9298829427</v>
+        <v>2835592.2208754928</v>
       </c>
       <c r="AH10" s="14">
         <f t="shared" si="0"/>
-        <v>2785052.1899473332</v>
+        <v>3018581.7750121737</v>
       </c>
       <c r="AI10" s="14">
         <f t="shared" si="0"/>
-        <v>2957424.1814791765</v>
+        <v>3203277.9124866971</v>
       </c>
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
@@ -4863,131 +4867,131 @@
       </c>
       <c r="D11" s="14">
         <f t="shared" si="2"/>
-        <v>24098.133743664665</v>
+        <v>24350.528651047021</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" si="2"/>
-        <v>32207.342665440181</v>
+        <v>32915.045262702231</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" si="2"/>
-        <v>42724.439513554462</v>
+        <v>44173.193496022941</v>
       </c>
       <c r="G11" s="14">
         <f t="shared" si="2"/>
-        <v>56300.317158162434</v>
+        <v>58851.730236459065</v>
       </c>
       <c r="H11" s="14">
         <f t="shared" si="2"/>
-        <v>73369.390163771794</v>
+        <v>77452.816947134896</v>
       </c>
       <c r="I11" s="14">
         <f t="shared" si="2"/>
-        <v>95115.84193045109</v>
+        <v>101300.94610681239</v>
       </c>
       <c r="J11" s="14">
         <f t="shared" si="2"/>
-        <v>122511.12333207077</v>
+        <v>131450.18257489672</v>
       </c>
       <c r="K11" s="14">
         <f t="shared" si="0"/>
-        <v>157722.48182006745</v>
+        <v>170321.23316739712</v>
       </c>
       <c r="L11" s="14">
         <f t="shared" si="0"/>
-        <v>202194.09572443771</v>
+        <v>219538.02570207237</v>
       </c>
       <c r="M11" s="14">
         <f t="shared" si="0"/>
-        <v>258215.66795447576</v>
+        <v>281590.93597027572</v>
       </c>
       <c r="N11" s="14">
         <f t="shared" si="0"/>
-        <v>327517.10035622166</v>
+        <v>358343.26853705599</v>
       </c>
       <c r="O11" s="14">
         <f t="shared" si="0"/>
-        <v>411327.85359648644</v>
+        <v>451061.87880345574</v>
       </c>
       <c r="P11" s="14">
         <f t="shared" si="0"/>
-        <v>510564.39756957593</v>
+        <v>560690.87975939247</v>
       </c>
       <c r="Q11" s="14">
         <f t="shared" si="0"/>
-        <v>626198.32944916398</v>
+        <v>688162.95787565596</v>
       </c>
       <c r="R11" s="14">
         <f t="shared" si="0"/>
-        <v>759149.7766246415</v>
+        <v>834338.38122035237</v>
       </c>
       <c r="S11" s="14">
         <f t="shared" si="0"/>
-        <v>908500.73809858772</v>
+        <v>998066.65318435139</v>
       </c>
       <c r="T11" s="14">
         <f t="shared" si="0"/>
-        <v>1073142.1957785473</v>
+        <v>1178079.3292480565</v>
       </c>
       <c r="U11" s="14">
         <f t="shared" si="0"/>
-        <v>1251800.3298883538</v>
+        <v>1372949.5322944284</v>
       </c>
       <c r="V11" s="14">
         <f t="shared" si="0"/>
-        <v>1443285.1479167794</v>
+        <v>1581292.3076673339</v>
       </c>
       <c r="W11" s="14">
         <f t="shared" si="0"/>
-        <v>1645692.219919557</v>
+        <v>1801468.9714481537</v>
       </c>
       <c r="X11" s="14">
         <f t="shared" si="0"/>
-        <v>1857812.4940524502</v>
+        <v>2031430.3174251029</v>
       </c>
       <c r="Y11" s="14">
         <f t="shared" si="0"/>
-        <v>2078554.9294419494</v>
+        <v>2270374.7235719566</v>
       </c>
       <c r="Z11" s="14">
         <f t="shared" si="0"/>
-        <v>2306770.9263315476</v>
+        <v>2517063.6863806071</v>
       </c>
       <c r="AA11" s="14">
         <f t="shared" si="0"/>
-        <v>2541413.7222399581</v>
+        <v>2770355.8151434804</v>
       </c>
       <c r="AB11" s="14">
         <f t="shared" si="0"/>
-        <v>2781894.3343379688</v>
+        <v>3029642.1999891778</v>
       </c>
       <c r="AC11" s="14">
         <f t="shared" si="0"/>
-        <v>3027334.4214869328</v>
+        <v>3293977.9459805563</v>
       </c>
       <c r="AD11" s="14">
         <f t="shared" si="0"/>
-        <v>3277079.6073679277</v>
+        <v>3562665.1021589739</v>
       </c>
       <c r="AE11" s="14">
         <f t="shared" si="0"/>
-        <v>3530985.5192991002</v>
+        <v>3835595.9616002017</v>
       </c>
       <c r="AF11" s="14">
         <f t="shared" si="0"/>
-        <v>3788839.9141018707</v>
+        <v>4112526.1027361429</v>
       </c>
       <c r="AG11" s="14">
         <f t="shared" si="0"/>
-        <v>4050098.0747271976</v>
+        <v>4392874.362209837</v>
       </c>
       <c r="AH11" s="14">
         <f t="shared" si="0"/>
-        <v>4314558.3142840397</v>
+        <v>4676432.136680915</v>
       </c>
       <c r="AI11" s="14">
         <f t="shared" si="0"/>
-        <v>4581663.2784472341</v>
+        <v>4962634.4062189991</v>
       </c>
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
@@ -5004,131 +5008,131 @@
       </c>
       <c r="D12" s="14">
         <f t="shared" si="2"/>
-        <v>8653.5789134787083</v>
+        <v>8746.1628158649419</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" si="2"/>
-        <v>11628.211860830042</v>
+        <v>11887.812456035928</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" si="2"/>
-        <v>15486.110096856231</v>
+        <v>16017.544342838592</v>
       </c>
       <c r="G12" s="14">
         <f t="shared" si="2"/>
-        <v>20466.035182078893</v>
+        <v>21401.948595855203</v>
       </c>
       <c r="H12" s="14">
         <f t="shared" si="2"/>
-        <v>26727.33975975326</v>
+        <v>28225.228883718413</v>
       </c>
       <c r="I12" s="14">
         <f t="shared" si="2"/>
-        <v>34704.4078729506</v>
+        <v>36973.237649477844</v>
       </c>
       <c r="J12" s="14">
         <f t="shared" si="2"/>
-        <v>44753.588680266221</v>
+        <v>48032.628645636061</v>
       </c>
       <c r="K12" s="14">
         <f t="shared" si="0"/>
-        <v>57669.87534765435</v>
+        <v>62291.369406417405</v>
       </c>
       <c r="L12" s="14">
         <f t="shared" si="0"/>
-        <v>73983.023672961426</v>
+        <v>80345.151723391595</v>
       </c>
       <c r="M12" s="14">
         <f t="shared" si="0"/>
-        <v>94532.946128456257</v>
+        <v>103107.49921541043</v>
       </c>
       <c r="N12" s="14">
         <f t="shared" si="0"/>
-        <v>119954.20806774526</v>
+        <v>131261.91223418646</v>
       </c>
       <c r="O12" s="14">
         <f t="shared" si="0"/>
-        <v>150697.80221308372</v>
+        <v>165273.10069801417</v>
       </c>
       <c r="P12" s="14">
         <f t="shared" si="0"/>
-        <v>187099.90951247228</v>
+        <v>205487.38563930523</v>
       </c>
       <c r="Q12" s="14">
         <f t="shared" si="0"/>
-        <v>229516.93279043344</v>
+        <v>252246.89659650449</v>
       </c>
       <c r="R12" s="14">
         <f t="shared" si="0"/>
-        <v>278286.39464314701</v>
+        <v>305867.19847410853</v>
       </c>
       <c r="S12" s="14">
         <f t="shared" si="0"/>
-        <v>333071.55248092633</v>
+        <v>365926.26427141385</v>
       </c>
       <c r="T12" s="14">
         <f t="shared" si="0"/>
-        <v>393465.59451869485</v>
+        <v>431958.80114712403</v>
       </c>
       <c r="U12" s="14">
         <f t="shared" si="0"/>
-        <v>459001.25615496992</v>
+        <v>503441.39976191759</v>
       </c>
       <c r="V12" s="14">
         <f t="shared" si="0"/>
-        <v>529242.0224392619</v>
+        <v>579866.02884043066</v>
       </c>
       <c r="W12" s="14">
         <f t="shared" si="0"/>
-        <v>603489.30734267621</v>
+        <v>660631.58373464632</v>
       </c>
       <c r="X12" s="14">
         <f t="shared" si="0"/>
-        <v>681299.60453979752</v>
+        <v>744986.37135436386</v>
       </c>
       <c r="Y12" s="14">
         <f t="shared" si="0"/>
-        <v>762272.69667766884</v>
+        <v>832636.33942968445</v>
       </c>
       <c r="Z12" s="14">
         <f t="shared" si="0"/>
-        <v>845987.25256209064</v>
+        <v>923127.17812888906</v>
       </c>
       <c r="AA12" s="14">
         <f t="shared" si="0"/>
-        <v>932059.2971105458</v>
+        <v>1016040.2006926031</v>
       </c>
       <c r="AB12" s="14">
         <f t="shared" si="0"/>
-        <v>1020272.778702451</v>
+        <v>1111152.0458308533</v>
       </c>
       <c r="AC12" s="14">
         <f t="shared" si="0"/>
-        <v>1110305.5028407553</v>
+        <v>1208116.1056760997</v>
       </c>
       <c r="AD12" s="14">
         <f t="shared" si="0"/>
-        <v>1201917.4301607055</v>
+        <v>1306676.3567447648</v>
       </c>
       <c r="AE12" s="14">
         <f t="shared" si="0"/>
-        <v>1295055.6016449325</v>
+        <v>1406793.2898111574</v>
       </c>
       <c r="AF12" s="14">
         <f t="shared" si="0"/>
-        <v>1389642.161912234</v>
+        <v>1508377.2457659217</v>
       </c>
       <c r="AG12" s="14">
         <f t="shared" si="0"/>
-        <v>1485477.2969860937</v>
+        <v>1611215.0413397541</v>
       </c>
       <c r="AH12" s="14">
         <f t="shared" si="0"/>
-        <v>1582487.0237595367</v>
+        <v>1715230.1563227095</v>
       </c>
       <c r="AI12" s="14">
         <f t="shared" ref="AI12" si="3">AH12+SUMIFS(AH$50:AH$66,$A$50:$A$66,$A12)</f>
-        <v>1680466.8926302688</v>
+        <v>1820215.3292029649</v>
       </c>
     </row>
     <row r="13" spans="1:35" x14ac:dyDescent="0.25">
@@ -5145,131 +5149,131 @@
       </c>
       <c r="D13" s="14">
         <f t="shared" si="2"/>
-        <v>140326.95993001823</v>
+        <v>140764.79335533793</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" si="2"/>
-        <v>154394.13250365242</v>
+        <v>155621.79535739409</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" si="2"/>
-        <v>172638.30622801799</v>
+        <v>175151.48260375523</v>
       </c>
       <c r="G13" s="14">
         <f t="shared" si="2"/>
-        <v>196188.59522753101</v>
+        <v>200614.57172230943</v>
       </c>
       <c r="H13" s="14">
         <f t="shared" si="2"/>
-        <v>225798.58529661098</v>
+        <v>232882.17012066449</v>
       </c>
       <c r="I13" s="14">
         <f t="shared" si="2"/>
-        <v>263522.49805024988</v>
+        <v>274251.89578486013</v>
       </c>
       <c r="J13" s="14">
         <f t="shared" si="2"/>
-        <v>311045.52463611285</v>
+        <v>326552.25164583448</v>
       </c>
       <c r="K13" s="14">
         <f t="shared" si="2"/>
-        <v>372127.22337896586</v>
+        <v>393982.47598434432</v>
       </c>
       <c r="L13" s="14">
         <f t="shared" si="2"/>
-        <v>449272.83319805935</v>
+        <v>479359.62199015205</v>
       </c>
       <c r="M13" s="14">
         <f t="shared" si="2"/>
-        <v>546454.33783164702</v>
+        <v>587003.78381400718</v>
       </c>
       <c r="N13" s="14">
         <f t="shared" si="2"/>
-        <v>666672.62528723199</v>
+        <v>720147.26526342367</v>
       </c>
       <c r="O13" s="14">
         <f t="shared" si="2"/>
-        <v>812060.46036830626</v>
+        <v>880987.70037696371</v>
       </c>
       <c r="P13" s="14">
         <f t="shared" si="2"/>
-        <v>984207.65785040497</v>
+        <v>1071162.8568439658</v>
       </c>
       <c r="Q13" s="14">
         <f t="shared" si="2"/>
-        <v>1184799.662669769</v>
+        <v>1292290.6805908771</v>
       </c>
       <c r="R13" s="14">
         <f t="shared" si="2"/>
-        <v>1415432.634316325</v>
+        <v>1545863.4921991955</v>
       </c>
       <c r="S13" s="14">
         <f t="shared" si="2"/>
-        <v>1674514.1019858234</v>
+        <v>1829885.5070613062</v>
       </c>
       <c r="T13" s="14">
         <f t="shared" ref="T13:AI19" si="4">S13+SUMIFS(S$50:S$66,$A$50:$A$66,$A13)</f>
-        <v>1960120.2345075123</v>
+        <v>2142156.3344696355</v>
       </c>
       <c r="U13" s="14">
         <f t="shared" si="4"/>
-        <v>2270041.3166314955</v>
+        <v>2480200.7481918368</v>
       </c>
       <c r="V13" s="14">
         <f t="shared" si="4"/>
-        <v>2602213.0495860614</v>
+        <v>2841616.2455494832</v>
       </c>
       <c r="W13" s="14">
         <f t="shared" si="4"/>
-        <v>2953331.7887199465</v>
+        <v>3223560.1757119927</v>
       </c>
       <c r="X13" s="14">
         <f t="shared" si="4"/>
-        <v>3321300.172735963</v>
+        <v>3622477.7483541658</v>
       </c>
       <c r="Y13" s="14">
         <f t="shared" si="4"/>
-        <v>3704225.5558285085</v>
+        <v>4036978.3771080212</v>
       </c>
       <c r="Z13" s="14">
         <f t="shared" si="4"/>
-        <v>4100115.4438901213</v>
+        <v>4464913.6104106922</v>
       </c>
       <c r="AA13" s="14">
         <f t="shared" si="4"/>
-        <v>4507154.0015403209</v>
+        <v>4904303.4598055659</v>
       </c>
       <c r="AB13" s="14">
         <f t="shared" si="4"/>
-        <v>4924319.5109788431</v>
+        <v>5354091.639738109</v>
       </c>
       <c r="AC13" s="14">
         <f t="shared" si="4"/>
-        <v>5350088.2999837669</v>
+        <v>5812639.0260628024</v>
       </c>
       <c r="AD13" s="14">
         <f t="shared" si="4"/>
-        <v>5783325.2116371766</v>
+        <v>6278734.8722471716</v>
       </c>
       <c r="AE13" s="14">
         <f t="shared" si="4"/>
-        <v>6223779.8003715528</v>
+        <v>6752192.3373915544</v>
       </c>
       <c r="AF13" s="14">
         <f t="shared" si="4"/>
-        <v>6671083.884598597</v>
+        <v>7232587.419548003</v>
       </c>
       <c r="AG13" s="14">
         <f t="shared" si="4"/>
-        <v>7124292.5350648416</v>
+        <v>7718911.965478057</v>
       </c>
       <c r="AH13" s="14">
         <f t="shared" si="4"/>
-        <v>7583055.8823404219</v>
+        <v>8210804.1076781545</v>
       </c>
       <c r="AI13" s="14">
         <f t="shared" si="4"/>
-        <v>8046407.0750897322</v>
+        <v>8707283.6971664578</v>
       </c>
     </row>
     <row r="14" spans="1:35" x14ac:dyDescent="0.25">
@@ -5286,131 +5290,131 @@
       </c>
       <c r="D14" s="14">
         <f t="shared" si="2"/>
-        <v>12777.166675684937</v>
+        <v>12892.670959363671</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" si="2"/>
-        <v>16488.209728910773</v>
+        <v>16812.077917861589</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" si="2"/>
-        <v>21301.182187111088</v>
+        <v>21964.18007683567</v>
       </c>
       <c r="G14" s="14">
         <f t="shared" si="2"/>
-        <v>27513.954223256318</v>
+        <v>28681.565499702399</v>
       </c>
       <c r="H14" s="14">
         <f t="shared" si="2"/>
-        <v>35325.328355247737</v>
+        <v>37194.039932904067</v>
       </c>
       <c r="I14" s="14">
         <f t="shared" si="2"/>
-        <v>45277.226196273652</v>
+        <v>48107.735079270606</v>
       </c>
       <c r="J14" s="14">
         <f t="shared" si="2"/>
-        <v>57814.215897408154</v>
+        <v>61905.025990657072</v>
       </c>
       <c r="K14" s="14">
         <f t="shared" si="2"/>
-        <v>73928.101798243239</v>
+        <v>79693.708421261472</v>
       </c>
       <c r="L14" s="14">
         <f t="shared" si="2"/>
-        <v>94279.787818119512</v>
+        <v>102216.94561982577</v>
       </c>
       <c r="M14" s="14">
         <f t="shared" si="2"/>
-        <v>119917.11797702145</v>
+        <v>130614.4161751709</v>
       </c>
       <c r="N14" s="14">
         <f t="shared" si="2"/>
-        <v>151631.7527550818</v>
+        <v>165738.83007773751</v>
       </c>
       <c r="O14" s="14">
         <f t="shared" si="2"/>
-        <v>189986.33414497774</v>
+        <v>208169.94239128477</v>
       </c>
       <c r="P14" s="14">
         <f t="shared" si="2"/>
-        <v>235400.26917735333</v>
+        <v>258339.81054416249</v>
       </c>
       <c r="Q14" s="14">
         <f t="shared" si="2"/>
-        <v>288318.19295492669</v>
+        <v>316675.26281045401</v>
       </c>
       <c r="R14" s="14">
         <f t="shared" si="2"/>
-        <v>349161.18629944266</v>
+        <v>383569.98640044732</v>
       </c>
       <c r="S14" s="14">
         <f t="shared" si="2"/>
-        <v>417509.14149667224</v>
+        <v>458497.47589416162</v>
       </c>
       <c r="T14" s="14">
         <f t="shared" si="4"/>
-        <v>492854.53507205599</v>
+        <v>540877.24899446289</v>
       </c>
       <c r="U14" s="14">
         <f t="shared" si="4"/>
-        <v>574614.42483271111</v>
+        <v>630056.31939108646</v>
       </c>
       <c r="V14" s="14">
         <f t="shared" si="4"/>
-        <v>662244.23072344577</v>
+        <v>725400.8858827987</v>
       </c>
       <c r="W14" s="14">
         <f t="shared" si="4"/>
-        <v>754872.42241581448</v>
+        <v>826161.03233952005</v>
       </c>
       <c r="X14" s="14">
         <f t="shared" si="4"/>
-        <v>851945.69767148246</v>
+        <v>931398.97400934307</v>
       </c>
       <c r="Y14" s="14">
         <f t="shared" si="4"/>
-        <v>952964.75998773519</v>
+        <v>1040747.8620565267</v>
       </c>
       <c r="Z14" s="14">
         <f t="shared" si="4"/>
-        <v>1057403.9720072867</v>
+        <v>1153640.9161841893</v>
       </c>
       <c r="AA14" s="14">
         <f t="shared" si="4"/>
-        <v>1164784.3004887903</v>
+        <v>1269555.7981350217</v>
       </c>
       <c r="AB14" s="14">
         <f t="shared" si="4"/>
-        <v>1274836.2073480873</v>
+        <v>1388213.8505492129</v>
       </c>
       <c r="AC14" s="14">
         <f t="shared" si="4"/>
-        <v>1387157.7345381745</v>
+        <v>1509182.6581534189</v>
       </c>
       <c r="AD14" s="14">
         <f t="shared" si="4"/>
-        <v>1501449.4177443502</v>
+        <v>1632142.8154320654</v>
       </c>
       <c r="AE14" s="14">
         <f t="shared" si="4"/>
-        <v>1617645.1872373431</v>
+        <v>1757045.0321230814</v>
       </c>
       <c r="AF14" s="14">
         <f t="shared" si="4"/>
-        <v>1735647.9134967446</v>
+        <v>1883777.4528073878</v>
       </c>
       <c r="AG14" s="14">
         <f t="shared" si="4"/>
-        <v>1855208.3159280706</v>
+        <v>2012074.1178507656</v>
       </c>
       <c r="AH14" s="14">
         <f t="shared" si="4"/>
-        <v>1976234.0959183308</v>
+        <v>2141839.5634435364</v>
       </c>
       <c r="AI14" s="14">
         <f t="shared" si="4"/>
-        <v>2098470.1896362035</v>
+        <v>2272815.2177190986</v>
       </c>
     </row>
     <row r="15" spans="1:35" x14ac:dyDescent="0.25">
@@ -5427,131 +5431,131 @@
       </c>
       <c r="D15" s="14">
         <f t="shared" si="2"/>
-        <v>481983.60262341506</v>
+        <v>487233.18207889184</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" si="2"/>
-        <v>650647.61014014389</v>
+        <v>665367.16630593583</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" si="2"/>
-        <v>869393.44823061512</v>
+        <v>899526.18435149617</v>
       </c>
       <c r="G15" s="14">
         <f t="shared" si="2"/>
-        <v>1151759.0835452625</v>
+        <v>1204826.1038634274</v>
       </c>
       <c r="H15" s="14">
         <f t="shared" si="2"/>
-        <v>1506779.9352082317</v>
+        <v>1591711.4164817922</v>
       </c>
       <c r="I15" s="14">
         <f t="shared" si="2"/>
-        <v>1959085.9171626715</v>
+        <v>2087730.3345598183</v>
       </c>
       <c r="J15" s="14">
         <f t="shared" si="2"/>
-        <v>2528882.3045560303</v>
+        <v>2714806.4273488089</v>
       </c>
       <c r="K15" s="14">
         <f t="shared" si="2"/>
-        <v>3261245.8297756249</v>
+        <v>3523288.1464116303</v>
       </c>
       <c r="L15" s="14">
         <f t="shared" si="2"/>
-        <v>4186214.0596242985</v>
+        <v>4546951.6808073157</v>
       </c>
       <c r="M15" s="14">
         <f t="shared" si="2"/>
-        <v>5351410.6861822046</v>
+        <v>5837594.5320238806</v>
       </c>
       <c r="N15" s="14">
         <f t="shared" si="2"/>
-        <v>6792816.0597866271</v>
+        <v>7433971.7029471714</v>
       </c>
       <c r="O15" s="14">
         <f t="shared" si="2"/>
-        <v>8536001.8194406852</v>
+        <v>9362432.6082913987</v>
       </c>
       <c r="P15" s="14">
         <f t="shared" si="2"/>
-        <v>10600029.687025411</v>
+        <v>11642613.920630198</v>
       </c>
       <c r="Q15" s="14">
         <f t="shared" si="2"/>
-        <v>13005107.98058817</v>
+        <v>14293914.651561063</v>
       </c>
       <c r="R15" s="14">
         <f t="shared" si="2"/>
-        <v>15770374.494507872</v>
+        <v>17334227.577223454</v>
       </c>
       <c r="S15" s="14">
         <f t="shared" si="2"/>
-        <v>18876735.66138196</v>
+        <v>20739623.437611599</v>
       </c>
       <c r="T15" s="14">
         <f t="shared" si="4"/>
-        <v>22301124.935794421</v>
+        <v>24483719.765822552</v>
       </c>
       <c r="U15" s="14">
         <f t="shared" si="4"/>
-        <v>26017048.050502319</v>
+        <v>28536838.844200347</v>
       </c>
       <c r="V15" s="14">
         <f t="shared" si="4"/>
-        <v>29999754.267450355</v>
+        <v>32870174.903306097</v>
       </c>
       <c r="W15" s="14">
         <f t="shared" si="4"/>
-        <v>34209633.214093752</v>
+        <v>37449644.840899661</v>
       </c>
       <c r="X15" s="14">
         <f t="shared" si="4"/>
-        <v>38621537.735967569</v>
+        <v>42232627.072651193</v>
       </c>
       <c r="Y15" s="14">
         <f t="shared" si="4"/>
-        <v>43212775.197098821</v>
+        <v>47202448.605576903</v>
       </c>
       <c r="Z15" s="14">
         <f t="shared" si="4"/>
-        <v>47959455.790253051</v>
+        <v>52333349.717980631</v>
       </c>
       <c r="AA15" s="14">
         <f t="shared" si="4"/>
-        <v>52839807.82885576</v>
+        <v>57601590.544144437</v>
       </c>
       <c r="AB15" s="14">
         <f t="shared" si="4"/>
-        <v>57841581.017558575</v>
+        <v>62994506.324765973</v>
       </c>
       <c r="AC15" s="14">
         <f t="shared" si="4"/>
-        <v>62946506.677154914</v>
+        <v>68492444.123496205</v>
       </c>
       <c r="AD15" s="14">
         <f t="shared" si="4"/>
-        <v>68140974.388498098</v>
+        <v>74080887.209187821</v>
       </c>
       <c r="AE15" s="14">
         <f t="shared" si="4"/>
-        <v>73421981.334009707</v>
+        <v>79757595.377937704</v>
       </c>
       <c r="AF15" s="14">
         <f t="shared" si="4"/>
-        <v>78785113.052869618</v>
+        <v>85517484.888335764</v>
       </c>
       <c r="AG15" s="14">
         <f t="shared" si="4"/>
-        <v>84219039.936808974</v>
+        <v>91348468.082787722</v>
       </c>
       <c r="AH15" s="14">
         <f t="shared" si="4"/>
-        <v>89719567.085975692</v>
+        <v>97246206.205724791</v>
       </c>
       <c r="AI15" s="14">
         <f t="shared" si="4"/>
-        <v>95275102.04850477</v>
+        <v>103198947.36781919</v>
       </c>
     </row>
     <row r="16" spans="1:35" x14ac:dyDescent="0.25">
@@ -5568,131 +5572,131 @@
       </c>
       <c r="D16" s="14">
         <f t="shared" si="2"/>
-        <v>112354.20981819165</v>
+        <v>113027.47345922839</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" si="2"/>
-        <v>133985.53186515882</v>
+        <v>135873.32917591039</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" si="2"/>
-        <v>162039.89710784049</v>
+        <v>165904.4496509929</v>
       </c>
       <c r="G16" s="14">
         <f t="shared" si="2"/>
-        <v>198253.56285915265</v>
+        <v>205059.45952599967</v>
       </c>
       <c r="H16" s="14">
         <f t="shared" si="2"/>
-        <v>243785.33035820574</v>
+        <v>254677.87495265406</v>
       </c>
       <c r="I16" s="14">
         <f t="shared" si="2"/>
-        <v>301794.00988312322</v>
+        <v>318292.78080190462</v>
       </c>
       <c r="J16" s="14">
         <f t="shared" si="2"/>
-        <v>374870.94750825176</v>
+        <v>398715.89602835343</v>
       </c>
       <c r="K16" s="14">
         <f t="shared" si="2"/>
-        <v>468797.27774741629</v>
+        <v>502404.45822736865</v>
       </c>
       <c r="L16" s="14">
         <f t="shared" si="2"/>
-        <v>587425.3475867107</v>
+        <v>633690.29630431253</v>
       </c>
       <c r="M16" s="14">
         <f t="shared" si="2"/>
-        <v>736862.94158324774</v>
+        <v>799216.48990855471</v>
       </c>
       <c r="N16" s="14">
         <f t="shared" si="2"/>
-        <v>921724.57445755112</v>
+        <v>1003953.4056328121</v>
       </c>
       <c r="O16" s="14">
         <f t="shared" si="2"/>
-        <v>1145289.8336372492</v>
+        <v>1251280.3813916997</v>
       </c>
       <c r="P16" s="14">
         <f t="shared" si="2"/>
-        <v>1410003.4033845572</v>
+        <v>1543715.8394296847</v>
       </c>
       <c r="Q16" s="14">
         <f t="shared" si="2"/>
-        <v>1718457.0200286782</v>
+        <v>1883747.7217412479</v>
       </c>
       <c r="R16" s="14">
         <f t="shared" si="2"/>
-        <v>2073105.1242032358</v>
+        <v>2273670.7941669826</v>
       </c>
       <c r="S16" s="14">
         <f t="shared" si="2"/>
-        <v>2471498.9474270875</v>
+        <v>2710416.1059737029</v>
       </c>
       <c r="T16" s="14">
         <f t="shared" si="4"/>
-        <v>2910680.1829473516</v>
+        <v>3190600.0802716305</v>
       </c>
       <c r="U16" s="14">
         <f t="shared" si="4"/>
-        <v>3387250.9153725449</v>
+        <v>3710416.5210756995</v>
       </c>
       <c r="V16" s="14">
         <f t="shared" si="4"/>
-        <v>3898036.8386153346</v>
+        <v>4266171.0606027814</v>
       </c>
       <c r="W16" s="14">
         <f t="shared" si="4"/>
-        <v>4437957.8840971813</v>
+        <v>4853492.5080352798</v>
       </c>
       <c r="X16" s="14">
         <f t="shared" si="4"/>
-        <v>5003788.9049429148</v>
+        <v>5466914.6039716471</v>
       </c>
       <c r="Y16" s="14">
         <f t="shared" si="4"/>
-        <v>5592619.5486472603</v>
+        <v>6104299.0209404258</v>
       </c>
       <c r="Z16" s="14">
         <f t="shared" si="4"/>
-        <v>6201385.9243331002</v>
+        <v>6762342.049726747</v>
       </c>
       <c r="AA16" s="14">
         <f t="shared" si="4"/>
-        <v>6827295.7921459889</v>
+        <v>7437999.029597966</v>
       </c>
       <c r="AB16" s="14">
         <f t="shared" si="4"/>
-        <v>7468778.0398625629</v>
+        <v>8129645.6929278728</v>
       </c>
       <c r="AC16" s="14">
         <f t="shared" si="4"/>
-        <v>8123489.6917104069</v>
+        <v>8834761.5316270776</v>
       </c>
       <c r="AD16" s="14">
         <f t="shared" si="4"/>
-        <v>8789685.1982739046</v>
+        <v>9551484.7608895637</v>
       </c>
       <c r="AE16" s="14">
         <f t="shared" si="4"/>
-        <v>9466979.4452951699</v>
+        <v>10279528.072398681</v>
       </c>
       <c r="AF16" s="14">
         <f t="shared" si="4"/>
-        <v>10154806.273905635</v>
+        <v>11018239.471403064</v>
       </c>
       <c r="AG16" s="14">
         <f t="shared" si="4"/>
-        <v>10851712.650890106</v>
+        <v>11766068.704128567</v>
       </c>
       <c r="AH16" s="14">
         <f t="shared" si="4"/>
-        <v>11557160.576286459</v>
+        <v>12522459.320978304</v>
       </c>
       <c r="AI16" s="14">
         <f t="shared" si="4"/>
-        <v>12269663.306934152</v>
+        <v>13285904.130782969</v>
       </c>
     </row>
     <row r="17" spans="1:35" x14ac:dyDescent="0.25">
@@ -5709,131 +5713,131 @@
       </c>
       <c r="D17" s="14">
         <f t="shared" si="2"/>
-        <v>16808.194932633516</v>
+        <v>16945.987933553381</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" si="2"/>
-        <v>21235.353325036525</v>
+        <v>21621.717953573941</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" si="2"/>
-        <v>26977.07906228018</v>
+        <v>27768.014826037554</v>
       </c>
       <c r="G17" s="14">
         <f t="shared" si="2"/>
-        <v>34388.721952275308</v>
+        <v>35781.645717223095</v>
       </c>
       <c r="H17" s="14">
         <f t="shared" si="2"/>
-        <v>43707.44718629944</v>
+        <v>45936.761701206648</v>
       </c>
       <c r="I17" s="14">
         <f t="shared" si="2"/>
-        <v>55579.75031383583</v>
+        <v>58956.458957848605</v>
       </c>
       <c r="J17" s="14">
         <f t="shared" si="2"/>
-        <v>70535.987246361125</v>
+        <v>75416.195849791678</v>
       </c>
       <c r="K17" s="14">
         <f t="shared" si="2"/>
-        <v>89759.34956712299</v>
+        <v>96637.538093176772</v>
       </c>
       <c r="L17" s="14">
         <f t="shared" si="2"/>
-        <v>114038.27499864726</v>
+        <v>123507.05621990151</v>
       </c>
       <c r="M17" s="14">
         <f t="shared" si="2"/>
-        <v>144622.80871164979</v>
+        <v>157384.35117147339</v>
       </c>
       <c r="N17" s="14">
         <f t="shared" si="2"/>
-        <v>182457.37691953898</v>
+        <v>199286.67931930089</v>
       </c>
       <c r="O17" s="14">
         <f t="shared" si="2"/>
-        <v>228213.19393701639</v>
+        <v>249905.67033710296</v>
       </c>
       <c r="P17" s="14">
         <f t="shared" si="2"/>
-        <v>282390.59924517071</v>
+        <v>309756.75523510634</v>
       </c>
       <c r="Q17" s="14">
         <f t="shared" si="2"/>
-        <v>345520.02862669772</v>
+        <v>379349.1268059088</v>
       </c>
       <c r="R17" s="14">
         <f t="shared" si="2"/>
-        <v>418103.81834316329</v>
+        <v>459152.44158865866</v>
       </c>
       <c r="S17" s="14">
         <f t="shared" si="2"/>
-        <v>499640.79301985831</v>
+        <v>548538.59507061308</v>
       </c>
       <c r="T17" s="14">
         <f t="shared" si="4"/>
-        <v>589525.4930117419</v>
+        <v>646815.09001136303</v>
       </c>
       <c r="U17" s="14">
         <f t="shared" si="4"/>
-        <v>687062.48649964842</v>
+        <v>753202.93414858507</v>
       </c>
       <c r="V17" s="14">
         <f t="shared" si="4"/>
-        <v>791602.10649586073</v>
+        <v>866946.02245549485</v>
       </c>
       <c r="W17" s="14">
         <f t="shared" si="4"/>
-        <v>902104.64455386624</v>
+        <v>987149.72842378658</v>
       </c>
       <c r="X17" s="14">
         <f t="shared" si="4"/>
-        <v>1017910.0283940264</v>
+        <v>1112695.3041502084</v>
       </c>
       <c r="Y17" s="14">
         <f t="shared" si="4"/>
-        <v>1138422.6128916186</v>
+        <v>1243145.1104377469</v>
       </c>
       <c r="Z17" s="14">
         <f t="shared" si="4"/>
-        <v>1263015.3291055681</v>
+        <v>1377822.996104107</v>
       </c>
       <c r="AA17" s="14">
         <f t="shared" si="4"/>
-        <v>1391116.7053487368</v>
+        <v>1516105.8279313892</v>
       </c>
       <c r="AB17" s="14">
         <f t="shared" si="4"/>
-        <v>1522405.1911097888</v>
+        <v>1657661.1763973814</v>
       </c>
       <c r="AC17" s="14">
         <f t="shared" si="4"/>
-        <v>1656401.2629998382</v>
+        <v>1801973.1835939616</v>
       </c>
       <c r="AD17" s="14">
         <f t="shared" si="4"/>
-        <v>1792747.6694497056</v>
+        <v>1948660.8087224721</v>
       </c>
       <c r="AE17" s="14">
         <f t="shared" si="4"/>
-        <v>1931365.5913370494</v>
+        <v>2097665.2500405824</v>
       </c>
       <c r="AF17" s="14">
         <f t="shared" si="4"/>
-        <v>2072139.1561793198</v>
+        <v>2248853.0675288136</v>
       </c>
       <c r="AG17" s="14">
         <f t="shared" si="4"/>
-        <v>2214770.9800173156</v>
+        <v>2401906.9796547806</v>
       </c>
       <c r="AH17" s="14">
         <f t="shared" si="4"/>
-        <v>2359150.9534900715</v>
+        <v>2556713.1010767817</v>
       </c>
       <c r="AI17" s="14">
         <f t="shared" si="4"/>
-        <v>2504974.7934175646</v>
+        <v>2712962.9636383313</v>
       </c>
     </row>
     <row r="18" spans="1:35" x14ac:dyDescent="0.25">
@@ -5850,131 +5854,131 @@
       </c>
       <c r="D18" s="14">
         <f t="shared" si="2"/>
-        <v>11903.394540338726</v>
+        <v>12019.801201233699</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" si="2"/>
-        <v>15643.430117417889</v>
+        <v>15969.82852659488</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" si="2"/>
-        <v>20494.003922947893</v>
+        <v>21162.181483685948</v>
       </c>
       <c r="G18" s="14">
         <f t="shared" si="2"/>
-        <v>26755.31324062551</v>
+        <v>27932.046480168821</v>
       </c>
       <c r="H18" s="14">
         <f t="shared" si="2"/>
-        <v>34627.713733023105</v>
+        <v>36511.024619879878</v>
       </c>
       <c r="I18" s="14">
         <f t="shared" si="2"/>
-        <v>44657.360775932037</v>
+        <v>47509.983009577409</v>
       </c>
       <c r="J18" s="14">
         <f t="shared" si="2"/>
-        <v>57292.295709106649</v>
+        <v>61415.065256209084</v>
       </c>
       <c r="K18" s="14">
         <f t="shared" si="2"/>
-        <v>73532.071343542018</v>
+        <v>79342.721768302581</v>
       </c>
       <c r="L18" s="14">
         <f t="shared" si="2"/>
-        <v>94042.754910448566</v>
+        <v>102041.92175748065</v>
       </c>
       <c r="M18" s="14">
         <f t="shared" si="2"/>
-        <v>119880.37671121693</v>
+        <v>130661.24755153942</v>
       </c>
       <c r="N18" s="14">
         <f t="shared" si="2"/>
-        <v>151842.78207348086</v>
+        <v>166060.07093771984</v>
       </c>
       <c r="O18" s="14">
         <f t="shared" si="2"/>
-        <v>190497.00863048536</v>
+        <v>208822.67631621668</v>
       </c>
       <c r="P18" s="14">
         <f t="shared" si="2"/>
-        <v>236265.74003030139</v>
+        <v>259384.49656403877</v>
       </c>
       <c r="Q18" s="14">
         <f t="shared" si="2"/>
-        <v>289597.08508738707</v>
+        <v>318175.69455116068</v>
       </c>
       <c r="R18" s="14">
         <f t="shared" si="2"/>
-        <v>350915.41431740706</v>
+        <v>385593.03316920082</v>
       </c>
       <c r="S18" s="14">
         <f t="shared" si="2"/>
-        <v>419797.337914615</v>
+        <v>461105.89367458475</v>
       </c>
       <c r="T18" s="14">
         <f t="shared" si="4"/>
-        <v>495731.36737730639</v>
+        <v>544129.25875223207</v>
       </c>
       <c r="U18" s="14">
         <f t="shared" si="4"/>
-        <v>578130.00627671659</v>
+        <v>634005.04063632921</v>
       </c>
       <c r="V18" s="14">
         <f t="shared" si="4"/>
-        <v>666444.42002597265</v>
+        <v>730094.48655375792</v>
       </c>
       <c r="W18" s="14">
         <f t="shared" si="4"/>
-        <v>759796.26946593798</v>
+        <v>831641.82165467239</v>
       </c>
       <c r="X18" s="14">
         <f t="shared" si="4"/>
-        <v>857627.92968454084</v>
+        <v>937701.93474379089</v>
       </c>
       <c r="Y18" s="14">
         <f t="shared" si="4"/>
-        <v>959436.20342513931</v>
+        <v>1047905.1109788431</v>
       </c>
       <c r="Z18" s="14">
         <f t="shared" si="4"/>
-        <v>1064691.3467885936</v>
+        <v>1161680.142091878</v>
       </c>
       <c r="AA18" s="14">
         <f t="shared" si="4"/>
-        <v>1172910.5840863588</v>
+        <v>1278500.6090579513</v>
       </c>
       <c r="AB18" s="14">
         <f t="shared" si="4"/>
-        <v>1283822.271467994</v>
+        <v>1398085.6775066282</v>
       </c>
       <c r="AC18" s="14">
         <f t="shared" si="4"/>
-        <v>1397021.3105892537</v>
+        <v>1519999.5539202422</v>
       </c>
       <c r="AD18" s="14">
         <f t="shared" si="4"/>
-        <v>1512205.8975704776</v>
+        <v>1643920.3374276282</v>
       </c>
       <c r="AE18" s="14">
         <f t="shared" si="4"/>
-        <v>1629309.4465126344</v>
+        <v>1769798.3526865428</v>
       </c>
       <c r="AF18" s="14">
         <f t="shared" si="4"/>
-        <v>1748234.0690709376</v>
+        <v>1897520.8704074454</v>
       </c>
       <c r="AG18" s="14">
         <f t="shared" si="4"/>
-        <v>1868728.5371462582</v>
+        <v>2026819.8531464746</v>
       </c>
       <c r="AH18" s="14">
         <f t="shared" si="4"/>
-        <v>1990699.8310426923</v>
+        <v>2157599.0912829391</v>
       </c>
       <c r="AI18" s="14">
         <f t="shared" si="4"/>
-        <v>2113890.8942427356</v>
+        <v>2289597.9928575293</v>
       </c>
     </row>
     <row r="19" spans="1:35" x14ac:dyDescent="0.25">
@@ -5991,131 +5995,131 @@
       </c>
       <c r="D19" s="14">
         <f t="shared" si="2"/>
-        <v>3810.6020922388998</v>
+        <v>3924.6625723716279</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" si="2"/>
-        <v>7475.2571072994615</v>
+        <v>7795.0769438882999</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" si="2"/>
-        <v>12228.067409772193</v>
+        <v>12882.777825875237</v>
       </c>
       <c r="G19" s="14">
         <f t="shared" si="2"/>
-        <v>18363.179795465549</v>
+        <v>19516.19593095631</v>
       </c>
       <c r="H19" s="14">
         <f t="shared" si="2"/>
-        <v>26076.911750807194</v>
+        <v>27922.264433742996</v>
       </c>
       <c r="I19" s="14">
         <f t="shared" si="2"/>
-        <v>35904.410868820269</v>
+        <v>38699.53839078013</v>
       </c>
       <c r="J19" s="14">
         <f t="shared" si="2"/>
-        <v>48284.688198690303</v>
+        <v>52324.363165774412</v>
       </c>
       <c r="K19" s="14">
         <f t="shared" si="2"/>
-        <v>64197.150525764795</v>
+        <v>69890.687065996492</v>
       </c>
       <c r="L19" s="14">
         <f t="shared" si="2"/>
-        <v>84294.440470392583</v>
+        <v>92132.383799578558</v>
       </c>
       <c r="M19" s="14">
         <f t="shared" si="2"/>
-        <v>109611.30400230852</v>
+        <v>120174.88597298184</v>
       </c>
       <c r="N19" s="14">
         <f t="shared" si="2"/>
-        <v>140929.50584564335</v>
+        <v>154860.24470176644</v>
       </c>
       <c r="O19" s="14">
         <f t="shared" si="2"/>
-        <v>178804.65496816556</v>
+        <v>196760.96811139447</v>
       </c>
       <c r="P19" s="14">
         <f t="shared" si="2"/>
-        <v>223650.91581263603</v>
+        <v>246303.71291236163</v>
       </c>
       <c r="Q19" s="14">
         <f t="shared" si="2"/>
-        <v>275907.36554298946</v>
+        <v>303909.97202532506</v>
       </c>
       <c r="R19" s="14">
         <f t="shared" si="2"/>
-        <v>335989.82147069857</v>
+        <v>369968.51157044386</v>
       </c>
       <c r="S19" s="14">
         <f t="shared" si="2"/>
-        <v>403483.42722796299</v>
+        <v>443959.4074454871</v>
       </c>
       <c r="T19" s="14">
         <f t="shared" si="4"/>
-        <v>477887.00338365347</v>
+        <v>525309.43338203384</v>
       </c>
       <c r="U19" s="14">
         <f t="shared" si="4"/>
-        <v>558624.89452230115</v>
+        <v>613373.76539870026</v>
       </c>
       <c r="V19" s="14">
         <f t="shared" si="4"/>
-        <v>645159.32783940085</v>
+        <v>707526.52480926597</v>
       </c>
       <c r="W19" s="14">
         <f t="shared" si="4"/>
-        <v>736629.66713561607</v>
+        <v>807027.16943527618</v>
       </c>
       <c r="X19" s="14">
         <f t="shared" si="4"/>
-        <v>832489.52645058767</v>
+        <v>910949.63683422701</v>
       </c>
       <c r="Y19" s="14">
         <f t="shared" si="4"/>
-        <v>932245.85048788809</v>
+        <v>1018931.6637808201</v>
       </c>
       <c r="Z19" s="14">
         <f t="shared" si="4"/>
-        <v>1035379.5723571966</v>
+        <v>1130413.5547318892</v>
       </c>
       <c r="AA19" s="14">
         <f t="shared" si="4"/>
-        <v>1141417.6467326807</v>
+        <v>1244879.5006583338</v>
       </c>
       <c r="AB19" s="14">
         <f t="shared" si="4"/>
-        <v>1250093.9047562371</v>
+        <v>1362054.3274173462</v>
       </c>
       <c r="AC19" s="14">
         <f t="shared" si="4"/>
-        <v>1361011.4128564487</v>
+        <v>1481511.024926499</v>
       </c>
       <c r="AD19" s="14">
         <f t="shared" si="4"/>
-        <v>1473874.4500225468</v>
+        <v>1602934.1802391619</v>
       </c>
       <c r="AE19" s="14">
         <f t="shared" si="4"/>
-        <v>1588617.7723968795</v>
+        <v>1726275.1192215425</v>
       </c>
       <c r="AF19" s="14">
         <f t="shared" si="4"/>
-        <v>1705145.4645780383</v>
+        <v>1851423.3846472953</v>
       </c>
       <c r="AG19" s="14">
         <f t="shared" si="4"/>
-        <v>1823211.3619789726</v>
+        <v>1978116.3413776294</v>
       </c>
       <c r="AH19" s="14">
         <f t="shared" si="4"/>
-        <v>1942724.3197193539</v>
+        <v>2106259.7189004929</v>
       </c>
       <c r="AI19" s="14">
         <f t="shared" si="4"/>
-        <v>2063432.4622657525</v>
+        <v>2235598.1774976109</v>
       </c>
     </row>
     <row r="22" spans="1:35" x14ac:dyDescent="0.25">
@@ -6579,6 +6583,34 @@
         <v>1</v>
       </c>
     </row>
+    <row r="43" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="17"/>
+      <c r="M43" s="17"/>
+      <c r="N43" s="17"/>
+      <c r="O43" s="17"/>
+      <c r="P43" s="17"/>
+      <c r="Q43" s="17"/>
+      <c r="R43" s="17"/>
+      <c r="S43" s="17"/>
+      <c r="T43" s="17"/>
+      <c r="U43" s="17"/>
+      <c r="V43" s="17"/>
+      <c r="W43" s="17"/>
+      <c r="X43" s="17"/>
+      <c r="Y43" s="17"/>
+      <c r="Z43" s="17"/>
+      <c r="AA43" s="17"/>
+      <c r="AB43" s="17"/>
+      <c r="AC43" s="17"/>
+      <c r="AD43" s="17"/>
+      <c r="AE43" s="17"/>
+      <c r="AF43" s="17"/>
+      <c r="AG43" s="17"/>
+      <c r="AH43" s="17"/>
+    </row>
     <row r="44" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>70</v>
@@ -6690,210 +6722,210 @@
     </row>
     <row r="46" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>156</v>
+        <v>170</v>
       </c>
       <c r="B46">
-        <v>43714.2</v>
+        <v>46797</v>
       </c>
       <c r="C46">
-        <v>43336.9</v>
+        <v>54324</v>
       </c>
       <c r="D46">
-        <v>43350.5</v>
+        <v>62667</v>
       </c>
       <c r="E46">
-        <v>43582.3</v>
+        <v>74820</v>
       </c>
       <c r="F46">
-        <v>43847.5</v>
+        <v>90528</v>
       </c>
       <c r="G46">
-        <v>44139.9</v>
+        <v>111072</v>
       </c>
       <c r="H46">
-        <v>44473.8</v>
+        <v>137415</v>
       </c>
       <c r="I46" s="17">
-        <v>44905.5</v>
+        <v>169485</v>
       </c>
       <c r="J46" s="17">
-        <v>45330.9</v>
+        <v>211638</v>
       </c>
       <c r="K46" s="17">
-        <v>44750.2</v>
+        <v>263571</v>
       </c>
       <c r="L46" s="17">
-        <v>44223.9</v>
+        <v>325674</v>
       </c>
       <c r="M46" s="17">
-        <v>43738.9</v>
+        <v>397137</v>
       </c>
       <c r="N46" s="17">
-        <v>43295.4</v>
+        <v>476514</v>
       </c>
       <c r="O46" s="17">
-        <v>42905</v>
+        <v>562140</v>
       </c>
       <c r="P46" s="17">
-        <v>42563.199999999997</v>
+        <v>649512</v>
       </c>
       <c r="Q46" s="17">
-        <v>42259.5</v>
+        <v>734349</v>
       </c>
       <c r="R46" s="17">
-        <v>41992</v>
+        <v>813495</v>
       </c>
       <c r="S46" s="17">
-        <v>41757.9</v>
+        <v>884814</v>
       </c>
       <c r="T46" s="17">
-        <v>41553.699999999997</v>
+        <v>949065</v>
       </c>
       <c r="U46" s="17">
-        <v>41372.699999999997</v>
+        <v>1001800</v>
       </c>
       <c r="V46" s="17">
-        <v>41211.300000000003</v>
+        <v>1048420</v>
       </c>
       <c r="W46" s="17">
-        <v>41067.5</v>
+        <v>1086810</v>
       </c>
       <c r="X46" s="17">
-        <v>40939.800000000003</v>
+        <v>1118370</v>
       </c>
       <c r="Y46" s="17">
-        <v>40826.300000000003</v>
+        <v>1143410</v>
       </c>
       <c r="Z46" s="17">
-        <v>40724.300000000003</v>
+        <v>1161950</v>
       </c>
       <c r="AA46" s="17">
-        <v>40632.300000000003</v>
+        <v>1177500</v>
       </c>
       <c r="AB46" s="17">
-        <v>40548.800000000003</v>
+        <v>1189300</v>
       </c>
       <c r="AC46" s="17">
-        <v>40472.800000000003</v>
+        <v>1197960</v>
       </c>
       <c r="AD46" s="17">
-        <v>40403.199999999997</v>
+        <v>1207640</v>
       </c>
       <c r="AE46" s="17">
-        <v>40339.300000000003</v>
+        <v>1214710</v>
       </c>
       <c r="AF46" s="17">
-        <v>40280.300000000003</v>
+        <v>1219410</v>
       </c>
       <c r="AG46" s="17">
-        <v>40225.5</v>
+        <v>1223140</v>
       </c>
       <c r="AH46" s="17">
-        <v>40174.6</v>
-      </c>
-    </row>
-    <row r="47" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
+        <v>1226380</v>
+      </c>
+    </row>
+    <row r="47" spans="1:34" s="22" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A47" s="22" t="s">
         <v>72</v>
       </c>
-      <c r="B47">
-        <v>144790</v>
-      </c>
-      <c r="C47">
-        <v>203139</v>
-      </c>
-      <c r="D47">
-        <v>278136</v>
-      </c>
-      <c r="E47">
-        <v>373364</v>
-      </c>
-      <c r="F47">
-        <v>494363</v>
-      </c>
-      <c r="G47">
-        <v>632557</v>
-      </c>
-      <c r="H47">
-        <v>817656</v>
+      <c r="B47" s="22">
+        <v>144063</v>
+      </c>
+      <c r="C47" s="22">
+        <v>202158</v>
+      </c>
+      <c r="D47" s="22">
+        <v>276870</v>
+      </c>
+      <c r="E47" s="22">
+        <v>371505</v>
+      </c>
+      <c r="F47" s="22">
+        <v>491397</v>
+      </c>
+      <c r="G47" s="22">
+        <v>626361</v>
+      </c>
+      <c r="H47" s="22">
+        <v>808035</v>
       </c>
       <c r="I47" s="17">
-        <v>1041170</v>
+        <v>1025770</v>
       </c>
       <c r="J47" s="17">
-        <v>1350610</v>
+        <v>1329390</v>
       </c>
       <c r="K47" s="17">
-        <v>1718310</v>
+        <v>1687610</v>
       </c>
       <c r="L47" s="17">
-        <v>2176730</v>
+        <v>2134390</v>
       </c>
       <c r="M47" s="17">
-        <v>2703690</v>
+        <v>2645680</v>
       </c>
       <c r="N47" s="17">
-        <v>3279350</v>
+        <v>3199280</v>
       </c>
       <c r="O47" s="17">
-        <v>3891290</v>
+        <v>3784060</v>
       </c>
       <c r="P47" s="17">
-        <v>4541700</v>
+        <v>4404070</v>
       </c>
       <c r="Q47" s="17">
-        <v>5228550</v>
+        <v>5060720</v>
       </c>
       <c r="R47" s="17">
-        <v>5878970</v>
+        <v>5677450</v>
       </c>
       <c r="S47" s="17">
-        <v>6485390</v>
+        <v>6251720</v>
       </c>
       <c r="T47" s="17">
-        <v>7041280</v>
+        <v>6776490</v>
       </c>
       <c r="U47" s="17">
-        <v>7549970</v>
+        <v>7257870</v>
       </c>
       <c r="V47" s="17">
-        <v>7983140</v>
+        <v>7680400</v>
       </c>
       <c r="W47" s="17">
-        <v>8368360</v>
+        <v>8029920</v>
       </c>
       <c r="X47" s="17">
-        <v>8710310</v>
+        <v>8354490</v>
       </c>
       <c r="Y47" s="17">
-        <v>9006710</v>
+        <v>8636480</v>
       </c>
       <c r="Z47" s="17">
-        <v>9261600</v>
+        <v>8879720</v>
       </c>
       <c r="AA47" s="17">
-        <v>9493130</v>
+        <v>9101810</v>
       </c>
       <c r="AB47" s="17">
-        <v>9689830</v>
+        <v>9290190</v>
       </c>
       <c r="AC47" s="17">
-        <v>9860580</v>
+        <v>9454040</v>
       </c>
       <c r="AD47" s="17">
-        <v>10025600</v>
+        <v>9612600</v>
       </c>
       <c r="AE47" s="17">
-        <v>10182200</v>
+        <v>9764080</v>
       </c>
       <c r="AF47" s="17">
-        <v>10317200</v>
+        <v>9894890</v>
       </c>
       <c r="AG47" s="17">
-        <v>10444200</v>
+        <v>10018400</v>
       </c>
       <c r="AH47" s="17">
-        <v>10549100</v>
+        <v>10120000</v>
       </c>
     </row>
     <row r="49" spans="1:34" x14ac:dyDescent="0.25">
@@ -6907,135 +6939,135 @@
       </c>
       <c r="B50" s="14">
         <f>SUM(B$46:B$47)*INDEX($B$23:$B$40,MATCH($A50,$A$23:$A$40,0),1)</f>
-        <v>10065.593205634616</v>
+        <v>10191.386288620744</v>
       </c>
       <c r="C50" s="14">
         <f t="shared" ref="C50:AH58" si="6">SUM(C$46:C$47)*INDEX($B$23:$B$40,MATCH($A50,$A$23:$A$40,0),1)</f>
-        <v>13161.118661508215</v>
+        <v>13695.416211243979</v>
       </c>
       <c r="D50" s="14">
         <f t="shared" si="6"/>
-        <v>17166.473373554822</v>
+        <v>18130.319219739191</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" si="6"/>
-        <v>22263.75775390942</v>
+        <v>23832.497565066824</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" si="6"/>
-        <v>28738.924395324928</v>
+        <v>31073.155538120231</v>
       </c>
       <c r="G50" s="14">
         <f t="shared" si="6"/>
-        <v>36133.707996500911</v>
+        <v>39376.844624208643</v>
       </c>
       <c r="H50" s="14">
         <f t="shared" si="6"/>
-        <v>46035.302434933175</v>
+        <v>50484.36637627834</v>
       </c>
       <c r="I50" s="14">
         <f t="shared" si="6"/>
-        <v>57993.371890951064</v>
+        <v>63823.249598686933</v>
       </c>
       <c r="J50" s="14">
         <f t="shared" si="6"/>
-        <v>74539.311264722317</v>
+        <v>82286.55364969428</v>
       </c>
       <c r="K50" s="14">
         <f t="shared" si="6"/>
-        <v>94142.447596630765</v>
+        <v>104187.56832242123</v>
       </c>
       <c r="L50" s="14">
         <f t="shared" si="6"/>
-        <v>118592.68114910809</v>
+        <v>131360.48684234257</v>
       </c>
       <c r="M50" s="14">
         <f t="shared" si="6"/>
-        <v>146704.96290694945</v>
+        <v>162477.8552477319</v>
       </c>
       <c r="N50" s="14">
         <f t="shared" si="6"/>
-        <v>177419.90344497951</v>
+        <v>196277.04375665096</v>
       </c>
       <c r="O50" s="14">
         <f t="shared" si="6"/>
-        <v>210074.92916148115</v>
+        <v>232074.83541655392</v>
       </c>
       <c r="P50" s="14">
         <f t="shared" si="6"/>
-        <v>244786.73959922802</v>
+        <v>269847.04130368127</v>
       </c>
       <c r="Q50" s="14">
         <f t="shared" si="6"/>
-        <v>281446.37780693686</v>
+        <v>309440.35810652381</v>
       </c>
       <c r="R50" s="14">
         <f t="shared" si="6"/>
-        <v>316162.68962718465</v>
+        <v>346598.17600959539</v>
       </c>
       <c r="S50" s="14">
         <f t="shared" si="6"/>
-        <v>348531.30887488049</v>
+        <v>381070.80978662771</v>
       </c>
       <c r="T50" s="14">
         <f t="shared" si="6"/>
-        <v>378203.36505690526</v>
+        <v>412522.87173313129</v>
       </c>
       <c r="U50" s="14">
         <f t="shared" si="6"/>
-        <v>405356.31303049979</v>
+        <v>441043.10796674062</v>
       </c>
       <c r="V50" s="14">
         <f t="shared" si="6"/>
-        <v>428477.75235196506</v>
+        <v>466094.3962267554</v>
       </c>
       <c r="W50" s="14">
         <f t="shared" si="6"/>
-        <v>449039.73655375792</v>
+        <v>486807.6973648612</v>
       </c>
       <c r="X50" s="14">
         <f t="shared" si="6"/>
-        <v>467292.08435510343</v>
+        <v>505824.03603701096</v>
       </c>
       <c r="Y50" s="14">
         <f t="shared" si="6"/>
-        <v>483112.9487248165</v>
+        <v>522218.57303897693</v>
       </c>
       <c r="Z50" s="14">
         <f t="shared" si="6"/>
-        <v>496717.91010858002</v>
+        <v>536196.88752412389</v>
       </c>
       <c r="AA50" s="14">
         <f t="shared" si="6"/>
-        <v>509076.04727648216</v>
+        <v>548886.19401908258</v>
       </c>
       <c r="AB50" s="14">
         <f t="shared" si="6"/>
-        <v>519574.81444727018</v>
+        <v>559575.24205039407</v>
       </c>
       <c r="AC50" s="14">
         <f t="shared" si="6"/>
-        <v>528688.32520606753</v>
+        <v>568786.79003661417</v>
       </c>
       <c r="AD50" s="14">
         <f t="shared" si="6"/>
-        <v>537496.211850008</v>
+        <v>577770.33205273887</v>
       </c>
       <c r="AE50" s="14">
         <f t="shared" si="6"/>
-        <v>545854.79857962229</v>
+        <v>586236.45536857669</v>
       </c>
       <c r="AF50" s="14">
         <f t="shared" si="6"/>
-        <v>553060.26780928159</v>
+        <v>593472.3075951878</v>
       </c>
       <c r="AG50" s="14">
         <f t="shared" si="6"/>
-        <v>559838.7838455711</v>
+        <v>600266.56512093497</v>
       </c>
       <c r="AH50" s="14">
         <f t="shared" si="6"/>
-        <v>565437.43039337697</v>
+        <v>605864.72575437836</v>
       </c>
     </row>
     <row r="51" spans="1:34" x14ac:dyDescent="0.25">
@@ -7044,135 +7076,135 @@
       </c>
       <c r="B51" s="14">
         <f t="shared" ref="B51:Q65" si="7">SUM(B$46:B$47)*INDEX($B$23:$B$40,MATCH($A51,$A$23:$A$40,0),1)</f>
-        <v>2628.1721155060154</v>
+        <v>2661.0172609707265</v>
       </c>
       <c r="C51" s="14">
         <f t="shared" si="7"/>
-        <v>3436.4278754757138</v>
+        <v>3575.9353931064334</v>
       </c>
       <c r="D51" s="14">
         <f t="shared" si="7"/>
-        <v>4482.2441877243291</v>
+        <v>4733.9087170607654</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" si="7"/>
-        <v>5813.1682971700666</v>
+        <v>6222.7733888858829</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" si="7"/>
-        <v>7503.8637249066605</v>
+        <v>8113.3420810562193</v>
       </c>
       <c r="G51" s="14">
         <f t="shared" si="7"/>
-        <v>9434.6753187958802</v>
+        <v>10281.473026351388</v>
       </c>
       <c r="H51" s="14">
         <f t="shared" si="7"/>
-        <v>12020.026611114117</v>
+        <v>13181.697418970834</v>
       </c>
       <c r="I51" s="14">
         <f t="shared" si="7"/>
-        <v>15142.33287340151</v>
+        <v>16664.540428908967</v>
       </c>
       <c r="J51" s="14">
         <f t="shared" si="7"/>
-        <v>19462.552814602383</v>
+        <v>21485.392998214382</v>
       </c>
       <c r="K51" s="14">
         <f t="shared" si="7"/>
-        <v>24581.020770881805</v>
+        <v>27203.847428890931</v>
       </c>
       <c r="L51" s="14">
         <f t="shared" si="7"/>
-        <v>30965.087832548743</v>
+        <v>34298.819905127784</v>
       </c>
       <c r="M51" s="14">
         <f t="shared" si="7"/>
-        <v>38305.332317876011</v>
+        <v>42423.706166693722</v>
       </c>
       <c r="N51" s="14">
         <f t="shared" si="7"/>
-        <v>46325.142834983671</v>
+        <v>51248.827841206279</v>
       </c>
       <c r="O51" s="14">
         <f t="shared" si="7"/>
-        <v>54851.518406291143</v>
+        <v>60595.793878397635</v>
       </c>
       <c r="P51" s="14">
         <f t="shared" si="7"/>
-        <v>63914.929812600327</v>
+        <v>70458.288440380202</v>
       </c>
       <c r="Q51" s="14">
         <f t="shared" si="7"/>
-        <v>73486.927898923212</v>
+        <v>80796.283336038818</v>
       </c>
       <c r="R51" s="14">
         <f t="shared" si="6"/>
-        <v>82551.514636653854</v>
+        <v>90498.35840412676</v>
       </c>
       <c r="S51" s="14">
         <f t="shared" si="6"/>
-        <v>91003.108177768154</v>
+        <v>99499.319697707557</v>
       </c>
       <c r="T51" s="14">
         <f t="shared" si="6"/>
-        <v>98750.616851541228</v>
+        <v>107711.59596342189</v>
       </c>
       <c r="U51" s="14">
         <f t="shared" si="6"/>
-        <v>105840.37492740291</v>
+        <v>115158.35921577115</v>
       </c>
       <c r="V51" s="14">
         <f t="shared" si="6"/>
-        <v>111877.48777843911</v>
+        <v>121699.36439225871</v>
       </c>
       <c r="W51" s="14">
         <f t="shared" si="6"/>
-        <v>117246.31526973649</v>
+        <v>127107.70142308316</v>
       </c>
       <c r="X51" s="14">
         <f t="shared" si="6"/>
-        <v>122012.086203849</v>
+        <v>132072.95384448892</v>
       </c>
       <c r="Y51" s="14">
         <f t="shared" si="6"/>
-        <v>126142.98576736469</v>
+        <v>136353.64193856754</v>
       </c>
       <c r="Z51" s="14">
         <f t="shared" si="6"/>
-        <v>129695.30299406599</v>
+        <v>140003.44335623973</v>
       </c>
       <c r="AA51" s="14">
         <f t="shared" si="6"/>
-        <v>132922.06875349459</v>
+        <v>143316.67893151526</v>
       </c>
       <c r="AB51" s="14">
         <f t="shared" si="6"/>
-        <v>135663.34455927709</v>
+        <v>146107.63793445521</v>
       </c>
       <c r="AC51" s="14">
         <f t="shared" si="6"/>
-        <v>138042.92362245911</v>
+        <v>148512.81496311526</v>
       </c>
       <c r="AD51" s="14">
         <f t="shared" si="6"/>
-        <v>140342.70284075534</v>
+        <v>150858.45859711774</v>
       </c>
       <c r="AE51" s="14">
         <f t="shared" si="6"/>
-        <v>142525.16781018343</v>
+        <v>153069.00185776383</v>
       </c>
       <c r="AF51" s="14">
         <f t="shared" si="6"/>
-        <v>144406.54856158578</v>
+        <v>154958.31574770485</v>
       </c>
       <c r="AG51" s="14">
         <f t="shared" si="6"/>
-        <v>146176.44989448623</v>
+        <v>156732.32725501867</v>
       </c>
       <c r="AH51" s="14">
         <f t="shared" si="6"/>
-        <v>147638.28194361777</v>
+        <v>158194.03242970258</v>
       </c>
     </row>
     <row r="52" spans="1:34" x14ac:dyDescent="0.25">
@@ -7181,135 +7213,135 @@
       </c>
       <c r="B52" s="14">
         <f t="shared" si="7"/>
-        <v>9579.3983640856386</v>
+        <v>9699.115307613225</v>
       </c>
       <c r="C52" s="14">
         <f t="shared" si="6"/>
-        <v>12525.401732409862</v>
+        <v>13033.89129376116</v>
       </c>
       <c r="D52" s="14">
         <f t="shared" si="6"/>
-        <v>16337.287191349675</v>
+        <v>17254.576727449814</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" si="6"/>
-        <v>21188.35922028029</v>
+        <v>22681.324738921056</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" si="6"/>
-        <v>27350.75814349873</v>
+        <v>29572.23973269845</v>
       </c>
       <c r="G52" s="14">
         <f t="shared" si="6"/>
-        <v>34388.35408888408</v>
+        <v>37474.83861804015</v>
       </c>
       <c r="H52" s="14">
         <f t="shared" si="6"/>
-        <v>43811.675261078948</v>
+        <v>48045.837617012068</v>
       </c>
       <c r="I52" s="14">
         <f t="shared" si="6"/>
-        <v>55192.138254603829</v>
+        <v>60740.417410674032</v>
       </c>
       <c r="J52" s="14">
         <f t="shared" si="6"/>
-        <v>70938.86488375449</v>
+        <v>78311.894919106111</v>
       </c>
       <c r="K52" s="14">
         <f t="shared" si="6"/>
-        <v>89595.11775156467</v>
+        <v>99155.032510867022</v>
       </c>
       <c r="L52" s="14">
         <f t="shared" si="6"/>
-        <v>112864.34019172845</v>
+        <v>125015.42701513266</v>
       </c>
       <c r="M52" s="14">
         <f t="shared" si="6"/>
-        <v>139618.72419872662</v>
+        <v>154629.7440163772</v>
       </c>
       <c r="N52" s="14">
         <f t="shared" si="6"/>
-        <v>168850.05166567466</v>
+        <v>186796.34209909278</v>
       </c>
       <c r="O52" s="14">
         <f t="shared" si="6"/>
-        <v>199927.75305268474</v>
+        <v>220865.00550114532</v>
       </c>
       <c r="P52" s="14">
         <f t="shared" si="6"/>
-        <v>232962.8910051765</v>
+        <v>256812.71368793177</v>
       </c>
       <c r="Q52" s="14">
         <f t="shared" si="6"/>
-        <v>267851.7714815216</v>
+        <v>294493.56830438471</v>
       </c>
       <c r="R52" s="14">
         <f t="shared" si="6"/>
-        <v>300891.19338780368</v>
+        <v>329856.56507584365</v>
       </c>
       <c r="S52" s="14">
         <f t="shared" si="6"/>
-        <v>331696.32249788073</v>
+        <v>362664.07923452917</v>
       </c>
       <c r="T52" s="14">
         <f t="shared" si="6"/>
-        <v>359935.13968850893</v>
+        <v>392596.92319138575</v>
       </c>
       <c r="U52" s="14">
         <f t="shared" si="6"/>
-        <v>385776.52827678883</v>
+        <v>419739.55639124871</v>
       </c>
       <c r="V52" s="14">
         <f t="shared" si="6"/>
-        <v>407781.14077070146</v>
+        <v>443580.80100283178</v>
       </c>
       <c r="W52" s="14">
         <f t="shared" si="6"/>
-        <v>427349.92661381961</v>
+        <v>463293.59477301012</v>
       </c>
       <c r="X52" s="14">
         <f t="shared" si="6"/>
-        <v>444720.63761881576</v>
+        <v>481391.39386396843</v>
       </c>
       <c r="Y52" s="14">
         <f t="shared" si="6"/>
-        <v>459777.31228919799</v>
+        <v>496994.03125732735</v>
       </c>
       <c r="Z52" s="14">
         <f t="shared" si="6"/>
-        <v>472725.11796349409</v>
+        <v>510297.1560882348</v>
       </c>
       <c r="AA52" s="14">
         <f t="shared" si="6"/>
-        <v>484486.32433760806</v>
+        <v>522373.53543278686</v>
       </c>
       <c r="AB52" s="14">
         <f t="shared" si="6"/>
-        <v>494477.97321573517</v>
+        <v>532546.27410132927</v>
       </c>
       <c r="AC52" s="14">
         <f t="shared" si="6"/>
-        <v>503151.27723968768</v>
+        <v>541312.87989466661</v>
       </c>
       <c r="AD52" s="14">
         <f t="shared" si="6"/>
-        <v>511533.7196039175</v>
+        <v>549862.49301084003</v>
       </c>
       <c r="AE52" s="14">
         <f t="shared" si="6"/>
-        <v>519488.56443103735</v>
+        <v>557919.68012192706</v>
       </c>
       <c r="AF52" s="14">
         <f t="shared" si="6"/>
-        <v>526345.9903910323</v>
+        <v>564806.02149955812</v>
       </c>
       <c r="AG52" s="14">
         <f t="shared" si="6"/>
-        <v>532797.08612899738</v>
+        <v>571272.09837130026</v>
       </c>
       <c r="AH52" s="14">
         <f t="shared" si="6"/>
-        <v>538125.30320328986</v>
+        <v>576599.85300218244</v>
       </c>
     </row>
     <row r="53" spans="1:34" x14ac:dyDescent="0.25">
@@ -7318,135 +7350,135 @@
       </c>
       <c r="B53" s="14">
         <f t="shared" si="7"/>
-        <v>462.39509406056675</v>
+        <v>468.17380011904118</v>
       </c>
       <c r="C53" s="14">
         <f t="shared" si="6"/>
-        <v>604.59791858304925</v>
+        <v>629.14257886478003</v>
       </c>
       <c r="D53" s="14">
         <f t="shared" si="6"/>
-        <v>788.59664881049002</v>
+        <v>832.87397868080734</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" si="6"/>
-        <v>1022.7566473675666</v>
+        <v>1094.8217087819924</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" si="6"/>
-        <v>1320.2140576808615</v>
+        <v>1427.4444023591798</v>
       </c>
       <c r="G53" s="14">
         <f t="shared" si="6"/>
-        <v>1659.9170030481757</v>
+        <v>1808.9008170553541</v>
       </c>
       <c r="H53" s="14">
         <f t="shared" si="6"/>
-        <v>2114.7782912180078</v>
+        <v>2319.1602186028895</v>
       </c>
       <c r="I53" s="14">
         <f t="shared" si="6"/>
-        <v>2664.1103114910811</v>
+        <v>2931.9243186696244</v>
       </c>
       <c r="J53" s="14">
         <f t="shared" si="6"/>
-        <v>3424.2007539274568</v>
+        <v>3780.095016503436</v>
       </c>
       <c r="K53" s="14">
         <f t="shared" si="6"/>
-        <v>4324.7332792237066</v>
+        <v>4786.1879046949116</v>
       </c>
       <c r="L53" s="14">
         <f t="shared" si="6"/>
-        <v>5447.932658766661</v>
+        <v>6034.4624930108403</v>
       </c>
       <c r="M53" s="14">
         <f t="shared" si="6"/>
-        <v>6739.3598903378243</v>
+        <v>7463.9379542954021</v>
       </c>
       <c r="N53" s="14">
         <f t="shared" si="6"/>
-        <v>8150.3485453528847</v>
+        <v>9016.6113666287893</v>
       </c>
       <c r="O53" s="14">
         <f t="shared" si="6"/>
-        <v>9650.4611943798136</v>
+        <v>10661.096982486517</v>
       </c>
       <c r="P53" s="14">
         <f t="shared" si="6"/>
-        <v>11245.05880273434</v>
+        <v>12396.283606586945</v>
       </c>
       <c r="Q53" s="14">
         <f t="shared" si="6"/>
-        <v>12929.136085709648</v>
+        <v>14215.128762873581</v>
       </c>
       <c r="R53" s="14">
         <f t="shared" si="6"/>
-        <v>14523.940479411287</v>
+        <v>15922.091517414281</v>
       </c>
       <c r="S53" s="14">
         <f t="shared" si="6"/>
-        <v>16010.896134769042</v>
+        <v>17505.701783814005</v>
       </c>
       <c r="T53" s="14">
         <f t="shared" si="6"/>
-        <v>17373.976574139208</v>
+        <v>18950.552459282506</v>
       </c>
       <c r="U53" s="14">
         <f t="shared" si="6"/>
-        <v>18621.333751781109</v>
+        <v>20260.720379488845</v>
       </c>
       <c r="V53" s="14">
         <f t="shared" si="6"/>
-        <v>19683.490734628358</v>
+        <v>21411.531122053279</v>
       </c>
       <c r="W53" s="14">
         <f t="shared" si="6"/>
-        <v>20628.070991829445</v>
+        <v>22363.0626048374</v>
       </c>
       <c r="X53" s="14">
         <f t="shared" si="6"/>
-        <v>21466.550742203708</v>
+        <v>23236.638710026513</v>
       </c>
       <c r="Y53" s="14">
         <f t="shared" si="6"/>
-        <v>22193.33255415472</v>
+        <v>23989.774002128313</v>
       </c>
       <c r="Z53" s="14">
         <f t="shared" si="6"/>
-        <v>22818.3198023195</v>
+        <v>24631.912414551884</v>
       </c>
       <c r="AA53" s="14">
         <f t="shared" si="6"/>
-        <v>23386.030207600601</v>
+        <v>25214.83613801562</v>
       </c>
       <c r="AB53" s="14">
         <f t="shared" si="6"/>
-        <v>23868.324527893514</v>
+        <v>25705.8716158938</v>
       </c>
       <c r="AC53" s="14">
         <f t="shared" si="6"/>
-        <v>24286.98268131234</v>
+        <v>26129.033421712389</v>
       </c>
       <c r="AD53" s="14">
         <f t="shared" si="6"/>
-        <v>24691.601017260968</v>
+        <v>26541.721046840899</v>
       </c>
       <c r="AE53" s="14">
         <f t="shared" si="6"/>
-        <v>25075.57933012283</v>
+        <v>26930.63939541511</v>
       </c>
       <c r="AF53" s="14">
         <f t="shared" si="6"/>
-        <v>25406.585516656749</v>
+        <v>27263.041321717799</v>
       </c>
       <c r="AG53" s="14">
         <f t="shared" si="6"/>
-        <v>25717.978247930307</v>
+        <v>27575.157188463829</v>
       </c>
       <c r="AH53" s="14">
         <f t="shared" si="6"/>
-        <v>25975.169915047885</v>
+        <v>27832.326533556985</v>
       </c>
     </row>
     <row r="54" spans="1:34" x14ac:dyDescent="0.25">
@@ -7455,135 +7487,135 @@
       </c>
       <c r="B54" s="14">
         <f t="shared" si="7"/>
-        <v>4982.6471348952982</v>
+        <v>5044.9169417239327</v>
       </c>
       <c r="C54" s="14">
         <f t="shared" si="6"/>
-        <v>6514.9871300254308</v>
+        <v>6779.473892105405</v>
       </c>
       <c r="D54" s="14">
         <f t="shared" si="6"/>
-        <v>8497.708741410097</v>
+        <v>8974.8295276229637</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" si="6"/>
-        <v>11020.954902332123</v>
+        <v>11797.508928088306</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" si="6"/>
-        <v>14226.277217141929</v>
+        <v>15381.763026892484</v>
       </c>
       <c r="G54" s="14">
         <f t="shared" si="6"/>
-        <v>17886.826235052216</v>
+        <v>19492.236377901627</v>
       </c>
       <c r="H54" s="14">
         <f t="shared" si="6"/>
-        <v>22788.291071911692</v>
+        <v>24990.656620312751</v>
       </c>
       <c r="I54" s="14">
         <f t="shared" si="6"/>
-        <v>28707.747510957197</v>
+        <v>31593.640360370107</v>
       </c>
       <c r="J54" s="14">
         <f t="shared" si="6"/>
-        <v>36898.280918240351</v>
+        <v>40733.303284454305</v>
       </c>
       <c r="K54" s="14">
         <f t="shared" si="6"/>
-        <v>46602.181034576046</v>
+        <v>51574.693928899949</v>
       </c>
       <c r="L54" s="14">
         <f t="shared" si="6"/>
-        <v>58705.480231048095</v>
+        <v>65025.770466966067</v>
       </c>
       <c r="M54" s="14">
         <f t="shared" si="6"/>
-        <v>72621.558230074123</v>
+        <v>80429.419647205228</v>
       </c>
       <c r="N54" s="14">
         <f t="shared" si="6"/>
-        <v>87825.998479519505</v>
+        <v>97160.617336724201</v>
       </c>
       <c r="O54" s="14">
         <f t="shared" si="6"/>
-        <v>103990.81529679129</v>
+        <v>114881.1590281911</v>
       </c>
       <c r="P54" s="14">
         <f t="shared" si="6"/>
-        <v>121173.77702505275</v>
+        <v>133579.07077539092</v>
       </c>
       <c r="Q54" s="14">
         <f t="shared" si="6"/>
-        <v>139320.94804123152</v>
+        <v>153178.46472052377</v>
       </c>
       <c r="R54" s="14">
         <f t="shared" si="6"/>
-        <v>156506.13803365617</v>
+        <v>171572.24352037226</v>
       </c>
       <c r="S54" s="14">
         <f t="shared" si="6"/>
-        <v>172529.17856988258</v>
+        <v>188636.80856014285</v>
       </c>
       <c r="T54" s="14">
         <f t="shared" si="6"/>
-        <v>187217.37256912503</v>
+        <v>204206.13697851848</v>
       </c>
       <c r="U54" s="14">
         <f t="shared" si="6"/>
-        <v>200658.56333261187</v>
+        <v>218324.15967750663</v>
       </c>
       <c r="V54" s="14">
         <f t="shared" si="6"/>
-        <v>212104.08582057245</v>
+        <v>230724.99161300794</v>
       </c>
       <c r="W54" s="14">
         <f t="shared" si="6"/>
-        <v>222282.63263622098</v>
+        <v>240978.4429955089</v>
       </c>
       <c r="X54" s="14">
         <f t="shared" si="6"/>
-        <v>231317.86847573184</v>
+        <v>250391.86786429305</v>
       </c>
       <c r="Y54" s="14">
         <f t="shared" si="6"/>
-        <v>239149.47689789513</v>
+        <v>258507.45441263999</v>
       </c>
       <c r="Z54" s="14">
         <f t="shared" si="6"/>
-        <v>245884.17404631784</v>
+        <v>265426.96796710131</v>
       </c>
       <c r="AA54" s="14">
         <f t="shared" si="6"/>
-        <v>252001.67109734323</v>
+        <v>271708.39970780798</v>
       </c>
       <c r="AB54" s="14">
         <f t="shared" si="6"/>
-        <v>257198.74702667605</v>
+        <v>276999.66803744383</v>
       </c>
       <c r="AC54" s="14">
         <f t="shared" si="6"/>
-        <v>261710.09646664144</v>
+        <v>281559.54764352576</v>
       </c>
       <c r="AD54" s="14">
         <f t="shared" si="6"/>
-        <v>266070.15654997021</v>
+        <v>286006.56025106867</v>
       </c>
       <c r="AE54" s="14">
         <f t="shared" si="6"/>
-        <v>270207.80520805152</v>
+        <v>290197.44142632972</v>
       </c>
       <c r="AF54" s="14">
         <f t="shared" si="6"/>
-        <v>273774.64025485632</v>
+        <v>293779.31659542234</v>
       </c>
       <c r="AG54" s="14">
         <f t="shared" si="6"/>
-        <v>277130.12589957251</v>
+        <v>297142.59455657162</v>
       </c>
       <c r="AH54" s="14">
         <f t="shared" si="6"/>
-        <v>279901.55522428436</v>
+        <v>299913.78334505705</v>
       </c>
     </row>
     <row r="55" spans="1:34" x14ac:dyDescent="0.25">
@@ -7592,135 +7624,135 @@
       </c>
       <c r="B55" s="14">
         <f t="shared" si="7"/>
-        <v>20593.581505329799</v>
+        <v>20850.946377360535</v>
       </c>
       <c r="C55" s="14">
         <f t="shared" si="6"/>
-        <v>26926.835241599481</v>
+        <v>28019.975001352741</v>
       </c>
       <c r="D55" s="14">
         <f t="shared" si="6"/>
-        <v>35121.543395920133</v>
+        <v>37093.512418159189</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" si="6"/>
-        <v>45550.272155186409</v>
+        <v>48759.816838915649</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" si="6"/>
-        <v>58798.062848330723</v>
+        <v>63573.755478599647</v>
       </c>
       <c r="G55" s="14">
         <f t="shared" si="6"/>
-        <v>73927.332996049998</v>
+        <v>80562.590065472657</v>
       </c>
       <c r="H55" s="14">
         <f t="shared" si="6"/>
-        <v>94185.383161084363</v>
+        <v>103287.89297115957</v>
       </c>
       <c r="I55" s="14">
         <f t="shared" si="6"/>
-        <v>118650.85409339322</v>
+        <v>130578.42351604351</v>
       </c>
       <c r="J55" s="14">
         <f t="shared" si="6"/>
-        <v>152502.8232833721</v>
+        <v>168353.20231589201</v>
       </c>
       <c r="K55" s="14">
         <f t="shared" si="6"/>
-        <v>192609.62847248526</v>
+        <v>213161.32454953738</v>
       </c>
       <c r="L55" s="14">
         <f t="shared" si="6"/>
-        <v>242633.29495698286</v>
+        <v>268755.43617769604</v>
       </c>
       <c r="M55" s="14">
         <f t="shared" si="6"/>
-        <v>300149.28570423677</v>
+        <v>332419.64844975923</v>
       </c>
       <c r="N55" s="14">
         <f t="shared" si="6"/>
-        <v>362990.15543531196</v>
+        <v>401570.69887993077</v>
       </c>
       <c r="O55" s="14">
         <f t="shared" si="6"/>
-        <v>429800.31951734214</v>
+        <v>474810.76781559444</v>
       </c>
       <c r="P55" s="14">
         <f t="shared" si="6"/>
-        <v>500818.53800119046</v>
+        <v>552090.36621394951</v>
       </c>
       <c r="Q55" s="14">
         <f t="shared" si="6"/>
-        <v>575821.89169958339</v>
+        <v>633095.84497592121</v>
       </c>
       <c r="R55" s="14">
         <f t="shared" si="6"/>
-        <v>646849.31973378069</v>
+        <v>709118.44353660522</v>
       </c>
       <c r="S55" s="14">
         <f t="shared" si="6"/>
-        <v>713073.51388453017</v>
+        <v>779647.32135706942</v>
       </c>
       <c r="T55" s="14">
         <f t="shared" si="6"/>
-        <v>773780.70668794983</v>
+        <v>843996.29592554516</v>
       </c>
       <c r="U55" s="14">
         <f t="shared" si="6"/>
-        <v>829333.95981278073</v>
+        <v>902346.93631297012</v>
       </c>
       <c r="V55" s="14">
         <f t="shared" si="6"/>
-        <v>876638.99543855852</v>
+        <v>953600.32357556419</v>
       </c>
       <c r="W55" s="14">
         <f t="shared" si="6"/>
-        <v>918707.54409934534</v>
+        <v>995978.45733455988</v>
       </c>
       <c r="X55" s="14">
         <f t="shared" si="6"/>
-        <v>956050.7194524107</v>
+        <v>1034884.7107840485</v>
       </c>
       <c r="Y55" s="14">
         <f t="shared" si="6"/>
-        <v>988419.23000378779</v>
+        <v>1068426.9200800823</v>
       </c>
       <c r="Z55" s="14">
         <f t="shared" si="6"/>
-        <v>1016254.1400194796</v>
+        <v>1097025.6874627997</v>
       </c>
       <c r="AA55" s="14">
         <f t="shared" si="6"/>
-        <v>1041538.124760565</v>
+        <v>1122987.224176181</v>
       </c>
       <c r="AB55" s="14">
         <f t="shared" si="6"/>
-        <v>1063017.9534224339</v>
+        <v>1144856.355716682</v>
       </c>
       <c r="AC55" s="14">
         <f t="shared" si="6"/>
-        <v>1081663.6330934474</v>
+        <v>1163702.6134949408</v>
       </c>
       <c r="AD55" s="14">
         <f t="shared" si="6"/>
-        <v>1099684.0247172771</v>
+        <v>1182082.3851523187</v>
       </c>
       <c r="AE55" s="14">
         <f t="shared" si="6"/>
-        <v>1116785.1764893676</v>
+        <v>1199403.5501325687</v>
       </c>
       <c r="AF55" s="14">
         <f t="shared" si="6"/>
-        <v>1131527.1211352202</v>
+        <v>1214207.6565120935</v>
       </c>
       <c r="AG55" s="14">
         <f t="shared" si="6"/>
-        <v>1145395.5459390727</v>
+        <v>1228108.2874303339</v>
       </c>
       <c r="AH55" s="14">
         <f t="shared" si="6"/>
-        <v>1156850.0307018019</v>
+        <v>1239561.7780423139</v>
       </c>
     </row>
     <row r="56" spans="1:34" x14ac:dyDescent="0.25">
@@ -7729,135 +7761,135 @@
       </c>
       <c r="B56" s="14">
         <f t="shared" si="7"/>
-        <v>1682.9821438233862</v>
+        <v>1704.0149342568041</v>
       </c>
       <c r="C56" s="14">
         <f t="shared" si="6"/>
-        <v>2200.5586007250686</v>
+        <v>2289.8939451328388</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" si="6"/>
-        <v>2870.2598614793569</v>
+        <v>3031.4163194632324</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" si="6"/>
-        <v>3722.5333856393049</v>
+        <v>3984.8290135815159</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" si="6"/>
-        <v>4805.190871706076</v>
+        <v>5195.4777879984849</v>
       </c>
       <c r="G56" s="14">
         <f t="shared" si="6"/>
-        <v>6041.6096802121092</v>
+        <v>6583.8669444294137</v>
       </c>
       <c r="H56" s="14">
         <f t="shared" si="6"/>
-        <v>7697.1709864184841</v>
+        <v>8441.0610897678689</v>
       </c>
       <c r="I56" s="14">
         <f t="shared" si="6"/>
-        <v>9696.5779719712136</v>
+        <v>10671.34218927547</v>
       </c>
       <c r="J56" s="14">
         <f t="shared" si="6"/>
-        <v>12463.08362642714</v>
+        <v>13758.434067420592</v>
       </c>
       <c r="K56" s="14">
         <f t="shared" si="6"/>
-        <v>15740.75715599805</v>
+        <v>17420.316270764568</v>
       </c>
       <c r="L56" s="14">
         <f t="shared" si="6"/>
-        <v>19828.872544775713</v>
+        <v>21963.668632649747</v>
       </c>
       <c r="M56" s="14">
         <f t="shared" si="6"/>
-        <v>24529.287836156051</v>
+        <v>27166.538877766354</v>
       </c>
       <c r="N56" s="14">
         <f t="shared" si="6"/>
-        <v>29664.871543747631</v>
+        <v>32817.813430009199</v>
       </c>
       <c r="O56" s="14">
         <f t="shared" si="6"/>
-        <v>35124.840376602995</v>
+        <v>38803.257399491369</v>
       </c>
       <c r="P56" s="14">
         <f t="shared" si="6"/>
-        <v>40928.7066717169</v>
+        <v>45118.826362209831</v>
       </c>
       <c r="Q56" s="14">
         <f t="shared" si="6"/>
-        <v>47058.252664899082</v>
+        <v>51738.887776635456</v>
       </c>
       <c r="R56" s="14">
         <f t="shared" si="6"/>
-        <v>52862.871597857258</v>
+        <v>57951.730155294623</v>
       </c>
       <c r="S56" s="14">
         <f t="shared" si="6"/>
-        <v>58274.952843460851</v>
+        <v>63715.605757264209</v>
       </c>
       <c r="T56" s="14">
         <f t="shared" si="6"/>
-        <v>63236.164736756669</v>
+        <v>68974.437259888524</v>
       </c>
       <c r="U56" s="14">
         <f t="shared" si="6"/>
-        <v>67776.177993615056</v>
+        <v>73743.063145933658</v>
       </c>
       <c r="V56" s="14">
         <f t="shared" si="6"/>
-        <v>71642.117012066446</v>
+        <v>77931.675775120384</v>
       </c>
       <c r="W56" s="14">
         <f t="shared" si="6"/>
-        <v>75080.111330555694</v>
+        <v>81394.97051025377</v>
       </c>
       <c r="X56" s="14">
         <f t="shared" si="6"/>
-        <v>78131.931010226719</v>
+        <v>84574.530598993559</v>
       </c>
       <c r="Y56" s="14">
         <f t="shared" si="6"/>
-        <v>80777.203046371957</v>
+        <v>87315.721551864073</v>
       </c>
       <c r="Z56" s="14">
         <f t="shared" si="6"/>
-        <v>83051.972809912884</v>
+        <v>89652.916508846916</v>
       </c>
       <c r="AA56" s="14">
         <f t="shared" si="6"/>
-        <v>85118.271711487469</v>
+        <v>91774.587414100955</v>
       </c>
       <c r="AB56" s="14">
         <f t="shared" si="6"/>
-        <v>86873.681186083006</v>
+        <v>93561.812131378159</v>
       </c>
       <c r="AC56" s="14">
         <f t="shared" si="6"/>
-        <v>88397.473729776524</v>
+        <v>95101.99664520318</v>
       </c>
       <c r="AD56" s="14">
         <f t="shared" si="6"/>
-        <v>89870.165467236613</v>
+        <v>96604.058221957675</v>
       </c>
       <c r="AE56" s="14">
         <f t="shared" si="6"/>
-        <v>91267.733591255877</v>
+        <v>98019.606623018233</v>
       </c>
       <c r="AF56" s="14">
         <f t="shared" si="6"/>
-        <v>92472.498755478606</v>
+        <v>99229.451869487573</v>
       </c>
       <c r="AG56" s="14">
         <f t="shared" si="6"/>
-        <v>93605.876711216915</v>
+        <v>100365.46182565877</v>
       </c>
       <c r="AH56" s="14">
         <f t="shared" si="6"/>
-        <v>94541.978734916935</v>
+        <v>101301.4826037552</v>
       </c>
     </row>
     <row r="57" spans="1:34" x14ac:dyDescent="0.25">
@@ -7866,135 +7898,135 @@
       </c>
       <c r="B57" s="14">
         <f t="shared" si="7"/>
-        <v>3068.4674440416284</v>
+        <v>3106.8151074076077</v>
       </c>
       <c r="C57" s="14">
         <f t="shared" si="6"/>
-        <v>4012.1295700088376</v>
+        <v>4175.0086575401765</v>
       </c>
       <c r="D57" s="14">
         <f t="shared" si="6"/>
-        <v>5233.1505555254944</v>
+        <v>5526.9762188193272</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" si="6"/>
-        <v>6787.0431930090353</v>
+        <v>7265.2690601157938</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" si="6"/>
-        <v>8760.9793165954216</v>
+        <v>9472.563037714408</v>
       </c>
       <c r="G57" s="14">
         <f t="shared" si="6"/>
-        <v>11015.258053316018</v>
+        <v>12003.919024944536</v>
       </c>
       <c r="H57" s="14">
         <f t="shared" si="6"/>
-        <v>14033.730939884204</v>
+        <v>15390.015421243437</v>
       </c>
       <c r="I57" s="14">
         <f t="shared" si="6"/>
-        <v>17679.114383240445</v>
+        <v>19456.336011759824</v>
       </c>
       <c r="J57" s="14">
         <f t="shared" si="6"/>
-        <v>22723.096914849481</v>
+        <v>25084.82170878199</v>
       </c>
       <c r="K57" s="14">
         <f t="shared" si="6"/>
-        <v>28699.057238966143</v>
+        <v>31761.283705787922</v>
       </c>
       <c r="L57" s="14">
         <f t="shared" si="6"/>
-        <v>36152.641356889049</v>
+        <v>40044.870587810903</v>
       </c>
       <c r="M57" s="14">
         <f t="shared" si="6"/>
-        <v>44722.590448749164</v>
+        <v>49530.911792291176</v>
       </c>
       <c r="N57" s="14">
         <f t="shared" si="6"/>
-        <v>54085.952663095428</v>
+        <v>59834.498223400602</v>
       </c>
       <c r="O57" s="14">
         <f t="shared" si="6"/>
-        <v>64040.744322998391</v>
+        <v>70747.353137456477</v>
       </c>
       <c r="P57" s="14">
         <f t="shared" si="6"/>
-        <v>74622.54095196868</v>
+        <v>82262.102609887632</v>
       </c>
       <c r="Q57" s="14">
         <f t="shared" si="6"/>
-        <v>85798.12733347762</v>
+        <v>94332.01256245152</v>
       </c>
       <c r="R57" s="14">
         <f t="shared" si="6"/>
-        <v>96381.296196093273</v>
+        <v>105659.4676063705</v>
       </c>
       <c r="S57" s="14">
         <f t="shared" si="6"/>
-        <v>106248.77765903721</v>
+        <v>116168.35191097161</v>
       </c>
       <c r="T57" s="14">
         <f t="shared" si="6"/>
-        <v>115294.21954529877</v>
+        <v>125756.42348898869</v>
       </c>
       <c r="U57" s="14">
         <f t="shared" si="6"/>
-        <v>123571.71846310624</v>
+        <v>134450.73634182854</v>
       </c>
       <c r="V57" s="14">
         <f t="shared" si="6"/>
-        <v>130620.22344119185</v>
+        <v>142087.55027686091</v>
       </c>
       <c r="W57" s="14">
         <f t="shared" si="6"/>
-        <v>136888.48580975053</v>
+        <v>148401.94118283642</v>
       </c>
       <c r="X57" s="14">
         <f t="shared" si="6"/>
-        <v>142452.66209440326</v>
+        <v>154199.01791028623</v>
       </c>
       <c r="Y57" s="14">
         <f t="shared" si="6"/>
-        <v>147275.60757444584</v>
+        <v>159196.84585971176</v>
       </c>
       <c r="Z57" s="14">
         <f t="shared" si="6"/>
-        <v>151423.04133524522</v>
+        <v>163458.09525097848</v>
       </c>
       <c r="AA57" s="14">
         <f t="shared" si="6"/>
-        <v>155190.38428205546</v>
+        <v>167326.39422469924</v>
       </c>
       <c r="AB57" s="14">
         <f t="shared" si="6"/>
-        <v>158390.90357664629</v>
+        <v>170584.92009811878</v>
       </c>
       <c r="AC57" s="14">
         <f t="shared" si="6"/>
-        <v>161169.13139620872</v>
+        <v>173393.03428746641</v>
       </c>
       <c r="AD57" s="14">
         <f t="shared" si="6"/>
-        <v>163854.19057410312</v>
+        <v>176131.64150569052</v>
       </c>
       <c r="AE57" s="14">
         <f t="shared" si="6"/>
-        <v>166402.28195173421</v>
+        <v>178712.51510560393</v>
       </c>
       <c r="AF57" s="14">
         <f t="shared" si="6"/>
-        <v>168598.84874104935</v>
+        <v>180918.34406507583</v>
       </c>
       <c r="AG57" s="14">
         <f t="shared" si="6"/>
-        <v>170665.26006439043</v>
+        <v>182989.5541366809</v>
       </c>
       <c r="AH57" s="14">
         <f t="shared" si="6"/>
-        <v>172371.99153184349</v>
+        <v>184696.13747452336</v>
       </c>
     </row>
     <row r="58" spans="1:34" x14ac:dyDescent="0.25">
@@ -8003,135 +8035,135 @@
       </c>
       <c r="B58" s="14">
         <f t="shared" si="7"/>
-        <v>4754.84955179193</v>
+        <v>4814.272496077052</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" si="6"/>
-        <v>6217.1337436646636</v>
+        <v>6469.5286510470205</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" si="6"/>
-        <v>8109.2089217755165</v>
+        <v>8564.5166116552136</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" si="6"/>
-        <v>10517.096848114279</v>
+        <v>11258.148233320708</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" si="6"/>
-        <v>13575.877644607976</v>
+        <v>14678.536740436122</v>
       </c>
       <c r="G58" s="14">
         <f t="shared" si="6"/>
-        <v>17069.073005609363</v>
+        <v>18601.086710675827</v>
       </c>
       <c r="H58" s="14">
         <f t="shared" si="6"/>
-        <v>21746.451766679293</v>
+        <v>23848.129159677505</v>
       </c>
       <c r="I58" s="14">
         <f t="shared" si="6"/>
-        <v>27395.281401619679</v>
+        <v>30149.236468084338</v>
       </c>
       <c r="J58" s="14">
         <f t="shared" si="6"/>
-        <v>35211.35848799668</v>
+        <v>38871.050592500404</v>
       </c>
       <c r="K58" s="14">
         <f t="shared" si="6"/>
-        <v>44471.61390437025</v>
+        <v>49216.792534675245</v>
       </c>
       <c r="L58" s="14">
         <f t="shared" si="6"/>
-        <v>56021.572230038051</v>
+        <v>62052.910268203377</v>
       </c>
       <c r="M58" s="14">
         <f t="shared" si="6"/>
-        <v>69301.432401745929</v>
+        <v>76752.332566780286</v>
       </c>
       <c r="N58" s="14">
         <f t="shared" si="6"/>
-        <v>83810.753240264763</v>
+        <v>92718.610266399715</v>
       </c>
       <c r="O58" s="14">
         <f t="shared" si="6"/>
-        <v>99236.543973089472</v>
+        <v>109629.00095593672</v>
       </c>
       <c r="P58" s="14">
         <f t="shared" si="6"/>
-        <v>115633.93187958804</v>
+        <v>127472.07811626354</v>
       </c>
       <c r="Q58" s="14">
         <f t="shared" ref="Q58:AH65" si="8">SUM(Q$46:Q$47)*INDEX($B$23:$B$40,MATCH($A58,$A$23:$A$40,0),1)</f>
-        <v>132951.44717547751</v>
+        <v>146175.42334469635</v>
       </c>
       <c r="R58" s="14">
         <f t="shared" si="8"/>
-        <v>149350.9614739462</v>
+        <v>163728.27196399905</v>
       </c>
       <c r="S58" s="14">
         <f t="shared" si="8"/>
-        <v>164641.4576799596</v>
+        <v>180012.67606370506</v>
       </c>
       <c r="T58" s="14">
         <f t="shared" si="8"/>
-        <v>178658.13410980647</v>
+        <v>194870.20304637193</v>
       </c>
       <c r="U58" s="14">
         <f t="shared" si="8"/>
-        <v>191484.81802842559</v>
+        <v>208342.77537290548</v>
       </c>
       <c r="V58" s="14">
         <f t="shared" si="8"/>
-        <v>202407.0720027776</v>
+        <v>220176.66378081992</v>
       </c>
       <c r="W58" s="14">
         <f t="shared" si="8"/>
-        <v>212120.27413289322</v>
+        <v>229961.34597694929</v>
       </c>
       <c r="X58" s="14">
         <f t="shared" si="8"/>
-        <v>220742.43538949912</v>
+        <v>238944.40614685352</v>
       </c>
       <c r="Y58" s="14">
         <f t="shared" si="8"/>
-        <v>228215.99688959832</v>
+        <v>246688.96280865031</v>
       </c>
       <c r="Z58" s="14">
         <f t="shared" si="8"/>
-        <v>234642.79590841045</v>
+        <v>253292.12876287356</v>
       </c>
       <c r="AA58" s="14">
         <f t="shared" si="8"/>
-        <v>240480.61209801058</v>
+        <v>259286.38484569738</v>
       </c>
       <c r="AB58" s="14">
         <f t="shared" si="8"/>
-        <v>245440.08714896379</v>
+        <v>264335.7459913785</v>
       </c>
       <c r="AC58" s="14">
         <f t="shared" si="8"/>
-        <v>249745.18588099489</v>
+        <v>268687.15617841744</v>
       </c>
       <c r="AD58" s="14">
         <f t="shared" si="8"/>
-        <v>253905.91193117251</v>
+        <v>272930.85944122792</v>
       </c>
       <c r="AE58" s="14">
         <f t="shared" si="8"/>
-        <v>257854.3948027704</v>
+        <v>276930.14113594138</v>
       </c>
       <c r="AF58" s="14">
         <f t="shared" si="8"/>
-        <v>261258.16062532691</v>
+        <v>280348.25947369367</v>
       </c>
       <c r="AG58" s="14">
         <f t="shared" si="8"/>
-        <v>264460.23955684213</v>
+        <v>283557.77447107836</v>
       </c>
       <c r="AH58" s="14">
         <f t="shared" si="8"/>
-        <v>267104.96416319459</v>
+        <v>286202.26953808416</v>
       </c>
     </row>
     <row r="59" spans="1:34" x14ac:dyDescent="0.25">
@@ -8140,135 +8172,135 @@
       </c>
       <c r="B59" s="14">
         <f t="shared" si="7"/>
-        <v>1744.1814945078729</v>
+        <v>1765.9791136843244</v>
       </c>
       <c r="C59" s="14">
         <f t="shared" si="7"/>
-        <v>2280.5789134787078</v>
+        <v>2373.1628158649423</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" si="7"/>
-        <v>2974.6329473513338</v>
+        <v>3141.649640170986</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" si="7"/>
-        <v>3857.8982360261884</v>
+        <v>4129.7318868026623</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" si="7"/>
-        <v>4979.9250852226605</v>
+        <v>5384.4042530166116</v>
       </c>
       <c r="G59" s="14">
         <f t="shared" si="7"/>
-        <v>6261.3045776743684</v>
+        <v>6823.2802878632101</v>
       </c>
       <c r="H59" s="14">
         <f t="shared" si="7"/>
-        <v>7977.0681131973379</v>
+        <v>8748.0087657594286</v>
       </c>
       <c r="I59" s="14">
         <f t="shared" si="7"/>
-        <v>10049.180807315621</v>
+        <v>11059.390996158216</v>
       </c>
       <c r="J59" s="14">
         <f t="shared" si="7"/>
-        <v>12916.286667388127</v>
+        <v>14258.740760781342</v>
       </c>
       <c r="K59" s="14">
         <f t="shared" si="7"/>
-        <v>16313.148325307071</v>
+        <v>18053.78231697419</v>
       </c>
       <c r="L59" s="14">
         <f t="shared" si="7"/>
-        <v>20549.922455494831</v>
+        <v>22762.347492018827</v>
       </c>
       <c r="M59" s="14">
         <f t="shared" si="7"/>
-        <v>25421.261939288997</v>
+        <v>28154.413018776038</v>
       </c>
       <c r="N59" s="14">
         <f t="shared" si="7"/>
-        <v>30743.594145338451</v>
+        <v>34011.188463827712</v>
       </c>
       <c r="O59" s="14">
         <f t="shared" si="7"/>
-        <v>36402.107299388561</v>
+        <v>40214.284941291051</v>
       </c>
       <c r="P59" s="14">
         <f t="shared" si="7"/>
-        <v>42417.023277961147</v>
+        <v>46759.51095719928</v>
       </c>
       <c r="Q59" s="14">
         <f t="shared" si="7"/>
-        <v>48769.461852713597</v>
+        <v>53620.301877604019</v>
       </c>
       <c r="R59" s="14">
         <f t="shared" si="8"/>
-        <v>54785.157837779334</v>
+        <v>60059.065797305338</v>
       </c>
       <c r="S59" s="14">
         <f t="shared" si="8"/>
-        <v>60394.042037768515</v>
+        <v>66032.536875710182</v>
       </c>
       <c r="T59" s="14">
         <f t="shared" si="8"/>
-        <v>65535.661636275086</v>
+        <v>71482.598614793562</v>
       </c>
       <c r="U59" s="14">
         <f t="shared" si="8"/>
-        <v>70240.766284291967</v>
+        <v>76424.629078513055</v>
       </c>
       <c r="V59" s="14">
         <f t="shared" si="8"/>
-        <v>74247.284903414315</v>
+        <v>80765.554894215675</v>
       </c>
       <c r="W59" s="14">
         <f t="shared" si="8"/>
-        <v>77810.297197121356</v>
+        <v>84354.787619717536</v>
       </c>
       <c r="X59" s="14">
         <f t="shared" si="8"/>
-        <v>80973.092137871325</v>
+        <v>87649.96807532059</v>
       </c>
       <c r="Y59" s="14">
         <f t="shared" si="8"/>
-        <v>83714.555884421832</v>
+        <v>90490.838699204585</v>
       </c>
       <c r="Z59" s="14">
         <f t="shared" si="8"/>
-        <v>86072.044548455175</v>
+        <v>92913.022563714083</v>
       </c>
       <c r="AA59" s="14">
         <f t="shared" si="8"/>
-        <v>88213.481591905205</v>
+        <v>95111.845138250093</v>
       </c>
       <c r="AB59" s="14">
         <f t="shared" si="8"/>
-        <v>90032.724138304198</v>
+        <v>96964.059845246462</v>
       </c>
       <c r="AC59" s="14">
         <f t="shared" si="8"/>
-        <v>91611.92731995022</v>
+        <v>98560.251068665108</v>
       </c>
       <c r="AD59" s="14">
         <f t="shared" si="8"/>
-        <v>93138.17148422703</v>
+        <v>100116.93306639251</v>
       </c>
       <c r="AE59" s="14">
         <f t="shared" si="8"/>
-        <v>94586.560267301553</v>
+        <v>101583.95595476434</v>
       </c>
       <c r="AF59" s="14">
         <f t="shared" si="8"/>
-        <v>95835.135073859637</v>
+        <v>102837.79557383258</v>
       </c>
       <c r="AG59" s="14">
         <f t="shared" si="8"/>
-        <v>97009.726773442992</v>
+        <v>104015.11498295546</v>
       </c>
       <c r="AH59" s="14">
         <f t="shared" si="8"/>
-        <v>97979.868870732098</v>
+        <v>104985.17288025538</v>
       </c>
     </row>
     <row r="60" spans="1:34" x14ac:dyDescent="0.25">
@@ -8277,135 +8309,135 @@
       </c>
       <c r="B60" s="14">
         <f t="shared" si="7"/>
-        <v>8248.3124866980506</v>
+        <v>8351.3944050646605</v>
       </c>
       <c r="C60" s="14">
         <f t="shared" si="7"/>
-        <v>10784.959930018216</v>
+        <v>11222.793355337915</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" si="7"/>
-        <v>14067.172573634183</v>
+        <v>14857.002002056166</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" si="7"/>
-        <v>18244.173724365566</v>
+        <v>19529.687246361129</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" si="7"/>
-        <v>23550.288999513014</v>
+        <v>25463.089118554191</v>
       </c>
       <c r="G60" s="14">
         <f t="shared" si="7"/>
-        <v>29609.990069079959</v>
+        <v>32267.598398355069</v>
       </c>
       <c r="H60" s="14">
         <f t="shared" si="7"/>
-        <v>37723.912753638877</v>
+        <v>41369.725664195663</v>
       </c>
       <c r="I60" s="14">
         <f t="shared" si="7"/>
-        <v>47523.026585862957</v>
+        <v>52300.355860974334</v>
       </c>
       <c r="J60" s="14">
         <f t="shared" si="7"/>
-        <v>61081.698742853019</v>
+        <v>67430.224338509826</v>
       </c>
       <c r="K60" s="14">
         <f t="shared" si="7"/>
-        <v>77145.609819093486</v>
+        <v>85377.146005807765</v>
       </c>
       <c r="L60" s="14">
         <f t="shared" si="7"/>
-        <v>97181.504633587654</v>
+        <v>107644.16182385513</v>
       </c>
       <c r="M60" s="14">
         <f t="shared" si="7"/>
-        <v>120218.28745558501</v>
+        <v>133143.48144941652</v>
       </c>
       <c r="N60" s="14">
         <f t="shared" si="7"/>
-        <v>145387.83508107427</v>
+        <v>160840.43511354004</v>
       </c>
       <c r="O60" s="14">
         <f t="shared" si="7"/>
-        <v>172147.19748209874</v>
+        <v>190175.15646700215</v>
       </c>
       <c r="P60" s="14">
         <f t="shared" si="7"/>
-        <v>200592.00481936405</v>
+        <v>221127.82374691125</v>
       </c>
       <c r="Q60" s="14">
         <f t="shared" si="7"/>
-        <v>230632.97164655593</v>
+        <v>253572.81160831847</v>
       </c>
       <c r="R60" s="14">
         <f t="shared" si="8"/>
-        <v>259081.46766949841</v>
+        <v>284022.01486211066</v>
       </c>
       <c r="S60" s="14">
         <f t="shared" si="8"/>
-        <v>285606.132521689</v>
+        <v>312270.82740832929</v>
       </c>
       <c r="T60" s="14">
         <f t="shared" si="8"/>
-        <v>309921.08212398319</v>
+        <v>338044.41372220119</v>
       </c>
       <c r="U60" s="14">
         <f t="shared" si="8"/>
-        <v>332171.73295456596</v>
+        <v>361415.49735764659</v>
       </c>
       <c r="V60" s="14">
         <f t="shared" si="8"/>
-        <v>351118.73913388525</v>
+        <v>381943.93016250926</v>
       </c>
       <c r="W60" s="14">
         <f t="shared" si="8"/>
-        <v>367968.38401601644</v>
+        <v>398917.57264217304</v>
       </c>
       <c r="X60" s="14">
         <f t="shared" si="8"/>
-        <v>382925.38309254555</v>
+        <v>414500.6287538553</v>
       </c>
       <c r="Y60" s="14">
         <f t="shared" si="8"/>
-        <v>395889.88806161284</v>
+        <v>427935.23330267123</v>
       </c>
       <c r="Z60" s="14">
         <f t="shared" si="8"/>
-        <v>407038.55765019933</v>
+        <v>439389.84939487401</v>
       </c>
       <c r="AA60" s="14">
         <f t="shared" si="8"/>
-        <v>417165.50943852251</v>
+        <v>449788.17993254337</v>
       </c>
       <c r="AB60" s="14">
         <f t="shared" si="8"/>
-        <v>425768.78900492401</v>
+        <v>458547.38632469386</v>
       </c>
       <c r="AC60" s="14">
         <f t="shared" si="8"/>
-        <v>433236.91165340983</v>
+        <v>466095.84618436953</v>
       </c>
       <c r="AD60" s="14">
         <f t="shared" si="8"/>
-        <v>440454.58873437584</v>
+        <v>473457.46514438256</v>
       </c>
       <c r="AE60" s="14">
         <f t="shared" si="8"/>
-        <v>447304.08422704402</v>
+        <v>480395.08215644897</v>
       </c>
       <c r="AF60" s="14">
         <f t="shared" si="8"/>
-        <v>453208.65046624467</v>
+        <v>486324.54593005433</v>
       </c>
       <c r="AG60" s="14">
         <f t="shared" si="8"/>
-        <v>458763.34727558034</v>
+        <v>491892.14220009744</v>
       </c>
       <c r="AH60" s="14">
         <f t="shared" si="8"/>
-        <v>463351.19274931011</v>
+        <v>496479.58948830335</v>
       </c>
     </row>
     <row r="61" spans="1:34" x14ac:dyDescent="0.25">
@@ -8414,135 +8446,135 @@
       </c>
       <c r="B61" s="14">
         <f t="shared" si="7"/>
-        <v>2175.9769132261963</v>
+        <v>2203.1708240896055</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" si="7"/>
-        <v>2845.1666756849377</v>
+        <v>2960.670959363671</v>
       </c>
       <c r="D61" s="14">
         <f t="shared" si="7"/>
-        <v>3711.0430532258356</v>
+        <v>3919.406958497917</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" si="7"/>
-        <v>4812.9724582003137</v>
+        <v>5152.1021589740822</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" si="7"/>
-        <v>6212.7720361452302</v>
+        <v>6717.3854228667287</v>
       </c>
       <c r="G61" s="14">
         <f t="shared" si="7"/>
-        <v>7811.3741319914152</v>
+        <v>8512.4744332016671</v>
       </c>
       <c r="H61" s="14">
         <f t="shared" si="7"/>
-        <v>9951.8978410259188</v>
+        <v>10913.695146366539</v>
       </c>
       <c r="I61" s="14">
         <f t="shared" si="7"/>
-        <v>12536.989701134498</v>
+        <v>13797.29091138647</v>
       </c>
       <c r="J61" s="14">
         <f t="shared" si="7"/>
-        <v>16113.885900835092</v>
+        <v>17788.682430604404</v>
       </c>
       <c r="K61" s="14">
         <f t="shared" si="7"/>
-        <v>20351.68601987627</v>
+        <v>22523.237198564293</v>
       </c>
       <c r="L61" s="14">
         <f t="shared" si="7"/>
-        <v>25637.330158901936</v>
+        <v>28397.470555345131</v>
       </c>
       <c r="M61" s="14">
         <f t="shared" si="7"/>
-        <v>31714.63477806035</v>
+        <v>35124.413902566601</v>
       </c>
       <c r="N61" s="14">
         <f t="shared" si="7"/>
-        <v>38354.581389895931</v>
+        <v>42431.112313547252</v>
       </c>
       <c r="O61" s="14">
         <f t="shared" si="7"/>
-        <v>45413.935032375593</v>
+        <v>50169.868152877731</v>
       </c>
       <c r="P61" s="14">
         <f t="shared" si="7"/>
-        <v>52917.923777573371</v>
+        <v>58335.452266291511</v>
       </c>
       <c r="Q61" s="14">
         <f t="shared" si="7"/>
-        <v>60842.993344515991</v>
+        <v>66894.723589993329</v>
       </c>
       <c r="R61" s="14">
         <f t="shared" si="8"/>
-        <v>68347.955197229589</v>
+        <v>74927.489493714267</v>
       </c>
       <c r="S61" s="14">
         <f t="shared" si="8"/>
-        <v>75345.393575383729</v>
+        <v>82379.773100301216</v>
       </c>
       <c r="T61" s="14">
         <f t="shared" si="8"/>
-        <v>81759.889760655089</v>
+        <v>89179.07039662356</v>
       </c>
       <c r="U61" s="14">
         <f t="shared" si="8"/>
-        <v>87629.805890734642</v>
+        <v>95344.566491712219</v>
       </c>
       <c r="V61" s="14">
         <f t="shared" si="8"/>
-        <v>92628.191692368739</v>
+        <v>100760.14645672133</v>
       </c>
       <c r="W61" s="14">
         <f t="shared" si="8"/>
-        <v>97073.275255667992</v>
+        <v>105237.94166982306</v>
       </c>
       <c r="X61" s="14">
         <f t="shared" si="8"/>
-        <v>101019.06231625275</v>
+        <v>109348.8880471836</v>
       </c>
       <c r="Y61" s="14">
         <f t="shared" si="8"/>
-        <v>104439.21201955163</v>
+        <v>112893.05412766265</v>
       </c>
       <c r="Z61" s="14">
         <f t="shared" si="8"/>
-        <v>107380.32848150354</v>
+        <v>115914.88195083239</v>
       </c>
       <c r="AA61" s="14">
         <f t="shared" si="8"/>
-        <v>110051.90685929696</v>
+        <v>118658.05241419116</v>
       </c>
       <c r="AB61" s="14">
         <f t="shared" si="8"/>
-        <v>112321.52719008713</v>
+        <v>120968.80760420613</v>
       </c>
       <c r="AC61" s="14">
         <f t="shared" si="8"/>
-        <v>114291.68320617573</v>
+        <v>122960.15727864654</v>
       </c>
       <c r="AD61" s="14">
         <f t="shared" si="8"/>
-        <v>116195.7694929928</v>
+        <v>124902.216691016</v>
       </c>
       <c r="AE61" s="14">
         <f t="shared" si="8"/>
-        <v>118002.72625940156</v>
+        <v>126732.42068430642</v>
       </c>
       <c r="AF61" s="14">
         <f t="shared" si="8"/>
-        <v>119560.40243132589</v>
+        <v>128296.66504337789</v>
       </c>
       <c r="AG61" s="14">
         <f t="shared" si="8"/>
-        <v>121025.77999026027</v>
+        <v>129765.44559277096</v>
       </c>
       <c r="AH61" s="14">
         <f t="shared" si="8"/>
-        <v>122236.09371787241</v>
+        <v>130975.65427556229</v>
       </c>
     </row>
     <row r="62" spans="1:34" x14ac:dyDescent="0.25">
@@ -8551,135 +8583,135 @@
       </c>
       <c r="B62" s="14">
         <f t="shared" si="7"/>
-        <v>98896.450724167167</v>
+        <v>100132.39272766624</v>
       </c>
       <c r="C62" s="14">
         <f t="shared" si="7"/>
-        <v>129310.60262341503</v>
+        <v>134560.18207889184</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" si="7"/>
-        <v>168664.00751672889</v>
+        <v>178133.98422704398</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" si="7"/>
-        <v>218745.83809047128</v>
+        <v>234159.01804556031</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" si="7"/>
-        <v>282365.63531464746</v>
+        <v>305299.91951193113</v>
       </c>
       <c r="G62" s="14">
         <f t="shared" si="7"/>
-        <v>355020.85166296916</v>
+        <v>386885.31261836481</v>
       </c>
       <c r="H62" s="14">
         <f t="shared" si="7"/>
-        <v>452305.98195443972</v>
+        <v>496018.91807802604</v>
       </c>
       <c r="I62" s="14">
         <f t="shared" si="7"/>
-        <v>569796.38739335898</v>
+        <v>627076.09278899047</v>
       </c>
       <c r="J62" s="14">
         <f t="shared" si="7"/>
-        <v>732363.52521959483</v>
+        <v>808481.71906282124</v>
       </c>
       <c r="K62" s="14">
         <f t="shared" si="7"/>
-        <v>924968.22984867333</v>
+        <v>1023663.5343956857</v>
       </c>
       <c r="L62" s="14">
         <f t="shared" si="7"/>
-        <v>1165196.6265579062</v>
+        <v>1290642.8512165647</v>
       </c>
       <c r="M62" s="14">
         <f t="shared" si="7"/>
-        <v>1441405.3736044224</v>
+        <v>1596377.1709232905</v>
       </c>
       <c r="N62" s="14">
         <f t="shared" si="7"/>
-        <v>1743185.7596540591</v>
+        <v>1928460.9053442273</v>
       </c>
       <c r="O62" s="14">
         <f t="shared" si="7"/>
-        <v>2064027.8675847265</v>
+        <v>2280181.3123387983</v>
       </c>
       <c r="P62" s="14">
         <f t="shared" si="7"/>
-        <v>2405078.2935627582</v>
+        <v>2651300.7309308657</v>
       </c>
       <c r="Q62" s="14">
         <f t="shared" si="7"/>
-        <v>2765266.5139197013</v>
+        <v>3040312.9256623918</v>
       </c>
       <c r="R62" s="14">
         <f t="shared" si="8"/>
-        <v>3106361.1668740869</v>
+        <v>3405395.8603881462</v>
       </c>
       <c r="S62" s="14">
         <f t="shared" si="8"/>
-        <v>3424389.2744124597</v>
+        <v>3744096.3282109555</v>
       </c>
       <c r="T62" s="14">
         <f t="shared" si="8"/>
-        <v>3715923.1147078983</v>
+        <v>4053119.0783777931</v>
       </c>
       <c r="U62" s="14">
         <f t="shared" si="8"/>
-        <v>3982706.2169480366</v>
+        <v>4333336.0591057483</v>
       </c>
       <c r="V62" s="14">
         <f t="shared" si="8"/>
-        <v>4209878.9466433991</v>
+        <v>4579469.9375935644</v>
       </c>
       <c r="W62" s="14">
         <f t="shared" si="8"/>
-        <v>4411904.5218738159</v>
+        <v>4782982.2317515286</v>
       </c>
       <c r="X62" s="14">
         <f t="shared" si="8"/>
-        <v>4591237.4611312523</v>
+        <v>4969821.5329257073</v>
       </c>
       <c r="Y62" s="14">
         <f t="shared" si="8"/>
-        <v>4746680.5931542311</v>
+        <v>5130901.1124037299</v>
       </c>
       <c r="Z62" s="14">
         <f t="shared" si="8"/>
-        <v>4880352.0386027098</v>
+        <v>5268240.8261638079</v>
       </c>
       <c r="AA62" s="14">
         <f t="shared" si="8"/>
-        <v>5001773.1887028124</v>
+        <v>5392915.7806215389</v>
       </c>
       <c r="AB62" s="14">
         <f t="shared" si="8"/>
-        <v>5104925.6595963426</v>
+        <v>5497937.7987302272</v>
       </c>
       <c r="AC62" s="14">
         <f t="shared" si="8"/>
-        <v>5194467.7113431813</v>
+        <v>5588443.0856916113</v>
       </c>
       <c r="AD62" s="14">
         <f t="shared" si="8"/>
-        <v>5281006.9455116056</v>
+        <v>5676708.1687498875</v>
       </c>
       <c r="AE62" s="14">
         <f t="shared" si="8"/>
-        <v>5363131.71885991</v>
+        <v>5759889.5103980666</v>
       </c>
       <c r="AF62" s="14">
         <f t="shared" si="8"/>
-        <v>5433926.8839393612</v>
+        <v>5830983.1944519598</v>
       </c>
       <c r="AG62" s="14">
         <f t="shared" si="8"/>
-        <v>5500527.1491667116</v>
+        <v>5897738.1229370702</v>
       </c>
       <c r="AH62" s="14">
         <f t="shared" si="8"/>
-        <v>5555534.9625290837</v>
+        <v>5952741.1620944031</v>
       </c>
     </row>
     <row r="63" spans="1:34" x14ac:dyDescent="0.25">
@@ -8688,135 +8720,135 @@
       </c>
       <c r="B63" s="14">
         <f t="shared" si="7"/>
-        <v>12683.565429359885</v>
+        <v>12842.076186353554</v>
       </c>
       <c r="C63" s="14">
         <f t="shared" si="7"/>
-        <v>16584.209818191659</v>
+        <v>17257.473459228397</v>
       </c>
       <c r="D63" s="14">
         <f t="shared" si="7"/>
-        <v>21631.322046967158</v>
+        <v>22845.855716681999</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" si="7"/>
-        <v>28054.365242681673</v>
+        <v>30031.12047508252</v>
       </c>
       <c r="F63" s="14">
         <f t="shared" si="7"/>
-        <v>36213.665751312161</v>
+        <v>39155.00987500677</v>
       </c>
       <c r="G63" s="14">
         <f t="shared" si="7"/>
-        <v>45531.767499053087</v>
+        <v>49618.415426654406</v>
       </c>
       <c r="H63" s="14">
         <f t="shared" si="7"/>
-        <v>58008.67952491749</v>
+        <v>63614.905849250586</v>
       </c>
       <c r="I63" s="14">
         <f t="shared" si="7"/>
-        <v>73076.937625128514</v>
+        <v>80423.11522644879</v>
       </c>
       <c r="J63" s="14">
         <f t="shared" si="7"/>
-        <v>93926.330239164556</v>
+        <v>103688.56219901521</v>
       </c>
       <c r="K63" s="14">
         <f t="shared" si="7"/>
-        <v>118628.06983929442</v>
+        <v>131285.83807694391</v>
       </c>
       <c r="L63" s="14">
         <f t="shared" si="7"/>
-        <v>149437.59399653701</v>
+        <v>165526.1936042422</v>
       </c>
       <c r="M63" s="14">
         <f t="shared" si="7"/>
-        <v>184861.63287430335</v>
+        <v>204736.91572425736</v>
       </c>
       <c r="N63" s="14">
         <f t="shared" si="7"/>
-        <v>223565.25917969807</v>
+        <v>247326.97575888754</v>
       </c>
       <c r="O63" s="14">
         <f t="shared" si="7"/>
-        <v>264713.56974730809</v>
+        <v>292435.45803798496</v>
       </c>
       <c r="P63" s="14">
         <f t="shared" si="7"/>
-        <v>308453.61664412101</v>
+        <v>340031.88231156324</v>
       </c>
       <c r="Q63" s="14">
         <f t="shared" si="7"/>
-        <v>354648.10417455767</v>
+        <v>389923.0724257346</v>
       </c>
       <c r="R63" s="14">
         <f t="shared" si="8"/>
-        <v>398393.82322385156</v>
+        <v>436745.31180672045</v>
       </c>
       <c r="S63" s="14">
         <f t="shared" si="8"/>
-        <v>439181.23552026413</v>
+        <v>480183.97429792763</v>
       </c>
       <c r="T63" s="14">
         <f t="shared" si="8"/>
-        <v>476570.73242519348</v>
+        <v>519816.44080406911</v>
       </c>
       <c r="U63" s="14">
         <f t="shared" si="8"/>
-        <v>510785.92324278993</v>
+        <v>555754.53952708188</v>
       </c>
       <c r="V63" s="14">
         <f t="shared" si="8"/>
-        <v>539921.0454818462</v>
+        <v>587321.44743249833</v>
       </c>
       <c r="W63" s="14">
         <f t="shared" si="8"/>
-        <v>565831.02084573347</v>
+        <v>613422.09593636717</v>
       </c>
       <c r="X63" s="14">
         <f t="shared" si="8"/>
-        <v>588830.6437043451</v>
+        <v>637384.41696877882</v>
       </c>
       <c r="Y63" s="14">
         <f t="shared" si="8"/>
-        <v>608766.37568583956</v>
+        <v>658043.02878632117</v>
       </c>
       <c r="Z63" s="14">
         <f t="shared" si="8"/>
-        <v>625909.86781288905</v>
+        <v>675656.97987121914</v>
       </c>
       <c r="AA63" s="14">
         <f t="shared" si="8"/>
-        <v>641482.24771657388</v>
+        <v>691646.66332990641</v>
       </c>
       <c r="AB63" s="14">
         <f t="shared" si="8"/>
-        <v>654711.6518478439</v>
+        <v>705115.83869920461</v>
       </c>
       <c r="AC63" s="14">
         <f t="shared" si="8"/>
-        <v>666195.50656349771</v>
+        <v>716723.22926248587</v>
       </c>
       <c r="AD63" s="14">
         <f t="shared" si="8"/>
-        <v>677294.2470212651</v>
+        <v>728043.31150911748</v>
       </c>
       <c r="AE63" s="14">
         <f t="shared" si="8"/>
-        <v>687826.82861046493</v>
+        <v>738711.3990043829</v>
       </c>
       <c r="AF63" s="14">
         <f t="shared" si="8"/>
-        <v>696906.37698447064</v>
+        <v>747829.23272550199</v>
       </c>
       <c r="AG63" s="14">
         <f t="shared" si="8"/>
-        <v>705447.92539635312</v>
+        <v>756390.61684973759</v>
       </c>
       <c r="AH63" s="14">
         <f t="shared" si="8"/>
-        <v>712502.73064769222</v>
+        <v>763444.80980466434</v>
       </c>
     </row>
     <row r="64" spans="1:34" x14ac:dyDescent="0.25">
@@ -8825,135 +8857,135 @@
       </c>
       <c r="B64" s="14">
         <f t="shared" si="7"/>
-        <v>2595.8724582003142</v>
+        <v>2628.3139440506466</v>
       </c>
       <c r="C64" s="14">
         <f t="shared" si="7"/>
-        <v>3394.1949326335157</v>
+        <v>3531.9879335533792</v>
       </c>
       <c r="D64" s="14">
         <f t="shared" si="7"/>
-        <v>4427.1583924030083</v>
+        <v>4675.7300200205618</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" si="7"/>
-        <v>5741.7257372436552</v>
+        <v>6146.2968724636112</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" si="7"/>
-        <v>7411.6428899951306</v>
+        <v>8013.6308911855422</v>
       </c>
       <c r="G64" s="14">
         <f t="shared" si="7"/>
-        <v>9318.7252340241339</v>
+        <v>10155.115983983551</v>
       </c>
       <c r="H64" s="14">
         <f t="shared" si="7"/>
-        <v>11872.30312753639</v>
+        <v>13019.697256641957</v>
       </c>
       <c r="I64" s="14">
         <f t="shared" si="7"/>
-        <v>14956.236932525297</v>
+        <v>16459.736891943077</v>
       </c>
       <c r="J64" s="14">
         <f t="shared" si="7"/>
-        <v>19223.362320761862</v>
+        <v>21221.342243385097</v>
       </c>
       <c r="K64" s="14">
         <f t="shared" si="7"/>
-        <v>24278.925431524269</v>
+        <v>26869.518126724746</v>
       </c>
       <c r="L64" s="14">
         <f t="shared" si="7"/>
-        <v>30584.533713002544</v>
+        <v>33877.294951571886</v>
       </c>
       <c r="M64" s="14">
         <f t="shared" si="7"/>
-        <v>37834.568207889184</v>
+        <v>41902.328147827502</v>
       </c>
       <c r="N64" s="14">
         <f t="shared" si="7"/>
-        <v>45755.817017477406</v>
+        <v>50618.991017802065</v>
       </c>
       <c r="O64" s="14">
         <f t="shared" si="7"/>
-        <v>54177.405308154324</v>
+        <v>59851.084898003355</v>
       </c>
       <c r="P64" s="14">
         <f t="shared" si="7"/>
-        <v>63129.429381526978</v>
+        <v>69592.371570802454</v>
       </c>
       <c r="Q64" s="14">
         <f t="shared" si="7"/>
-        <v>72583.789716465559</v>
+        <v>79803.314782749847</v>
       </c>
       <c r="R64" s="14">
         <f t="shared" si="8"/>
-        <v>81536.974676694983</v>
+        <v>89386.153481954447</v>
       </c>
       <c r="S64" s="14">
         <f t="shared" si="8"/>
-        <v>89884.699991883565</v>
+        <v>98276.494940749966</v>
       </c>
       <c r="T64" s="14">
         <f t="shared" si="8"/>
-        <v>97536.993487906497</v>
+        <v>106387.84413722201</v>
       </c>
       <c r="U64" s="14">
         <f t="shared" si="8"/>
-        <v>104539.61999621234</v>
+        <v>113743.08830690981</v>
       </c>
       <c r="V64" s="14">
         <f t="shared" si="8"/>
-        <v>110502.53805800552</v>
+        <v>120203.70596829176</v>
       </c>
       <c r="W64" s="14">
         <f t="shared" si="8"/>
-        <v>115805.38384016017</v>
+        <v>125545.57572642174</v>
       </c>
       <c r="X64" s="14">
         <f t="shared" si="8"/>
-        <v>120512.58449759214</v>
+        <v>130449.80628753855</v>
       </c>
       <c r="Y64" s="14">
         <f t="shared" si="8"/>
-        <v>124592.71621394948</v>
+        <v>134677.88566636006</v>
       </c>
       <c r="Z64" s="14">
         <f t="shared" si="8"/>
-        <v>128101.37624316868</v>
+        <v>138282.83182728209</v>
       </c>
       <c r="AA64" s="14">
         <f t="shared" si="8"/>
-        <v>131288.48576105191</v>
+        <v>141555.34846599211</v>
       </c>
       <c r="AB64" s="14">
         <f t="shared" si="8"/>
-        <v>133996.07189004926</v>
+        <v>144312.00719658026</v>
       </c>
       <c r="AC64" s="14">
         <f t="shared" si="8"/>
-        <v>136346.40644986744</v>
+        <v>146687.62512851038</v>
       </c>
       <c r="AD64" s="14">
         <f t="shared" si="8"/>
-        <v>138617.92188734375</v>
+        <v>149004.4413181105</v>
       </c>
       <c r="AE64" s="14">
         <f t="shared" si="8"/>
-        <v>140773.56484227045</v>
+        <v>151187.81748823117</v>
       </c>
       <c r="AF64" s="14">
         <f t="shared" si="8"/>
-        <v>142631.82383799579</v>
+        <v>153053.91212596721</v>
       </c>
       <c r="AG64" s="14">
         <f t="shared" si="8"/>
-        <v>144379.97347275581</v>
+        <v>154806.12142200099</v>
       </c>
       <c r="AH64" s="14">
         <f t="shared" si="8"/>
-        <v>145823.8399274931</v>
+        <v>156249.8625615497</v>
       </c>
     </row>
     <row r="65" spans="1:34" x14ac:dyDescent="0.25">
@@ -8962,135 +8994,135 @@
       </c>
       <c r="B65" s="14">
         <f t="shared" si="7"/>
-        <v>2192.9767328607759</v>
+        <v>2220.3830961528056</v>
       </c>
       <c r="C65" s="14">
         <f t="shared" si="7"/>
-        <v>2867.3945403387261</v>
+        <v>2983.8012012336994</v>
       </c>
       <c r="D65" s="14">
         <f t="shared" si="7"/>
-        <v>3740.0355770791625</v>
+        <v>3950.0273253611817</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" si="7"/>
-        <v>4850.5738055300035</v>
+        <v>5192.3529570910669</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" si="7"/>
-        <v>6261.3093176776147</v>
+        <v>6769.8649964828746</v>
       </c>
       <c r="G65" s="14">
         <f t="shared" si="7"/>
-        <v>7872.4004923975981</v>
+        <v>8578.9781397110546</v>
       </c>
       <c r="H65" s="14">
         <f t="shared" si="7"/>
-        <v>10029.647042908933</v>
+        <v>10998.958389697527</v>
       </c>
       <c r="I65" s="14">
         <f t="shared" si="7"/>
-        <v>12634.934933174611</v>
+        <v>13905.082246631675</v>
       </c>
       <c r="J65" s="14">
         <f t="shared" si="7"/>
-        <v>16239.775634435364</v>
+        <v>17927.656512093501</v>
       </c>
       <c r="K65" s="14">
         <f t="shared" si="7"/>
-        <v>20510.683566906551</v>
+        <v>22699.199989178076</v>
       </c>
       <c r="L65" s="14">
         <f t="shared" si="7"/>
-        <v>25837.621800768356</v>
+        <v>28619.325794058761</v>
       </c>
       <c r="M65" s="14">
         <f t="shared" si="7"/>
-        <v>31962.405362263944</v>
+        <v>35398.823386180404</v>
       </c>
       <c r="N65" s="14">
         <f t="shared" si="7"/>
-        <v>38654.226557004491</v>
+        <v>42762.605378496832</v>
       </c>
       <c r="O65" s="14">
         <f t="shared" si="7"/>
-        <v>45768.731399816024</v>
+        <v>50561.820247822085</v>
       </c>
       <c r="P65" s="14">
         <f t="shared" si="7"/>
-        <v>53331.345057085658</v>
+        <v>58791.197987121908</v>
       </c>
       <c r="Q65" s="14">
         <f t="shared" si="7"/>
-        <v>61318.329230020019</v>
+        <v>67417.338618040143</v>
       </c>
       <c r="R65" s="14">
         <f t="shared" si="8"/>
-        <v>68881.923597207948</v>
+        <v>75512.860505383913</v>
       </c>
       <c r="S65" s="14">
         <f t="shared" si="8"/>
-        <v>75934.029462691411</v>
+        <v>83023.365077647308</v>
       </c>
       <c r="T65" s="14">
         <f t="shared" si="8"/>
-        <v>82398.638899410202</v>
+        <v>89875.781884097174</v>
       </c>
       <c r="U65" s="14">
         <f t="shared" si="8"/>
-        <v>88314.413749255997</v>
+        <v>96089.445917428704</v>
       </c>
       <c r="V65" s="14">
         <f t="shared" si="8"/>
-        <v>93351.849439965372</v>
+        <v>101547.33510091445</v>
       </c>
       <c r="W65" s="14">
         <f t="shared" si="8"/>
-        <v>97831.66021860289</v>
+        <v>106060.11308911855</v>
       </c>
       <c r="X65" s="14">
         <f t="shared" si="8"/>
-        <v>101808.27374059847</v>
+        <v>110203.17623505222</v>
       </c>
       <c r="Y65" s="14">
         <f t="shared" si="8"/>
-        <v>105255.14336345436</v>
+        <v>113775.031113035</v>
       </c>
       <c r="Z65" s="14">
         <f t="shared" si="8"/>
-        <v>108219.23729776528</v>
+        <v>116820.46696607326</v>
       </c>
       <c r="AA65" s="14">
         <f t="shared" si="8"/>
-        <v>110911.6873816352</v>
+        <v>119585.06844867702</v>
       </c>
       <c r="AB65" s="14">
         <f t="shared" si="8"/>
-        <v>113199.03912125967</v>
+        <v>121913.87641361398</v>
       </c>
       <c r="AC65" s="14">
         <f t="shared" si="8"/>
-        <v>115184.58698122397</v>
+        <v>123920.78350738596</v>
       </c>
       <c r="AD65" s="14">
         <f t="shared" si="8"/>
-        <v>117103.54894215681</v>
+        <v>125878.01525891456</v>
       </c>
       <c r="AE65" s="14">
         <f t="shared" si="8"/>
-        <v>118924.62255830313</v>
+        <v>127722.51772090254</v>
       </c>
       <c r="AF65" s="14">
         <f t="shared" si="8"/>
-        <v>120494.4680753206</v>
+        <v>129298.98273902928</v>
       </c>
       <c r="AG65" s="14">
         <f t="shared" si="8"/>
-        <v>121971.29389643417</v>
+        <v>130779.23813646447</v>
       </c>
       <c r="AH65" s="14">
         <f t="shared" si="8"/>
-        <v>123191.06320004328</v>
+        <v>131998.90157459013</v>
       </c>
     </row>
     <row r="66" spans="1:34" x14ac:dyDescent="0.25">
@@ -9099,135 +9131,135 @@
       </c>
       <c r="B66" s="14">
         <f>SUM(B46:B47)-SUM(B50:B65)</f>
-        <v>2148.7772018108808</v>
+        <v>2175.6311887885095</v>
       </c>
       <c r="C66" s="14">
         <f t="shared" ref="C66:AH66" si="9">SUM(C46:C47)-SUM(C50:C65)</f>
-        <v>2809.6020922388998</v>
+        <v>2923.6625723716279</v>
       </c>
       <c r="D66" s="14">
         <f t="shared" si="9"/>
-        <v>3664.6550150605617</v>
+        <v>3870.414371516672</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" si="9"/>
-        <v>4752.8103024727316</v>
+        <v>5087.700881986937</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" si="9"/>
-        <v>6135.1123856933555</v>
+        <v>6633.418105081073</v>
       </c>
       <c r="G66" s="14">
         <f t="shared" si="9"/>
-        <v>7713.7319553416455</v>
+        <v>8406.0685027866857</v>
       </c>
       <c r="H66" s="14">
         <f t="shared" si="9"/>
-        <v>9827.4991180130746</v>
+        <v>10777.273957037134</v>
       </c>
       <c r="I66" s="14">
         <f t="shared" si="9"/>
-        <v>12380.277329870034</v>
+        <v>13624.824774994282</v>
       </c>
       <c r="J66" s="14">
         <f t="shared" si="9"/>
-        <v>15912.462327074492</v>
+        <v>17566.32390022208</v>
       </c>
       <c r="K66" s="14">
         <f t="shared" si="9"/>
-        <v>20097.289944627788</v>
+        <v>22241.696733582066</v>
       </c>
       <c r="L66" s="14">
         <f t="shared" si="9"/>
-        <v>25316.863531915937</v>
+        <v>28042.502173403278</v>
       </c>
       <c r="M66" s="14">
         <f t="shared" si="9"/>
-        <v>31318.201843334828</v>
+        <v>34685.358728784602</v>
       </c>
       <c r="N66" s="14">
         <f t="shared" si="9"/>
-        <v>37875.149122522213</v>
+        <v>41900.72340962803</v>
       </c>
       <c r="O66" s="14">
         <f t="shared" si="9"/>
-        <v>44846.260844470467</v>
+        <v>49542.744800967164</v>
       </c>
       <c r="P66" s="14">
         <f t="shared" si="9"/>
-        <v>52256.44973035343</v>
+        <v>57606.259112963453</v>
       </c>
       <c r="Q66" s="14">
         <f t="shared" si="9"/>
-        <v>60082.455927709118</v>
+        <v>66058.539545118809</v>
       </c>
       <c r="R66" s="14">
         <f t="shared" si="9"/>
-        <v>67493.60575726442</v>
+        <v>73990.895875043236</v>
       </c>
       <c r="S66" s="14">
         <f t="shared" si="9"/>
-        <v>74403.576155690476</v>
+        <v>81350.025936546735</v>
       </c>
       <c r="T66" s="14">
         <f t="shared" si="9"/>
-        <v>80737.891138647683</v>
+        <v>88064.33201666642</v>
       </c>
       <c r="U66" s="14">
         <f t="shared" si="9"/>
-        <v>86534.433317099698</v>
+        <v>94152.759410565719</v>
       </c>
       <c r="V66" s="14">
         <f t="shared" si="9"/>
-        <v>91470.339296215214</v>
+        <v>99500.644626010209</v>
       </c>
       <c r="W66" s="14">
         <f t="shared" si="9"/>
-        <v>95859.859314971603</v>
+        <v>103922.46739895083</v>
       </c>
       <c r="X66" s="14">
         <f t="shared" si="9"/>
-        <v>99756.324037300423</v>
+        <v>107982.02694659308</v>
       </c>
       <c r="Y66" s="14">
         <f t="shared" si="9"/>
-        <v>103133.7218693085</v>
+        <v>111481.89095106907</v>
       </c>
       <c r="Z66" s="14">
         <f t="shared" si="9"/>
-        <v>106038.07437548414</v>
+        <v>114465.9459264446</v>
       </c>
       <c r="AA66" s="14">
         <f t="shared" si="9"/>
-        <v>108676.25802355632</v>
+        <v>117174.82675901242</v>
       </c>
       <c r="AB66" s="14">
         <f t="shared" si="9"/>
-        <v>110917.50810021162</v>
+        <v>119456.69750915281</v>
       </c>
       <c r="AC66" s="14">
         <f t="shared" si="9"/>
-        <v>112863.03716609813</v>
+        <v>121423.15531266294</v>
       </c>
       <c r="AD66" s="14">
         <f t="shared" si="9"/>
-        <v>114743.3223743327</v>
+        <v>123340.93898238055</v>
       </c>
       <c r="AE66" s="14">
         <f t="shared" si="9"/>
-        <v>116527.69218115881</v>
+        <v>125148.26542575285</v>
       </c>
       <c r="AF66" s="14">
         <f t="shared" si="9"/>
-        <v>118065.89740093425</v>
+        <v>126692.95673033409</v>
       </c>
       <c r="AG66" s="14">
         <f t="shared" si="9"/>
-        <v>119512.95774038136</v>
+        <v>128143.37752286345</v>
       </c>
       <c r="AH66" s="14">
         <f t="shared" si="9"/>
-        <v>120708.14254639857</v>
+        <v>129338.45859711803</v>
       </c>
     </row>
     <row r="68" spans="1:34" x14ac:dyDescent="0.25">
@@ -9378,7 +9410,7 @@
       </c>
       <c r="H73">
         <f t="shared" si="10"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="I73">
         <f t="shared" si="10"/>
@@ -9640,7 +9672,7 @@
       </c>
       <c r="G75">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="H75">
         <f t="shared" si="11"/>
@@ -9833,7 +9865,7 @@
       </c>
       <c r="V76">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="W76">
         <f t="shared" si="11"/>
@@ -10204,7 +10236,7 @@
       </c>
       <c r="O79">
         <f t="shared" si="11"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="P79">
         <f t="shared" si="11"/>
@@ -10603,7 +10635,7 @@
       </c>
       <c r="O82">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="P82">
         <f t="shared" si="13"/>
@@ -10700,7 +10732,7 @@
       </c>
       <c r="F83">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G83">
         <f t="shared" si="13"/>
@@ -10865,7 +10897,7 @@
       </c>
       <c r="N84">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O84">
         <f t="shared" si="13"/>
@@ -11099,7 +11131,7 @@
       </c>
       <c r="F86">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="G86">
         <f t="shared" si="13"/>
@@ -11397,7 +11429,7 @@
       </c>
       <c r="N88">
         <f t="shared" si="13"/>
-        <v>7500</v>
+        <v>0</v>
       </c>
       <c r="O88">
         <f t="shared" si="13"/>
@@ -11628,55 +11660,55 @@
       </c>
       <c r="D92" s="18">
         <f t="shared" ref="D92:AH92" si="15">SUMPRODUCT(D73:D89,D50:D66)/SUM(D50:D66)</f>
-        <v>2745.8606136031613</v>
+        <v>2745.8606136031599</v>
       </c>
       <c r="E92" s="18">
         <f t="shared" si="15"/>
-        <v>2745.8606136031585</v>
+        <v>2745.8606136031603</v>
       </c>
       <c r="F92" s="18">
         <f t="shared" si="15"/>
-        <v>2745.8606136031594</v>
+        <v>1913.0458308533109</v>
       </c>
       <c r="G92" s="18">
         <f t="shared" si="15"/>
-        <v>1913.0458308533107</v>
+        <v>1531.9111519939402</v>
       </c>
       <c r="H92" s="18">
         <f t="shared" si="15"/>
-        <v>1531.9111519939393</v>
+        <v>1131.4322818029341</v>
       </c>
       <c r="I92" s="18">
         <f t="shared" si="15"/>
-        <v>933.18813916995634</v>
+        <v>933.18813916995919</v>
       </c>
       <c r="J92" s="18">
         <f t="shared" si="15"/>
-        <v>933.18813916995759</v>
+        <v>933.18813916995953</v>
       </c>
       <c r="K92" s="18">
         <f t="shared" si="15"/>
-        <v>744.00735890914984</v>
+        <v>744.00735890914916</v>
       </c>
       <c r="L92" s="18">
         <f t="shared" si="15"/>
-        <v>744.00735890915087</v>
+        <v>744.00735890914984</v>
       </c>
       <c r="M92" s="18">
         <f t="shared" si="15"/>
-        <v>621.92251501542182</v>
+        <v>621.92251501542137</v>
       </c>
       <c r="N92" s="18">
         <f t="shared" si="15"/>
-        <v>414.07391374925601</v>
+        <v>240.24673989502756</v>
       </c>
       <c r="O92" s="18">
         <f t="shared" si="15"/>
-        <v>154.75353065310318</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="P92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="Q92" s="18">
         <f t="shared" si="15"/>
@@ -11684,7 +11716,7 @@
       </c>
       <c r="R92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844433</v>
+        <v>18.397272874844436</v>
       </c>
       <c r="S92" s="18">
         <f t="shared" si="15"/>
@@ -11692,7 +11724,7 @@
       </c>
       <c r="T92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844436</v>
+        <v>18.397272874844433</v>
       </c>
       <c r="U92" s="18">
         <f t="shared" si="15"/>
@@ -11700,7 +11732,7 @@
       </c>
       <c r="V92" s="18">
         <f t="shared" si="15"/>
-        <v>18.397272874844436</v>
+        <v>0</v>
       </c>
       <c r="W92" s="18">
         <f t="shared" si="15"/>
@@ -13408,7 +13440,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A1" s="22" t="s">
+      <c r="A1" s="23" t="s">
         <v>146</v>
       </c>
       <c r="B1" t="s">
@@ -13422,7 +13454,7 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A2" s="22"/>
+      <c r="A2" s="23"/>
       <c r="B2" t="s">
         <v>150</v>
       </c>
@@ -13434,7 +13466,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" s="22"/>
+      <c r="A3" s="23"/>
       <c r="C3">
         <v>200000</v>
       </c>
@@ -13443,7 +13475,7 @@
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" s="22"/>
+      <c r="A4" s="23"/>
       <c r="D4">
         <v>200000</v>
       </c>
@@ -13701,7 +13733,9 @@
   </sheetPr>
   <dimension ref="A1:AJ7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -13710,7 +13744,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>2016</v>
@@ -13824,67 +13858,67 @@
       </c>
       <c r="B2" s="19">
         <f t="shared" ref="B2:C2" si="0">C2</f>
-        <v>7.4910778834154756E-2</v>
+        <v>6.2700277756470246E-2</v>
       </c>
       <c r="C2" s="19">
         <f t="shared" si="0"/>
-        <v>7.4910778834154756E-2</v>
+        <v>6.2700277756470246E-2</v>
       </c>
       <c r="D2" s="19">
         <f>E2</f>
-        <v>7.4910778834154756E-2</v>
+        <v>6.2700277756470246E-2</v>
       </c>
       <c r="E2" s="12">
         <f>Data!A33</f>
-        <v>7.4910778834154756E-2</v>
+        <v>6.2700277756470246E-2</v>
       </c>
       <c r="F2" s="12">
         <f>Data!B33</f>
-        <v>7.4887277684406922E-2</v>
+        <v>6.4403005325742169E-2</v>
       </c>
       <c r="G2" s="12">
         <f>Data!C33</f>
-        <v>7.4488976746474589E-2</v>
+        <v>6.5848181107960257E-2</v>
       </c>
       <c r="H2" s="12">
         <f>Data!D33</f>
-        <v>7.4038449883297344E-2</v>
+        <v>4.9925866788600545E-2</v>
       </c>
       <c r="I2" s="12">
         <f>Data!E33</f>
-        <v>5.468037191991898E-2</v>
+        <v>4.282252971098393E-2</v>
       </c>
       <c r="J2" s="12">
         <f>Data!F33</f>
-        <v>4.5699973234773289E-2</v>
+        <v>3.4970441754758275E-2</v>
       </c>
       <c r="K2" s="12">
         <f>Data!G33</f>
-        <v>3.1927680502937886E-2</v>
+        <v>3.1193371498232918E-2</v>
       </c>
       <c r="L2" s="12">
         <f>Data!H33</f>
-        <v>3.162806070086141E-2</v>
+        <v>3.1628060700861452E-2</v>
       </c>
       <c r="M2" s="12">
         <f>Data!I33</f>
-        <v>2.7810996969038597E-2</v>
+        <v>2.7810996969038583E-2</v>
       </c>
       <c r="N2" s="12">
         <f>Data!J33</f>
-        <v>2.814197021438344E-2</v>
+        <v>2.814197021438342E-2</v>
       </c>
       <c r="O2" s="12">
         <f>Data!K33</f>
-        <v>2.5662804338246799E-2</v>
+        <v>2.5662804338246789E-2</v>
       </c>
       <c r="P2" s="12">
         <f>Data!L33</f>
-        <v>2.1124974741057411E-2</v>
+        <v>1.7110063830100854E-2</v>
       </c>
       <c r="Q2" s="12">
         <f>Data!M33</f>
-        <v>1.5273134793330012E-2</v>
+        <v>1.2095037653643292E-2</v>
       </c>
       <c r="R2" s="12">
         <f>Data!N33</f>
@@ -13912,7 +13946,7 @@
       </c>
       <c r="X2" s="12">
         <f>Data!T33</f>
-        <v>1.259211892198415E-2</v>
+        <v>1.2145705611196954E-2</v>
       </c>
       <c r="Y2" s="12">
         <f>Data!U33</f>
@@ -14534,7 +14568,7 @@
   <sheetData>
     <row r="1" spans="1:36" ht="60" x14ac:dyDescent="0.25">
       <c r="A1" s="21" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="B1">
         <v>2016</v>
